--- a/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9858563468405371</v>
+        <v>0.9858563468405375</v>
       </c>
       <c r="D2">
         <v>1.00444190111168</v>
@@ -430,13 +430,13 @@
         <v>0.9936469657147065</v>
       </c>
       <c r="F2">
-        <v>0.9611174506883348</v>
+        <v>0.9611174506883354</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037576286890945</v>
+        <v>1.037576286890946</v>
       </c>
       <c r="J2">
         <v>1.008468481548377</v>
@@ -448,7 +448,7 @@
         <v>1.005195523753844</v>
       </c>
       <c r="M2">
-        <v>0.9731464419721193</v>
+        <v>0.9731464419721201</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.993387413029353</v>
+        <v>0.9933874130293521</v>
       </c>
       <c r="D3">
-        <v>1.010651966011721</v>
+        <v>1.01065196601172</v>
       </c>
       <c r="E3">
-        <v>0.999916106518468</v>
+        <v>0.9999161065184676</v>
       </c>
       <c r="F3">
-        <v>0.9725933008865166</v>
+        <v>0.9725933008865151</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040437209101732</v>
+        <v>1.040437209101731</v>
       </c>
       <c r="J3">
         <v>1.01405998155921</v>
       </c>
       <c r="K3">
-        <v>1.02115034327989</v>
+        <v>1.021150343279889</v>
       </c>
       <c r="L3">
         <v>1.01055006088987</v>
       </c>
       <c r="M3">
-        <v>0.9835892966276072</v>
+        <v>0.9835892966276056</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9980927930602794</v>
+        <v>0.9980927930602805</v>
       </c>
       <c r="D4">
-        <v>1.014529318174777</v>
+        <v>1.014529318174778</v>
       </c>
       <c r="E4">
-        <v>1.003838602144855</v>
+        <v>1.003838602144856</v>
       </c>
       <c r="F4">
-        <v>0.9797265805883726</v>
+        <v>0.979726580588374</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.042206303598803</v>
       </c>
       <c r="J4">
-        <v>1.017545411529005</v>
+        <v>1.017545411529007</v>
       </c>
       <c r="K4">
-        <v>1.02445549360289</v>
+        <v>1.024455493602891</v>
       </c>
       <c r="L4">
-        <v>1.013890918348013</v>
+        <v>1.013890918348014</v>
       </c>
       <c r="M4">
-        <v>0.990076007147247</v>
+        <v>0.9900760071472483</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000033375373187</v>
+        <v>1.000033375373188</v>
       </c>
       <c r="D5">
-        <v>1.01612775060529</v>
+        <v>1.016127750605291</v>
       </c>
       <c r="E5">
-        <v>1.005457553645832</v>
+        <v>1.005457553645833</v>
       </c>
       <c r="F5">
-        <v>0.9826608572650742</v>
+        <v>0.9826608572650757</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042931483537354</v>
+        <v>1.042931483537355</v>
       </c>
       <c r="J5">
-        <v>1.018980909065252</v>
+        <v>1.018980909065253</v>
       </c>
       <c r="K5">
-        <v>1.025815527963017</v>
+        <v>1.025815527963018</v>
       </c>
       <c r="L5">
-        <v>1.015267595109683</v>
+        <v>1.015267595109684</v>
       </c>
       <c r="M5">
-        <v>0.9927431728783193</v>
+        <v>0.9927431728783206</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000357075564244</v>
+        <v>1.000357075564245</v>
       </c>
       <c r="D6">
         <v>1.016394339104794</v>
       </c>
       <c r="E6">
-        <v>1.005727674715272</v>
+        <v>1.005727674715273</v>
       </c>
       <c r="F6">
-        <v>0.9831498957396093</v>
+        <v>0.9831498957396099</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.043052186893625</v>
       </c>
       <c r="J6">
-        <v>1.01922024289134</v>
+        <v>1.019220242891341</v>
       </c>
       <c r="K6">
-        <v>1.02604220968765</v>
+        <v>1.026042209687651</v>
       </c>
       <c r="L6">
-        <v>1.015497163712234</v>
+        <v>1.015497163712235</v>
       </c>
       <c r="M6">
-        <v>0.9931876242804312</v>
+        <v>0.9931876242804315</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9981188675718174</v>
+        <v>0.9981188675718184</v>
       </c>
       <c r="D7">
-        <v>1.014550798035212</v>
+        <v>1.014550798035213</v>
       </c>
       <c r="E7">
-        <v>1.003860350267147</v>
+        <v>1.003860350267148</v>
       </c>
       <c r="F7">
-        <v>0.9797660354902394</v>
+        <v>0.9797660354902403</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042216064987165</v>
+        <v>1.042216064987166</v>
       </c>
       <c r="J7">
-        <v>1.017564707262224</v>
+        <v>1.017564707262225</v>
       </c>
       <c r="K7">
-        <v>1.024473779740042</v>
+        <v>1.024473779740043</v>
       </c>
       <c r="L7">
-        <v>1.013909420595394</v>
+        <v>1.013909420595396</v>
       </c>
       <c r="M7">
-        <v>0.9901118750469323</v>
+        <v>0.9901118750469331</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9884378860491272</v>
+        <v>0.9884378860491264</v>
       </c>
       <c r="D8">
-        <v>1.006571177980922</v>
+        <v>1.006571177980921</v>
       </c>
       <c r="E8">
-        <v>0.9957946998851761</v>
+        <v>0.9957946998851754</v>
       </c>
       <c r="F8">
-        <v>0.9650597966410727</v>
+        <v>0.9650597966410716</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038560859557611</v>
+        <v>1.03856085955761</v>
       </c>
       <c r="J8">
-        <v>1.010386880834189</v>
+        <v>1.010386880834188</v>
       </c>
       <c r="K8">
-        <v>1.017662868161047</v>
+        <v>1.017662868161046</v>
       </c>
       <c r="L8">
-        <v>1.007031937574238</v>
+        <v>1.007031937574237</v>
       </c>
       <c r="M8">
-        <v>0.9767348204461969</v>
+        <v>0.9767348204461958</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9699606521145417</v>
+        <v>0.969960652114544</v>
       </c>
       <c r="D9">
-        <v>0.9913196673006018</v>
+        <v>0.9913196673006037</v>
       </c>
       <c r="E9">
-        <v>0.9804509311669407</v>
+        <v>0.9804509311669426</v>
       </c>
       <c r="F9">
-        <v>0.9366198677267555</v>
+        <v>0.9366198677267578</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031433608686049</v>
+        <v>1.03143360868605</v>
       </c>
       <c r="J9">
-        <v>0.9966206697378069</v>
+        <v>0.9966206697378092</v>
       </c>
       <c r="K9">
-        <v>1.00455516449981</v>
+        <v>1.004555164499813</v>
       </c>
       <c r="L9">
-        <v>0.9938693465200933</v>
+        <v>0.9938693465200952</v>
       </c>
       <c r="M9">
-        <v>0.9508323688621534</v>
+        <v>0.9508323688621556</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9564688548604542</v>
+        <v>0.9564688548604526</v>
       </c>
       <c r="D10">
-        <v>0.9801683340470302</v>
+        <v>0.9801683340470287</v>
       </c>
       <c r="E10">
-        <v>0.9692893661896473</v>
+        <v>0.9692893661896457</v>
       </c>
       <c r="F10">
-        <v>0.9154752494514568</v>
+        <v>0.9154752494514551</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02612551542297</v>
+        <v>1.026125515422969</v>
       </c>
       <c r="J10">
-        <v>0.986522774212979</v>
+        <v>0.9865227742129774</v>
       </c>
       <c r="K10">
-        <v>0.9949051313526037</v>
+        <v>0.9949051313526024</v>
       </c>
       <c r="L10">
-        <v>0.9842361687918973</v>
+        <v>0.9842361687918956</v>
       </c>
       <c r="M10">
-        <v>0.9315589710117649</v>
+        <v>0.9315589710117632</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9502864684001028</v>
+        <v>0.9502864684001024</v>
       </c>
       <c r="D11">
-        <v>0.9750545005711739</v>
+        <v>0.9750545005711734</v>
       </c>
       <c r="E11">
-        <v>0.9641868154853233</v>
+        <v>0.9641868154853229</v>
       </c>
       <c r="F11">
-        <v>0.9056586732871407</v>
+        <v>0.9056586732871402</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.02366808753143</v>
       </c>
       <c r="J11">
-        <v>0.9818843053317535</v>
+        <v>0.9818843053317531</v>
       </c>
       <c r="K11">
-        <v>0.9904627006758862</v>
+        <v>0.990462700675886</v>
       </c>
       <c r="L11">
-        <v>0.9798172657702119</v>
+        <v>0.9798172657702114</v>
       </c>
       <c r="M11">
-        <v>0.9226097070933513</v>
+        <v>0.922609707093351</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9479323841538786</v>
+        <v>0.9479323841538765</v>
       </c>
       <c r="D12">
-        <v>0.9731066328326021</v>
+        <v>0.9731066328326001</v>
       </c>
       <c r="E12">
-        <v>0.9622459076108378</v>
+        <v>0.9622459076108361</v>
       </c>
       <c r="F12">
-        <v>0.9018974783187712</v>
+        <v>0.9018974783187685</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022728539599074</v>
+        <v>1.022728539599073</v>
       </c>
       <c r="J12">
-        <v>0.9801163545789034</v>
+        <v>0.9801163545789017</v>
       </c>
       <c r="K12">
-        <v>0.9887678640025118</v>
+        <v>0.98876786400251</v>
       </c>
       <c r="L12">
-        <v>0.978134012157768</v>
+        <v>0.9781340121577662</v>
       </c>
       <c r="M12">
-        <v>0.919180856288798</v>
+        <v>0.9191808562887959</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9484400721452941</v>
+        <v>0.9484400721452926</v>
       </c>
       <c r="D13">
-        <v>0.9735267463969086</v>
+        <v>0.973526746396907</v>
       </c>
       <c r="E13">
-        <v>0.9626643951691426</v>
+        <v>0.9626643951691414</v>
       </c>
       <c r="F13">
-        <v>0.9027097563895583</v>
+        <v>0.9027097563895556</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022931338719701</v>
+        <v>1.0229313387197</v>
       </c>
       <c r="J13">
-        <v>0.9804977154590182</v>
+        <v>0.9804977154590168</v>
       </c>
       <c r="K13">
-        <v>0.9891335288299881</v>
+        <v>0.9891335288299863</v>
       </c>
       <c r="L13">
-        <v>0.9784970559737201</v>
+        <v>0.9784970559737187</v>
       </c>
       <c r="M13">
-        <v>0.9199213541484053</v>
+        <v>0.9199213541484028</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9500930979676805</v>
+        <v>0.9500930979676814</v>
       </c>
       <c r="D14">
-        <v>0.974894511678319</v>
+        <v>0.9748945116783194</v>
       </c>
       <c r="E14">
-        <v>0.9640273426477707</v>
+        <v>0.9640273426477712</v>
       </c>
       <c r="F14">
-        <v>0.9053502184862778</v>
+        <v>0.9053502184862791</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.023590988549189</v>
       </c>
       <c r="J14">
-        <v>0.9817391171681839</v>
+        <v>0.9817391171681845</v>
       </c>
       <c r="K14">
-        <v>0.990323550296248</v>
+        <v>0.9903235502962486</v>
       </c>
       <c r="L14">
-        <v>0.9796790120988192</v>
+        <v>0.9796790120988198</v>
       </c>
       <c r="M14">
-        <v>0.9223285054060663</v>
+        <v>0.9223285054060673</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9511037223127443</v>
+        <v>0.9511037223127453</v>
       </c>
       <c r="D15">
-        <v>0.9757306446865347</v>
+        <v>0.9757306446865358</v>
       </c>
       <c r="E15">
-        <v>0.9648608882730449</v>
+        <v>0.9648608882730457</v>
       </c>
       <c r="F15">
-        <v>0.9069613433966524</v>
+        <v>0.9069613433966538</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.023993780399615</v>
       </c>
       <c r="J15">
-        <v>0.98249785216149</v>
+        <v>0.9824978521614908</v>
       </c>
       <c r="K15">
-        <v>0.9910506665309017</v>
+        <v>0.9910506665309023</v>
       </c>
       <c r="L15">
-        <v>0.9804015498307872</v>
+        <v>0.9804015498307878</v>
       </c>
       <c r="M15">
-        <v>0.9237972845914928</v>
+        <v>0.9237972845914941</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9568714590824531</v>
+        <v>0.9568714590824549</v>
       </c>
       <c r="D16">
-        <v>0.9805012671127963</v>
+        <v>0.9805012671127978</v>
       </c>
       <c r="E16">
-        <v>0.9696219139235195</v>
+        <v>0.9696219139235206</v>
       </c>
       <c r="F16">
-        <v>0.9161115677547158</v>
+        <v>0.9161115677547179</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026285025471814</v>
+        <v>1.026285025471815</v>
       </c>
       <c r="J16">
-        <v>0.9868246006562217</v>
+        <v>0.9868246006562232</v>
       </c>
       <c r="K16">
-        <v>0.9951939906351989</v>
+        <v>0.9951939906352005</v>
       </c>
       <c r="L16">
-        <v>0.9845238408018958</v>
+        <v>0.9845238408018971</v>
       </c>
       <c r="M16">
-        <v>0.9321390598084491</v>
+        <v>0.9321390598084512</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9603940518853655</v>
+        <v>0.9603940518853653</v>
       </c>
       <c r="D17">
-        <v>0.9834138273187578</v>
+        <v>0.9834138273187576</v>
       </c>
       <c r="E17">
-        <v>0.9725329169437837</v>
+        <v>0.9725329169437833</v>
       </c>
       <c r="F17">
-        <v>0.9216643812522964</v>
+        <v>0.9216643812522963</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.027677846918284</v>
       </c>
       <c r="J17">
-        <v>0.9894641691512907</v>
+        <v>0.9894641691512903</v>
       </c>
       <c r="K17">
-        <v>0.9977190593771242</v>
+        <v>0.9977190593771241</v>
       </c>
       <c r="L17">
-        <v>0.987040315772829</v>
+        <v>0.9870403157728287</v>
       </c>
       <c r="M17">
-        <v>0.9372010535117449</v>
+        <v>0.9372010535117447</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9624163831900885</v>
+        <v>0.9624163831900879</v>
       </c>
       <c r="D18">
-        <v>0.9850855773004462</v>
+        <v>0.9850855773004452</v>
       </c>
       <c r="E18">
-        <v>0.9742052421929415</v>
+        <v>0.974205242192941</v>
       </c>
       <c r="F18">
-        <v>0.9248407012176383</v>
+        <v>0.9248407012176363</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028475136286382</v>
+        <v>1.028475136286381</v>
       </c>
       <c r="J18">
-        <v>0.9909785064484413</v>
+        <v>0.9909785064484408</v>
       </c>
       <c r="K18">
-        <v>0.9991668169256711</v>
+        <v>0.9991668169256702</v>
       </c>
       <c r="L18">
-        <v>0.9884845943516541</v>
+        <v>0.9884845943516535</v>
       </c>
       <c r="M18">
-        <v>0.9400964652774465</v>
+        <v>0.9400964652774444</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9631006395353177</v>
+        <v>0.9631006395353183</v>
       </c>
       <c r="D19">
-        <v>0.9856511547866018</v>
+        <v>0.9856511547866025</v>
       </c>
       <c r="E19">
-        <v>0.9747712567671036</v>
+        <v>0.974771256767104</v>
       </c>
       <c r="F19">
-        <v>0.9259135546619276</v>
+        <v>0.9259135546619279</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028744504770653</v>
+        <v>1.028744504770654</v>
       </c>
       <c r="J19">
-        <v>0.9914907064403647</v>
+        <v>0.9914907064403653</v>
       </c>
       <c r="K19">
-        <v>0.9996563501523386</v>
+        <v>0.999656350152339</v>
       </c>
       <c r="L19">
-        <v>0.9889731908064302</v>
+        <v>0.9889731908064305</v>
       </c>
       <c r="M19">
-        <v>0.9410744057284124</v>
+        <v>0.9410744057284129</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1111,10 +1111,10 @@
         <v>0.9831041763099632</v>
       </c>
       <c r="E20">
-        <v>0.9722232769484638</v>
+        <v>0.9722232769484632</v>
       </c>
       <c r="F20">
-        <v>0.9210751876009761</v>
+        <v>0.9210751876009754</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.027529993166611</v>
       </c>
       <c r="J20">
-        <v>0.9891836164542307</v>
+        <v>0.9891836164542305</v>
       </c>
       <c r="K20">
-        <v>0.9974507701851768</v>
+        <v>0.9974507701851769</v>
       </c>
       <c r="L20">
-        <v>0.986772787382818</v>
+        <v>0.9867727873828178</v>
       </c>
       <c r="M20">
-        <v>0.936663953411507</v>
+        <v>0.9366639534115065</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9496079740675356</v>
+        <v>0.9496079740675346</v>
       </c>
       <c r="D21">
-        <v>0.9744931238261063</v>
+        <v>0.9744931238261052</v>
       </c>
       <c r="E21">
-        <v>0.9636272932391701</v>
+        <v>0.9636272932391693</v>
       </c>
       <c r="F21">
-        <v>0.904575982997939</v>
+        <v>0.9045759829979381</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023397502479656</v>
+        <v>1.023397502479655</v>
       </c>
       <c r="J21">
-        <v>0.9813748436902791</v>
+        <v>0.9813748436902779</v>
       </c>
       <c r="K21">
-        <v>0.9899743991126154</v>
+        <v>0.9899743991126146</v>
       </c>
       <c r="L21">
-        <v>0.9793321536464552</v>
+        <v>0.9793321536464542</v>
       </c>
       <c r="M21">
-        <v>0.9216226779893606</v>
+        <v>0.9216226779893596</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9427239041527169</v>
+        <v>0.9427239041527177</v>
       </c>
       <c r="D22">
-        <v>0.9687955807718964</v>
+        <v>0.9687955807718975</v>
       </c>
       <c r="E22">
-        <v>0.957955537771471</v>
+        <v>0.9579555377714717</v>
       </c>
       <c r="F22">
-        <v>0.8935269778710394</v>
+        <v>0.8935269778710404</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020642591611778</v>
+        <v>1.020642591611779</v>
       </c>
       <c r="J22">
-        <v>0.9762013911152582</v>
+        <v>0.9762013911152591</v>
       </c>
       <c r="K22">
-        <v>0.9850116271948346</v>
+        <v>0.9850116271948355</v>
       </c>
       <c r="L22">
-        <v>0.9744085939948381</v>
+        <v>0.9744085939948389</v>
       </c>
       <c r="M22">
-        <v>0.9115503859173905</v>
+        <v>0.9115503859173916</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9464078555736086</v>
+        <v>0.9464078555736083</v>
       </c>
       <c r="D23">
-        <v>0.9718449756245796</v>
+        <v>0.9718449756245789</v>
       </c>
       <c r="E23">
-        <v>0.9609895478175727</v>
+        <v>0.9609895478175726</v>
       </c>
       <c r="F23">
-        <v>0.8994545008131152</v>
+        <v>0.8994545008131141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022118990051314</v>
+        <v>1.022118990051313</v>
       </c>
       <c r="J23">
-        <v>0.9789709096618546</v>
+        <v>0.9789709096618541</v>
       </c>
       <c r="K23">
-        <v>0.9876693139085232</v>
+        <v>0.9876693139085224</v>
       </c>
       <c r="L23">
-        <v>0.9770437402582156</v>
+        <v>0.9770437402582153</v>
       </c>
       <c r="M23">
-        <v>0.9169537902995811</v>
+        <v>0.9169537902995802</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9601888428228756</v>
+        <v>0.9601888428228749</v>
       </c>
       <c r="D24">
-        <v>0.9832441776050964</v>
+        <v>0.9832441776050956</v>
       </c>
       <c r="E24">
-        <v>0.9723632687123124</v>
+        <v>0.9723632687123119</v>
       </c>
       <c r="F24">
-        <v>0.9213416109809869</v>
+        <v>0.921341610980986</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02759684842669</v>
+        <v>1.027596848426689</v>
       </c>
       <c r="J24">
-        <v>0.989310463887746</v>
+        <v>0.9893104638877452</v>
       </c>
       <c r="K24">
-        <v>0.9975720756306066</v>
+        <v>0.9975720756306058</v>
       </c>
       <c r="L24">
-        <v>0.9868937443448953</v>
+        <v>0.986893744344895</v>
       </c>
       <c r="M24">
-        <v>0.9369068214542373</v>
+        <v>0.9369068214542366</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9749261038674265</v>
+        <v>0.9749261038674284</v>
       </c>
       <c r="D25">
-        <v>0.9954207169616215</v>
+        <v>0.9954207169616235</v>
       </c>
       <c r="E25">
-        <v>0.9845677823051928</v>
+        <v>0.9845677823051944</v>
       </c>
       <c r="F25">
-        <v>0.9443163287268446</v>
+        <v>0.9443163287268473</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033366379081749</v>
+        <v>1.033366379081751</v>
       </c>
       <c r="J25">
-        <v>1.000327806549819</v>
+        <v>1.000327806549821</v>
       </c>
       <c r="K25">
-        <v>1.008090538791099</v>
+        <v>1.008090538791101</v>
       </c>
       <c r="L25">
-        <v>0.9974104826901193</v>
+        <v>0.9974104826901209</v>
       </c>
       <c r="M25">
-        <v>0.9578452900390972</v>
+        <v>0.9578452900390997</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9858563468405375</v>
+        <v>0.9858563468405371</v>
       </c>
       <c r="D2">
         <v>1.00444190111168</v>
@@ -430,13 +430,13 @@
         <v>0.9936469657147065</v>
       </c>
       <c r="F2">
-        <v>0.9611174506883354</v>
+        <v>0.9611174506883348</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037576286890946</v>
+        <v>1.037576286890945</v>
       </c>
       <c r="J2">
         <v>1.008468481548377</v>
@@ -448,7 +448,7 @@
         <v>1.005195523753844</v>
       </c>
       <c r="M2">
-        <v>0.9731464419721201</v>
+        <v>0.9731464419721193</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9933874130293521</v>
+        <v>0.993387413029353</v>
       </c>
       <c r="D3">
-        <v>1.01065196601172</v>
+        <v>1.010651966011721</v>
       </c>
       <c r="E3">
-        <v>0.9999161065184676</v>
+        <v>0.999916106518468</v>
       </c>
       <c r="F3">
-        <v>0.9725933008865151</v>
+        <v>0.9725933008865166</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040437209101731</v>
+        <v>1.040437209101732</v>
       </c>
       <c r="J3">
         <v>1.01405998155921</v>
       </c>
       <c r="K3">
-        <v>1.021150343279889</v>
+        <v>1.02115034327989</v>
       </c>
       <c r="L3">
         <v>1.01055006088987</v>
       </c>
       <c r="M3">
-        <v>0.9835892966276056</v>
+        <v>0.9835892966276072</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9980927930602805</v>
+        <v>0.9980927930602794</v>
       </c>
       <c r="D4">
-        <v>1.014529318174778</v>
+        <v>1.014529318174777</v>
       </c>
       <c r="E4">
-        <v>1.003838602144856</v>
+        <v>1.003838602144855</v>
       </c>
       <c r="F4">
-        <v>0.979726580588374</v>
+        <v>0.9797265805883726</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.042206303598803</v>
       </c>
       <c r="J4">
-        <v>1.017545411529007</v>
+        <v>1.017545411529005</v>
       </c>
       <c r="K4">
-        <v>1.024455493602891</v>
+        <v>1.02445549360289</v>
       </c>
       <c r="L4">
-        <v>1.013890918348014</v>
+        <v>1.013890918348013</v>
       </c>
       <c r="M4">
-        <v>0.9900760071472483</v>
+        <v>0.990076007147247</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000033375373188</v>
+        <v>1.000033375373187</v>
       </c>
       <c r="D5">
-        <v>1.016127750605291</v>
+        <v>1.01612775060529</v>
       </c>
       <c r="E5">
-        <v>1.005457553645833</v>
+        <v>1.005457553645832</v>
       </c>
       <c r="F5">
-        <v>0.9826608572650757</v>
+        <v>0.9826608572650742</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042931483537355</v>
+        <v>1.042931483537354</v>
       </c>
       <c r="J5">
-        <v>1.018980909065253</v>
+        <v>1.018980909065252</v>
       </c>
       <c r="K5">
-        <v>1.025815527963018</v>
+        <v>1.025815527963017</v>
       </c>
       <c r="L5">
-        <v>1.015267595109684</v>
+        <v>1.015267595109683</v>
       </c>
       <c r="M5">
-        <v>0.9927431728783206</v>
+        <v>0.9927431728783193</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000357075564245</v>
+        <v>1.000357075564244</v>
       </c>
       <c r="D6">
         <v>1.016394339104794</v>
       </c>
       <c r="E6">
-        <v>1.005727674715273</v>
+        <v>1.005727674715272</v>
       </c>
       <c r="F6">
-        <v>0.9831498957396099</v>
+        <v>0.9831498957396093</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.043052186893625</v>
       </c>
       <c r="J6">
-        <v>1.019220242891341</v>
+        <v>1.01922024289134</v>
       </c>
       <c r="K6">
-        <v>1.026042209687651</v>
+        <v>1.02604220968765</v>
       </c>
       <c r="L6">
-        <v>1.015497163712235</v>
+        <v>1.015497163712234</v>
       </c>
       <c r="M6">
-        <v>0.9931876242804315</v>
+        <v>0.9931876242804312</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9981188675718184</v>
+        <v>0.9981188675718174</v>
       </c>
       <c r="D7">
-        <v>1.014550798035213</v>
+        <v>1.014550798035212</v>
       </c>
       <c r="E7">
-        <v>1.003860350267148</v>
+        <v>1.003860350267147</v>
       </c>
       <c r="F7">
-        <v>0.9797660354902403</v>
+        <v>0.9797660354902394</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042216064987166</v>
+        <v>1.042216064987165</v>
       </c>
       <c r="J7">
-        <v>1.017564707262225</v>
+        <v>1.017564707262224</v>
       </c>
       <c r="K7">
-        <v>1.024473779740043</v>
+        <v>1.024473779740042</v>
       </c>
       <c r="L7">
-        <v>1.013909420595396</v>
+        <v>1.013909420595394</v>
       </c>
       <c r="M7">
-        <v>0.9901118750469331</v>
+        <v>0.9901118750469323</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9884378860491264</v>
+        <v>0.9884378860491272</v>
       </c>
       <c r="D8">
-        <v>1.006571177980921</v>
+        <v>1.006571177980922</v>
       </c>
       <c r="E8">
-        <v>0.9957946998851754</v>
+        <v>0.9957946998851761</v>
       </c>
       <c r="F8">
-        <v>0.9650597966410716</v>
+        <v>0.9650597966410727</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03856085955761</v>
+        <v>1.038560859557611</v>
       </c>
       <c r="J8">
-        <v>1.010386880834188</v>
+        <v>1.010386880834189</v>
       </c>
       <c r="K8">
-        <v>1.017662868161046</v>
+        <v>1.017662868161047</v>
       </c>
       <c r="L8">
-        <v>1.007031937574237</v>
+        <v>1.007031937574238</v>
       </c>
       <c r="M8">
-        <v>0.9767348204461958</v>
+        <v>0.9767348204461969</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.969960652114544</v>
+        <v>0.9699606521145417</v>
       </c>
       <c r="D9">
-        <v>0.9913196673006037</v>
+        <v>0.9913196673006018</v>
       </c>
       <c r="E9">
-        <v>0.9804509311669426</v>
+        <v>0.9804509311669407</v>
       </c>
       <c r="F9">
-        <v>0.9366198677267578</v>
+        <v>0.9366198677267555</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03143360868605</v>
+        <v>1.031433608686049</v>
       </c>
       <c r="J9">
-        <v>0.9966206697378092</v>
+        <v>0.9966206697378069</v>
       </c>
       <c r="K9">
-        <v>1.004555164499813</v>
+        <v>1.00455516449981</v>
       </c>
       <c r="L9">
-        <v>0.9938693465200952</v>
+        <v>0.9938693465200933</v>
       </c>
       <c r="M9">
-        <v>0.9508323688621556</v>
+        <v>0.9508323688621534</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9564688548604526</v>
+        <v>0.9564688548604542</v>
       </c>
       <c r="D10">
-        <v>0.9801683340470287</v>
+        <v>0.9801683340470302</v>
       </c>
       <c r="E10">
-        <v>0.9692893661896457</v>
+        <v>0.9692893661896473</v>
       </c>
       <c r="F10">
-        <v>0.9154752494514551</v>
+        <v>0.9154752494514568</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026125515422969</v>
+        <v>1.02612551542297</v>
       </c>
       <c r="J10">
-        <v>0.9865227742129774</v>
+        <v>0.986522774212979</v>
       </c>
       <c r="K10">
-        <v>0.9949051313526024</v>
+        <v>0.9949051313526037</v>
       </c>
       <c r="L10">
-        <v>0.9842361687918956</v>
+        <v>0.9842361687918973</v>
       </c>
       <c r="M10">
-        <v>0.9315589710117632</v>
+        <v>0.9315589710117649</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9502864684001024</v>
+        <v>0.9502864684001028</v>
       </c>
       <c r="D11">
-        <v>0.9750545005711734</v>
+        <v>0.9750545005711739</v>
       </c>
       <c r="E11">
-        <v>0.9641868154853229</v>
+        <v>0.9641868154853233</v>
       </c>
       <c r="F11">
-        <v>0.9056586732871402</v>
+        <v>0.9056586732871407</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.02366808753143</v>
       </c>
       <c r="J11">
-        <v>0.9818843053317531</v>
+        <v>0.9818843053317535</v>
       </c>
       <c r="K11">
-        <v>0.990462700675886</v>
+        <v>0.9904627006758862</v>
       </c>
       <c r="L11">
-        <v>0.9798172657702114</v>
+        <v>0.9798172657702119</v>
       </c>
       <c r="M11">
-        <v>0.922609707093351</v>
+        <v>0.9226097070933513</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9479323841538765</v>
+        <v>0.9479323841538786</v>
       </c>
       <c r="D12">
-        <v>0.9731066328326001</v>
+        <v>0.9731066328326021</v>
       </c>
       <c r="E12">
-        <v>0.9622459076108361</v>
+        <v>0.9622459076108378</v>
       </c>
       <c r="F12">
-        <v>0.9018974783187685</v>
+        <v>0.9018974783187712</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022728539599073</v>
+        <v>1.022728539599074</v>
       </c>
       <c r="J12">
-        <v>0.9801163545789017</v>
+        <v>0.9801163545789034</v>
       </c>
       <c r="K12">
-        <v>0.98876786400251</v>
+        <v>0.9887678640025118</v>
       </c>
       <c r="L12">
-        <v>0.9781340121577662</v>
+        <v>0.978134012157768</v>
       </c>
       <c r="M12">
-        <v>0.9191808562887959</v>
+        <v>0.919180856288798</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9484400721452926</v>
+        <v>0.9484400721452941</v>
       </c>
       <c r="D13">
-        <v>0.973526746396907</v>
+        <v>0.9735267463969086</v>
       </c>
       <c r="E13">
-        <v>0.9626643951691414</v>
+        <v>0.9626643951691426</v>
       </c>
       <c r="F13">
-        <v>0.9027097563895556</v>
+        <v>0.9027097563895583</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0229313387197</v>
+        <v>1.022931338719701</v>
       </c>
       <c r="J13">
-        <v>0.9804977154590168</v>
+        <v>0.9804977154590182</v>
       </c>
       <c r="K13">
-        <v>0.9891335288299863</v>
+        <v>0.9891335288299881</v>
       </c>
       <c r="L13">
-        <v>0.9784970559737187</v>
+        <v>0.9784970559737201</v>
       </c>
       <c r="M13">
-        <v>0.9199213541484028</v>
+        <v>0.9199213541484053</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9500930979676814</v>
+        <v>0.9500930979676805</v>
       </c>
       <c r="D14">
-        <v>0.9748945116783194</v>
+        <v>0.974894511678319</v>
       </c>
       <c r="E14">
-        <v>0.9640273426477712</v>
+        <v>0.9640273426477707</v>
       </c>
       <c r="F14">
-        <v>0.9053502184862791</v>
+        <v>0.9053502184862778</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.023590988549189</v>
       </c>
       <c r="J14">
-        <v>0.9817391171681845</v>
+        <v>0.9817391171681839</v>
       </c>
       <c r="K14">
-        <v>0.9903235502962486</v>
+        <v>0.990323550296248</v>
       </c>
       <c r="L14">
-        <v>0.9796790120988198</v>
+        <v>0.9796790120988192</v>
       </c>
       <c r="M14">
-        <v>0.9223285054060673</v>
+        <v>0.9223285054060663</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9511037223127453</v>
+        <v>0.9511037223127443</v>
       </c>
       <c r="D15">
-        <v>0.9757306446865358</v>
+        <v>0.9757306446865347</v>
       </c>
       <c r="E15">
-        <v>0.9648608882730457</v>
+        <v>0.9648608882730449</v>
       </c>
       <c r="F15">
-        <v>0.9069613433966538</v>
+        <v>0.9069613433966524</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.023993780399615</v>
       </c>
       <c r="J15">
-        <v>0.9824978521614908</v>
+        <v>0.98249785216149</v>
       </c>
       <c r="K15">
-        <v>0.9910506665309023</v>
+        <v>0.9910506665309017</v>
       </c>
       <c r="L15">
-        <v>0.9804015498307878</v>
+        <v>0.9804015498307872</v>
       </c>
       <c r="M15">
-        <v>0.9237972845914941</v>
+        <v>0.9237972845914928</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9568714590824549</v>
+        <v>0.9568714590824531</v>
       </c>
       <c r="D16">
-        <v>0.9805012671127978</v>
+        <v>0.9805012671127963</v>
       </c>
       <c r="E16">
-        <v>0.9696219139235206</v>
+        <v>0.9696219139235195</v>
       </c>
       <c r="F16">
-        <v>0.9161115677547179</v>
+        <v>0.9161115677547158</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026285025471815</v>
+        <v>1.026285025471814</v>
       </c>
       <c r="J16">
-        <v>0.9868246006562232</v>
+        <v>0.9868246006562217</v>
       </c>
       <c r="K16">
-        <v>0.9951939906352005</v>
+        <v>0.9951939906351989</v>
       </c>
       <c r="L16">
-        <v>0.9845238408018971</v>
+        <v>0.9845238408018958</v>
       </c>
       <c r="M16">
-        <v>0.9321390598084512</v>
+        <v>0.9321390598084491</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9603940518853653</v>
+        <v>0.9603940518853655</v>
       </c>
       <c r="D17">
-        <v>0.9834138273187576</v>
+        <v>0.9834138273187578</v>
       </c>
       <c r="E17">
-        <v>0.9725329169437833</v>
+        <v>0.9725329169437837</v>
       </c>
       <c r="F17">
-        <v>0.9216643812522963</v>
+        <v>0.9216643812522964</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.027677846918284</v>
       </c>
       <c r="J17">
-        <v>0.9894641691512903</v>
+        <v>0.9894641691512907</v>
       </c>
       <c r="K17">
-        <v>0.9977190593771241</v>
+        <v>0.9977190593771242</v>
       </c>
       <c r="L17">
-        <v>0.9870403157728287</v>
+        <v>0.987040315772829</v>
       </c>
       <c r="M17">
-        <v>0.9372010535117447</v>
+        <v>0.9372010535117449</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9624163831900879</v>
+        <v>0.9624163831900885</v>
       </c>
       <c r="D18">
-        <v>0.9850855773004452</v>
+        <v>0.9850855773004462</v>
       </c>
       <c r="E18">
-        <v>0.974205242192941</v>
+        <v>0.9742052421929415</v>
       </c>
       <c r="F18">
-        <v>0.9248407012176363</v>
+        <v>0.9248407012176383</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028475136286381</v>
+        <v>1.028475136286382</v>
       </c>
       <c r="J18">
-        <v>0.9909785064484408</v>
+        <v>0.9909785064484413</v>
       </c>
       <c r="K18">
-        <v>0.9991668169256702</v>
+        <v>0.9991668169256711</v>
       </c>
       <c r="L18">
-        <v>0.9884845943516535</v>
+        <v>0.9884845943516541</v>
       </c>
       <c r="M18">
-        <v>0.9400964652774444</v>
+        <v>0.9400964652774465</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9631006395353183</v>
+        <v>0.9631006395353177</v>
       </c>
       <c r="D19">
-        <v>0.9856511547866025</v>
+        <v>0.9856511547866018</v>
       </c>
       <c r="E19">
-        <v>0.974771256767104</v>
+        <v>0.9747712567671036</v>
       </c>
       <c r="F19">
-        <v>0.9259135546619279</v>
+        <v>0.9259135546619276</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028744504770654</v>
+        <v>1.028744504770653</v>
       </c>
       <c r="J19">
-        <v>0.9914907064403653</v>
+        <v>0.9914907064403647</v>
       </c>
       <c r="K19">
-        <v>0.999656350152339</v>
+        <v>0.9996563501523386</v>
       </c>
       <c r="L19">
-        <v>0.9889731908064305</v>
+        <v>0.9889731908064302</v>
       </c>
       <c r="M19">
-        <v>0.9410744057284129</v>
+        <v>0.9410744057284124</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1111,10 +1111,10 @@
         <v>0.9831041763099632</v>
       </c>
       <c r="E20">
-        <v>0.9722232769484632</v>
+        <v>0.9722232769484638</v>
       </c>
       <c r="F20">
-        <v>0.9210751876009754</v>
+        <v>0.9210751876009761</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.027529993166611</v>
       </c>
       <c r="J20">
-        <v>0.9891836164542305</v>
+        <v>0.9891836164542307</v>
       </c>
       <c r="K20">
-        <v>0.9974507701851769</v>
+        <v>0.9974507701851768</v>
       </c>
       <c r="L20">
-        <v>0.9867727873828178</v>
+        <v>0.986772787382818</v>
       </c>
       <c r="M20">
-        <v>0.9366639534115065</v>
+        <v>0.936663953411507</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9496079740675346</v>
+        <v>0.9496079740675356</v>
       </c>
       <c r="D21">
-        <v>0.9744931238261052</v>
+        <v>0.9744931238261063</v>
       </c>
       <c r="E21">
-        <v>0.9636272932391693</v>
+        <v>0.9636272932391701</v>
       </c>
       <c r="F21">
-        <v>0.9045759829979381</v>
+        <v>0.904575982997939</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023397502479655</v>
+        <v>1.023397502479656</v>
       </c>
       <c r="J21">
-        <v>0.9813748436902779</v>
+        <v>0.9813748436902791</v>
       </c>
       <c r="K21">
-        <v>0.9899743991126146</v>
+        <v>0.9899743991126154</v>
       </c>
       <c r="L21">
-        <v>0.9793321536464542</v>
+        <v>0.9793321536464552</v>
       </c>
       <c r="M21">
-        <v>0.9216226779893596</v>
+        <v>0.9216226779893606</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9427239041527177</v>
+        <v>0.9427239041527169</v>
       </c>
       <c r="D22">
-        <v>0.9687955807718975</v>
+        <v>0.9687955807718964</v>
       </c>
       <c r="E22">
-        <v>0.9579555377714717</v>
+        <v>0.957955537771471</v>
       </c>
       <c r="F22">
-        <v>0.8935269778710404</v>
+        <v>0.8935269778710394</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020642591611779</v>
+        <v>1.020642591611778</v>
       </c>
       <c r="J22">
-        <v>0.9762013911152591</v>
+        <v>0.9762013911152582</v>
       </c>
       <c r="K22">
-        <v>0.9850116271948355</v>
+        <v>0.9850116271948346</v>
       </c>
       <c r="L22">
-        <v>0.9744085939948389</v>
+        <v>0.9744085939948381</v>
       </c>
       <c r="M22">
-        <v>0.9115503859173916</v>
+        <v>0.9115503859173905</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9464078555736083</v>
+        <v>0.9464078555736086</v>
       </c>
       <c r="D23">
-        <v>0.9718449756245789</v>
+        <v>0.9718449756245796</v>
       </c>
       <c r="E23">
-        <v>0.9609895478175726</v>
+        <v>0.9609895478175727</v>
       </c>
       <c r="F23">
-        <v>0.8994545008131141</v>
+        <v>0.8994545008131152</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022118990051313</v>
+        <v>1.022118990051314</v>
       </c>
       <c r="J23">
-        <v>0.9789709096618541</v>
+        <v>0.9789709096618546</v>
       </c>
       <c r="K23">
-        <v>0.9876693139085224</v>
+        <v>0.9876693139085232</v>
       </c>
       <c r="L23">
-        <v>0.9770437402582153</v>
+        <v>0.9770437402582156</v>
       </c>
       <c r="M23">
-        <v>0.9169537902995802</v>
+        <v>0.9169537902995811</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9601888428228749</v>
+        <v>0.9601888428228756</v>
       </c>
       <c r="D24">
-        <v>0.9832441776050956</v>
+        <v>0.9832441776050964</v>
       </c>
       <c r="E24">
-        <v>0.9723632687123119</v>
+        <v>0.9723632687123124</v>
       </c>
       <c r="F24">
-        <v>0.921341610980986</v>
+        <v>0.9213416109809869</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027596848426689</v>
+        <v>1.02759684842669</v>
       </c>
       <c r="J24">
-        <v>0.9893104638877452</v>
+        <v>0.989310463887746</v>
       </c>
       <c r="K24">
-        <v>0.9975720756306058</v>
+        <v>0.9975720756306066</v>
       </c>
       <c r="L24">
-        <v>0.986893744344895</v>
+        <v>0.9868937443448953</v>
       </c>
       <c r="M24">
-        <v>0.9369068214542366</v>
+        <v>0.9369068214542373</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9749261038674284</v>
+        <v>0.9749261038674265</v>
       </c>
       <c r="D25">
-        <v>0.9954207169616235</v>
+        <v>0.9954207169616215</v>
       </c>
       <c r="E25">
-        <v>0.9845677823051944</v>
+        <v>0.9845677823051928</v>
       </c>
       <c r="F25">
-        <v>0.9443163287268473</v>
+        <v>0.9443163287268446</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033366379081751</v>
+        <v>1.033366379081749</v>
       </c>
       <c r="J25">
-        <v>1.000327806549821</v>
+        <v>1.000327806549819</v>
       </c>
       <c r="K25">
-        <v>1.008090538791101</v>
+        <v>1.008090538791099</v>
       </c>
       <c r="L25">
-        <v>0.9974104826901209</v>
+        <v>0.9974104826901193</v>
       </c>
       <c r="M25">
-        <v>0.9578452900390997</v>
+        <v>0.9578452900390972</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9858563468405371</v>
+        <v>0.985871531428288</v>
       </c>
       <c r="D2">
-        <v>1.00444190111168</v>
+        <v>1.004454368636443</v>
       </c>
       <c r="E2">
-        <v>0.9936469657147065</v>
+        <v>0.9936617827983599</v>
       </c>
       <c r="F2">
-        <v>0.9611174506883348</v>
+        <v>0.9611311974093081</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037576286890945</v>
+        <v>1.037583257964601</v>
       </c>
       <c r="J2">
-        <v>1.008468481548377</v>
+        <v>1.008483193789221</v>
       </c>
       <c r="K2">
-        <v>1.015839698130555</v>
+        <v>1.015851993896465</v>
       </c>
       <c r="L2">
-        <v>1.005195523753844</v>
+        <v>1.005210131065521</v>
       </c>
       <c r="M2">
-        <v>0.9731464419721193</v>
+        <v>0.9731599768991701</v>
+      </c>
+      <c r="N2">
+        <v>1.007026336658725</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.993387413029353</v>
+        <v>0.9933979095885175</v>
       </c>
       <c r="D3">
-        <v>1.010651966011721</v>
+        <v>1.010660589993999</v>
       </c>
       <c r="E3">
-        <v>0.999916106518468</v>
+        <v>0.9999266726033719</v>
       </c>
       <c r="F3">
-        <v>0.9725933008865166</v>
+        <v>0.9726027058979887</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040437209101732</v>
+        <v>1.040442038347237</v>
       </c>
       <c r="J3">
-        <v>1.01405998155921</v>
+        <v>1.014070186753236</v>
       </c>
       <c r="K3">
-        <v>1.02115034327989</v>
+        <v>1.02115885979759</v>
       </c>
       <c r="L3">
-        <v>1.01055006088987</v>
+        <v>1.010560491753178</v>
       </c>
       <c r="M3">
-        <v>0.9835892966276072</v>
+        <v>0.9835985726103137</v>
+      </c>
+      <c r="N3">
+        <v>1.010944494975908</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9980927930602794</v>
+        <v>0.9981004221404165</v>
       </c>
       <c r="D4">
-        <v>1.014529318174777</v>
+        <v>1.014535588815959</v>
       </c>
       <c r="E4">
-        <v>1.003838602144855</v>
+        <v>1.003846563901301</v>
       </c>
       <c r="F4">
-        <v>0.9797265805883726</v>
+        <v>0.9797333748500952</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042206303598803</v>
+        <v>1.042209818351661</v>
       </c>
       <c r="J4">
-        <v>1.017545411529005</v>
+        <v>1.017552844448058</v>
       </c>
       <c r="K4">
-        <v>1.02445549360289</v>
+        <v>1.024461691220929</v>
       </c>
       <c r="L4">
-        <v>1.013890918348013</v>
+        <v>1.013898784923309</v>
       </c>
       <c r="M4">
-        <v>0.990076007147247</v>
+        <v>0.9900827151181656</v>
+      </c>
+      <c r="N4">
+        <v>1.013384507863381</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000033375373187</v>
+        <v>1.000039834796534</v>
       </c>
       <c r="D5">
-        <v>1.01612775060529</v>
+        <v>1.016133060765046</v>
       </c>
       <c r="E5">
-        <v>1.005457553645832</v>
+        <v>1.005464452327986</v>
       </c>
       <c r="F5">
-        <v>0.9826608572650742</v>
+        <v>0.9826665958950411</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042931483537354</v>
+        <v>1.042934461102111</v>
       </c>
       <c r="J5">
-        <v>1.018980909065252</v>
+        <v>1.018987207784447</v>
       </c>
       <c r="K5">
-        <v>1.025815527963017</v>
+        <v>1.025820778064447</v>
       </c>
       <c r="L5">
-        <v>1.015267595109683</v>
+        <v>1.015274413707429</v>
       </c>
       <c r="M5">
-        <v>0.9927431728783193</v>
+        <v>0.992748840991531</v>
+      </c>
+      <c r="N5">
+        <v>1.014388852250502</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000357075564244</v>
+        <v>1.000363340594689</v>
       </c>
       <c r="D6">
-        <v>1.016394339104794</v>
+        <v>1.016399489604813</v>
       </c>
       <c r="E6">
-        <v>1.005727674715272</v>
+        <v>1.005734396680092</v>
       </c>
       <c r="F6">
-        <v>0.9831498957396093</v>
+        <v>0.9831554594366447</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043052186893625</v>
+        <v>1.043055075122323</v>
       </c>
       <c r="J6">
-        <v>1.01922024289134</v>
+        <v>1.019226352920977</v>
       </c>
       <c r="K6">
-        <v>1.02604220968765</v>
+        <v>1.026047302222675</v>
       </c>
       <c r="L6">
-        <v>1.015497163712234</v>
+        <v>1.015503808031642</v>
       </c>
       <c r="M6">
-        <v>0.9931876242804312</v>
+        <v>0.993193119990734</v>
+      </c>
+      <c r="N6">
+        <v>1.014556266370124</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9981188675718174</v>
+        <v>0.9981264808869085</v>
       </c>
       <c r="D7">
-        <v>1.014550798035212</v>
+        <v>1.014557055732807</v>
       </c>
       <c r="E7">
-        <v>1.003860350267147</v>
+        <v>1.003868297697815</v>
       </c>
       <c r="F7">
-        <v>0.9797660354902394</v>
+        <v>0.9797728154885527</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042216064987165</v>
+        <v>1.042219572503519</v>
       </c>
       <c r="J7">
-        <v>1.017564707262224</v>
+        <v>1.017572124907135</v>
       </c>
       <c r="K7">
-        <v>1.024473779740042</v>
+        <v>1.024479964593437</v>
       </c>
       <c r="L7">
-        <v>1.013909420595394</v>
+        <v>1.013917273053184</v>
       </c>
       <c r="M7">
-        <v>0.9901118750469323</v>
+        <v>0.990118568973366</v>
+      </c>
+      <c r="N7">
+        <v>1.013398010481918</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9884378860491272</v>
+        <v>0.9884514493918974</v>
       </c>
       <c r="D8">
-        <v>1.006571177980922</v>
+        <v>1.006582316841885</v>
       </c>
       <c r="E8">
-        <v>0.9957946998851761</v>
+        <v>0.9958080479150097</v>
       </c>
       <c r="F8">
-        <v>0.9650597966410727</v>
+        <v>0.9650720312319956</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038560859557611</v>
+        <v>1.038567090919071</v>
       </c>
       <c r="J8">
-        <v>1.010386880834189</v>
+        <v>1.01040003797111</v>
       </c>
       <c r="K8">
-        <v>1.017662868161047</v>
+        <v>1.017673858604659</v>
       </c>
       <c r="L8">
-        <v>1.007031937574238</v>
+        <v>1.007045102871321</v>
       </c>
       <c r="M8">
-        <v>0.9767348204461969</v>
+        <v>0.976746873719244</v>
+      </c>
+      <c r="N8">
+        <v>1.008371106181232</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9699606521145417</v>
+        <v>0.9699861828830068</v>
       </c>
       <c r="D9">
-        <v>0.9913196673006018</v>
+        <v>0.9913406016373868</v>
       </c>
       <c r="E9">
-        <v>0.9804509311669407</v>
+        <v>0.9804750917659539</v>
       </c>
       <c r="F9">
-        <v>0.9366198677267555</v>
+        <v>0.9366435519350096</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031433608686049</v>
+        <v>1.031445277267761</v>
       </c>
       <c r="J9">
-        <v>0.9966206697378069</v>
+        <v>0.9966452182773033</v>
       </c>
       <c r="K9">
-        <v>1.00455516449981</v>
+        <v>1.004575751499879</v>
       </c>
       <c r="L9">
-        <v>0.9938693465200933</v>
+        <v>0.9938930946928951</v>
       </c>
       <c r="M9">
-        <v>0.9508323688621534</v>
+        <v>0.9508555977029427</v>
+      </c>
+      <c r="N9">
+        <v>0.9987121885633821</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9564688548604542</v>
+        <v>0.9565037322095115</v>
       </c>
       <c r="D10">
-        <v>0.9801683340470302</v>
+        <v>0.9801969017721232</v>
       </c>
       <c r="E10">
-        <v>0.9692893661896473</v>
+        <v>0.9693219124951994</v>
       </c>
       <c r="F10">
-        <v>0.9154752494514568</v>
+        <v>0.915508387700501</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02612551542297</v>
+        <v>1.026141396613626</v>
       </c>
       <c r="J10">
-        <v>0.986522774212979</v>
+        <v>0.9865560807890017</v>
       </c>
       <c r="K10">
-        <v>0.9949051313526037</v>
+        <v>0.994933155637994</v>
       </c>
       <c r="L10">
-        <v>0.9842361687918973</v>
+        <v>0.9842680776048338</v>
       </c>
       <c r="M10">
-        <v>0.9315589710117649</v>
+        <v>0.9315913542244386</v>
+      </c>
+      <c r="N10">
+        <v>0.9916171788025351</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9502864684001028</v>
+        <v>0.9503258313139941</v>
       </c>
       <c r="D11">
-        <v>0.9750545005711739</v>
+        <v>0.9750867277354803</v>
       </c>
       <c r="E11">
-        <v>0.9641868154853233</v>
+        <v>0.9642233653107858</v>
       </c>
       <c r="F11">
-        <v>0.9056586732871407</v>
+        <v>0.9056965290856812</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02366808753143</v>
+        <v>1.023685981193947</v>
       </c>
       <c r="J11">
-        <v>0.9818843053317535</v>
+        <v>0.9819217732858736</v>
       </c>
       <c r="K11">
-        <v>0.9904627006758862</v>
+        <v>0.9904942784750808</v>
       </c>
       <c r="L11">
-        <v>0.9798172657702119</v>
+        <v>0.9798530570399159</v>
       </c>
       <c r="M11">
-        <v>0.9226097070933513</v>
+        <v>0.9226466344365986</v>
+      </c>
+      <c r="N11">
+        <v>0.9883563661900902</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9479323841538786</v>
+        <v>0.9479734920300296</v>
       </c>
       <c r="D12">
-        <v>0.9731066328326021</v>
+        <v>0.9731402830561496</v>
       </c>
       <c r="E12">
-        <v>0.9622459076108378</v>
+        <v>0.9622840110282466</v>
       </c>
       <c r="F12">
-        <v>0.9018974783187712</v>
+        <v>0.9019372032944841</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022728539599074</v>
+        <v>1.022747214676125</v>
       </c>
       <c r="J12">
-        <v>0.9801163545789034</v>
+        <v>0.9801554342631088</v>
       </c>
       <c r="K12">
-        <v>0.9887678640025118</v>
+        <v>0.9888008216791703</v>
       </c>
       <c r="L12">
-        <v>0.978134012157768</v>
+        <v>0.9781713077655889</v>
       </c>
       <c r="M12">
-        <v>0.919180856288798</v>
+        <v>0.9192195798210614</v>
+      </c>
+      <c r="N12">
+        <v>0.9871133161611499</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9484400721452941</v>
+        <v>0.9484808019077621</v>
       </c>
       <c r="D13">
-        <v>0.9735267463969086</v>
+        <v>0.9735600882813485</v>
       </c>
       <c r="E13">
-        <v>0.9626643951691426</v>
+        <v>0.962702162126057</v>
       </c>
       <c r="F13">
-        <v>0.9027097563895583</v>
+        <v>0.9027490746772617</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022931338719701</v>
+        <v>1.022949844540342</v>
       </c>
       <c r="J13">
-        <v>0.9804977154590182</v>
+        <v>0.9805364462339778</v>
       </c>
       <c r="K13">
-        <v>0.9891335288299881</v>
+        <v>0.9891661876167233</v>
       </c>
       <c r="L13">
-        <v>0.9784970559737201</v>
+        <v>0.9785340258940683</v>
       </c>
       <c r="M13">
-        <v>0.9199213541484053</v>
+        <v>0.9199596870773483</v>
+      </c>
+      <c r="N13">
+        <v>0.9873814593251737</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9500930979676805</v>
+        <v>0.9501326034252886</v>
       </c>
       <c r="D14">
-        <v>0.974894511678319</v>
+        <v>0.9749268551004419</v>
       </c>
       <c r="E14">
-        <v>0.9640273426477707</v>
+        <v>0.9640640194658762</v>
       </c>
       <c r="F14">
-        <v>0.9053502184862778</v>
+        <v>0.9053882262466445</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023590988549189</v>
+        <v>1.023608946074452</v>
       </c>
       <c r="J14">
-        <v>0.9817391171681839</v>
+        <v>0.9817767169306661</v>
       </c>
       <c r="K14">
-        <v>0.990323550296248</v>
+        <v>0.9903552408666925</v>
       </c>
       <c r="L14">
-        <v>0.9796790120988192</v>
+        <v>0.9797149263822152</v>
       </c>
       <c r="M14">
-        <v>0.9223285054060663</v>
+        <v>0.9223655788671141</v>
+      </c>
+      <c r="N14">
+        <v>0.9882542875509623</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9511037223127443</v>
+        <v>0.9511424843271686</v>
       </c>
       <c r="D15">
-        <v>0.9757306446865347</v>
+        <v>0.9757623817402064</v>
       </c>
       <c r="E15">
-        <v>0.9648608882730449</v>
+        <v>0.964896902596304</v>
       </c>
       <c r="F15">
-        <v>0.9069613433966524</v>
+        <v>0.9069985600035549</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023993780399615</v>
+        <v>1.024011404786246</v>
       </c>
       <c r="J15">
-        <v>0.98249785216149</v>
+        <v>0.9825347641802941</v>
       </c>
       <c r="K15">
-        <v>0.9910506665309017</v>
+        <v>0.9910817688366631</v>
       </c>
       <c r="L15">
-        <v>0.9804015498307872</v>
+        <v>0.9804368222838353</v>
       </c>
       <c r="M15">
-        <v>0.9237972845914928</v>
+        <v>0.9238335971497255</v>
+      </c>
+      <c r="N15">
+        <v>0.9887877302382678</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9568714590824531</v>
+        <v>0.956906049006892</v>
       </c>
       <c r="D16">
-        <v>0.9805012671127963</v>
+        <v>0.9805296002740213</v>
       </c>
       <c r="E16">
-        <v>0.9696219139235195</v>
+        <v>0.9696542032157488</v>
       </c>
       <c r="F16">
-        <v>0.9161115677547158</v>
+        <v>0.9161444078734812</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026285025471814</v>
+        <v>1.02630077751449</v>
       </c>
       <c r="J16">
-        <v>0.9868246006562217</v>
+        <v>0.9868576396716396</v>
       </c>
       <c r="K16">
-        <v>0.9951939906351989</v>
+        <v>0.9952217868899349</v>
       </c>
       <c r="L16">
-        <v>0.9845238408018958</v>
+        <v>0.9845555000797886</v>
       </c>
       <c r="M16">
-        <v>0.9321390598084491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9321711553242807</v>
+      </c>
+      <c r="N16">
+        <v>0.9918293306654088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9603940518853655</v>
+        <v>0.9604261502895624</v>
       </c>
       <c r="D17">
-        <v>0.9834138273187578</v>
+        <v>0.9834401267497787</v>
       </c>
       <c r="E17">
-        <v>0.9725329169437837</v>
+        <v>0.9725629759804537</v>
       </c>
       <c r="F17">
-        <v>0.9216643812522964</v>
+        <v>0.9216946573425142</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027677846918284</v>
+        <v>1.027692478431631</v>
       </c>
       <c r="J17">
-        <v>0.9894641691512907</v>
+        <v>0.9894948841898177</v>
       </c>
       <c r="K17">
-        <v>0.9977190593771242</v>
+        <v>0.9977448772229928</v>
       </c>
       <c r="L17">
-        <v>0.987040315772829</v>
+        <v>0.9870698081729132</v>
       </c>
       <c r="M17">
-        <v>0.9372010535117449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9372306721147499</v>
+      </c>
+      <c r="N17">
+        <v>0.9936844805956179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9624163831900885</v>
+        <v>0.9624470696068806</v>
       </c>
       <c r="D18">
-        <v>0.9850855773004462</v>
+        <v>0.9851107238181682</v>
       </c>
       <c r="E18">
-        <v>0.9742052421929415</v>
+        <v>0.9742340354600318</v>
       </c>
       <c r="F18">
-        <v>0.9248407012176383</v>
+        <v>0.9248695400681638</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028475136286382</v>
+        <v>1.028489131945825</v>
       </c>
       <c r="J18">
-        <v>0.9909785064484413</v>
+        <v>0.9910079007253496</v>
       </c>
       <c r="K18">
-        <v>0.9991668169256711</v>
+        <v>0.9991915121529694</v>
       </c>
       <c r="L18">
-        <v>0.9884845943516541</v>
+        <v>0.9885128557299538</v>
       </c>
       <c r="M18">
-        <v>0.9400964652774465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9401246934080639</v>
+      </c>
+      <c r="N18">
+        <v>0.9947486271668049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9631006395353177</v>
+        <v>0.9631308511609289</v>
       </c>
       <c r="D19">
-        <v>0.9856511547866018</v>
+        <v>0.9856759135661349</v>
       </c>
       <c r="E19">
-        <v>0.9747712567671036</v>
+        <v>0.9747996241150076</v>
       </c>
       <c r="F19">
-        <v>0.9259135546619276</v>
+        <v>0.9259419127514988</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028744504770653</v>
+        <v>1.028758286481248</v>
       </c>
       <c r="J19">
-        <v>0.9914907064403647</v>
+        <v>0.9915196559920773</v>
       </c>
       <c r="K19">
-        <v>0.9996563501523386</v>
+        <v>0.9996806676543217</v>
       </c>
       <c r="L19">
-        <v>0.9889731908064302</v>
+        <v>0.9890010377567253</v>
       </c>
       <c r="M19">
-        <v>0.9410744057284124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9411021684084124</v>
+      </c>
+      <c r="N19">
+        <v>0.9951085277500303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9600194990824751</v>
+        <v>0.9600518604510344</v>
       </c>
       <c r="D20">
-        <v>0.9831041763099632</v>
+        <v>0.9831306904262177</v>
       </c>
       <c r="E20">
-        <v>0.9722232769484638</v>
+        <v>0.9722535715720919</v>
       </c>
       <c r="F20">
-        <v>0.9210751876009761</v>
+        <v>0.921105732610927</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027529993166611</v>
+        <v>1.027544743032309</v>
       </c>
       <c r="J20">
-        <v>0.9891836164542307</v>
+        <v>0.9892145771688675</v>
       </c>
       <c r="K20">
-        <v>0.9974507701851768</v>
+        <v>0.9974767969892775</v>
       </c>
       <c r="L20">
-        <v>0.986772787382818</v>
+        <v>0.9868025088043405</v>
       </c>
       <c r="M20">
-        <v>0.936663953411507</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9366938320183459</v>
+      </c>
+      <c r="N20">
+        <v>0.993487318382283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9496079740675356</v>
+        <v>0.9496478377549215</v>
       </c>
       <c r="D21">
-        <v>0.9744931238261063</v>
+        <v>0.9745257594102804</v>
       </c>
       <c r="E21">
-        <v>0.9636272932391701</v>
+        <v>0.9636642891412993</v>
       </c>
       <c r="F21">
-        <v>0.904575982997939</v>
+        <v>0.9046143732261134</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023397502479656</v>
+        <v>1.023415620476047</v>
       </c>
       <c r="J21">
-        <v>0.9813748436902791</v>
+        <v>0.9814127745865912</v>
       </c>
       <c r="K21">
-        <v>0.9899743991126154</v>
+        <v>0.9900063730506976</v>
       </c>
       <c r="L21">
-        <v>0.9793321536464552</v>
+        <v>0.9793683769791396</v>
       </c>
       <c r="M21">
-        <v>0.9216226779893606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9216601191390431</v>
+      </c>
+      <c r="N21">
+        <v>0.9879981719485623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9427239041527169</v>
+        <v>0.9427689501403176</v>
       </c>
       <c r="D22">
-        <v>0.9687955807718964</v>
+        <v>0.9688324417837155</v>
       </c>
       <c r="E22">
-        <v>0.957955537771471</v>
+        <v>0.9579971393112531</v>
       </c>
       <c r="F22">
-        <v>0.8935269778710394</v>
+        <v>0.8935709945308242</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020642591611778</v>
+        <v>1.020663027391704</v>
       </c>
       <c r="J22">
-        <v>0.9762013911152582</v>
+        <v>0.9762440938696377</v>
       </c>
       <c r="K22">
-        <v>0.9850116271948346</v>
+        <v>0.9850476942679184</v>
       </c>
       <c r="L22">
-        <v>0.9744085939948381</v>
+        <v>0.9744492722990059</v>
       </c>
       <c r="M22">
-        <v>0.9115503859173905</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9115932245544615</v>
+      </c>
+      <c r="N22">
+        <v>0.9843604246228089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9464078555736086</v>
+        <v>0.9464501049091705</v>
       </c>
       <c r="D23">
-        <v>0.9718449756245796</v>
+        <v>0.9718795566024951</v>
       </c>
       <c r="E23">
-        <v>0.9609895478175727</v>
+        <v>0.9610286663247759</v>
       </c>
       <c r="F23">
-        <v>0.8994545008131152</v>
+        <v>0.8994954591481464</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022118990051314</v>
+        <v>1.022138175862486</v>
       </c>
       <c r="J23">
-        <v>0.9789709096618546</v>
+        <v>0.9790110415262701</v>
       </c>
       <c r="K23">
-        <v>0.9876693139085232</v>
+        <v>0.9877031735075674</v>
       </c>
       <c r="L23">
-        <v>0.9770437402582156</v>
+        <v>0.9770820181012837</v>
       </c>
       <c r="M23">
-        <v>0.9169537902995811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9169936977208574</v>
+      </c>
+      <c r="N23">
+        <v>0.9863079063497759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9601888428228756</v>
+        <v>0.9602210852425516</v>
       </c>
       <c r="D24">
-        <v>0.9832441776050964</v>
+        <v>0.9832705946121123</v>
       </c>
       <c r="E24">
-        <v>0.9723632687123124</v>
+        <v>0.9723934567766314</v>
       </c>
       <c r="F24">
-        <v>0.9213416109809869</v>
+        <v>0.9213720342991407</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02759684842669</v>
+        <v>1.027611544759664</v>
       </c>
       <c r="J24">
-        <v>0.989310463887746</v>
+        <v>0.9893413134852271</v>
       </c>
       <c r="K24">
-        <v>0.9975720756306066</v>
+        <v>0.9975980079193024</v>
       </c>
       <c r="L24">
-        <v>0.9868937443448953</v>
+        <v>0.9869233621805886</v>
       </c>
       <c r="M24">
-        <v>0.9369068214542373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9369365824103492</v>
+      </c>
+      <c r="N24">
+        <v>0.9935764626542996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9749261038674265</v>
+        <v>0.9749483315362752</v>
       </c>
       <c r="D25">
-        <v>0.9954207169616215</v>
+        <v>0.9954389503685637</v>
       </c>
       <c r="E25">
-        <v>0.9845677823051928</v>
+        <v>0.9845889663118248</v>
       </c>
       <c r="F25">
-        <v>0.9443163287268446</v>
+        <v>0.9443367838044444</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033366379081749</v>
+        <v>1.033376552112838</v>
       </c>
       <c r="J25">
-        <v>1.000327806549819</v>
+        <v>1.000349231165121</v>
       </c>
       <c r="K25">
-        <v>1.008090538791099</v>
+        <v>1.00810848581293</v>
       </c>
       <c r="L25">
-        <v>0.9974104826901193</v>
+        <v>0.9974313244877061</v>
       </c>
       <c r="M25">
-        <v>0.9578452900390972</v>
+        <v>0.9578653770634763</v>
+      </c>
+      <c r="N25">
+        <v>1.001315113532846</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.985871531428288</v>
+        <v>1.002677777513936</v>
       </c>
       <c r="D2">
-        <v>1.004454368636443</v>
+        <v>1.019032882224067</v>
       </c>
       <c r="E2">
-        <v>0.9936617827983599</v>
+        <v>1.016319573036985</v>
       </c>
       <c r="F2">
-        <v>0.9611311974093081</v>
+        <v>1.023462410887074</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037583257964601</v>
+        <v>1.042808025007953</v>
       </c>
       <c r="J2">
-        <v>1.008483193789221</v>
+        <v>1.024778690639087</v>
       </c>
       <c r="K2">
-        <v>1.015851993896465</v>
+        <v>1.030233277027412</v>
       </c>
       <c r="L2">
-        <v>1.005210131065521</v>
+        <v>1.02755613743371</v>
       </c>
       <c r="M2">
-        <v>0.9731599768991701</v>
+        <v>1.034604274797962</v>
       </c>
       <c r="N2">
-        <v>1.007026336658725</v>
+        <v>1.02623399392356</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9933979095885175</v>
+        <v>1.01096177922064</v>
       </c>
       <c r="D3">
-        <v>1.010660589993999</v>
+        <v>1.025316601721838</v>
       </c>
       <c r="E3">
-        <v>0.9999266726033719</v>
+        <v>1.023496396096531</v>
       </c>
       <c r="F3">
-        <v>0.9726027058979887</v>
+        <v>1.031089128173343</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040442038347237</v>
+        <v>1.045240641951299</v>
       </c>
       <c r="J3">
-        <v>1.014070186753236</v>
+        <v>1.031158011097109</v>
       </c>
       <c r="K3">
-        <v>1.02115885979759</v>
+        <v>1.035635483718833</v>
       </c>
       <c r="L3">
-        <v>1.010560491753178</v>
+        <v>1.033837210237307</v>
       </c>
       <c r="M3">
-        <v>0.9835985726103137</v>
+        <v>1.041339090173046</v>
       </c>
       <c r="N3">
-        <v>1.010944494975908</v>
+        <v>1.032622373748344</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9981004221404165</v>
+        <v>1.016148839847899</v>
       </c>
       <c r="D4">
-        <v>1.014535588815959</v>
+        <v>1.029253032159184</v>
       </c>
       <c r="E4">
-        <v>1.003846563901301</v>
+        <v>1.02799680243275</v>
       </c>
       <c r="F4">
-        <v>0.9797333748500952</v>
+        <v>1.035873497415423</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042209818351661</v>
+        <v>1.046750587599002</v>
       </c>
       <c r="J4">
-        <v>1.017552844448058</v>
+        <v>1.035148287045339</v>
       </c>
       <c r="K4">
-        <v>1.024461691220929</v>
+        <v>1.039010767125251</v>
       </c>
       <c r="L4">
-        <v>1.013898784923309</v>
+        <v>1.037768676773251</v>
       </c>
       <c r="M4">
-        <v>0.9900827151181656</v>
+        <v>1.04555741310655</v>
       </c>
       <c r="N4">
-        <v>1.013384507863381</v>
+        <v>1.036618316346112</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000039834796534</v>
+        <v>1.018290546609901</v>
       </c>
       <c r="D5">
-        <v>1.016133060765046</v>
+        <v>1.03087866801803</v>
       </c>
       <c r="E5">
-        <v>1.005464452327986</v>
+        <v>1.02985646770694</v>
       </c>
       <c r="F5">
-        <v>0.9826665958950411</v>
+        <v>1.037850946563869</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042934461102111</v>
+        <v>1.047370780181306</v>
       </c>
       <c r="J5">
-        <v>1.018987207784447</v>
+        <v>1.036794769495917</v>
       </c>
       <c r="K5">
-        <v>1.025820778064447</v>
+        <v>1.040402542077509</v>
       </c>
       <c r="L5">
-        <v>1.015274413707429</v>
+        <v>1.039391513885321</v>
       </c>
       <c r="M5">
-        <v>0.992748840991531</v>
+        <v>1.047299336646424</v>
       </c>
       <c r="N5">
-        <v>1.014388852250502</v>
+        <v>1.038267136990624</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000363340594689</v>
+        <v>1.018647935026237</v>
       </c>
       <c r="D6">
-        <v>1.016399489604813</v>
+        <v>1.031149953480857</v>
       </c>
       <c r="E6">
-        <v>1.005734396680092</v>
+        <v>1.030166875241823</v>
       </c>
       <c r="F6">
-        <v>0.9831554594366447</v>
+        <v>1.038181040265708</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043055075122323</v>
+        <v>1.047474078630146</v>
       </c>
       <c r="J6">
-        <v>1.019226352920977</v>
+        <v>1.037069453713712</v>
       </c>
       <c r="K6">
-        <v>1.026047302222675</v>
+        <v>1.040634676546275</v>
       </c>
       <c r="L6">
-        <v>1.015503808031642</v>
+        <v>1.039662289478662</v>
       </c>
       <c r="M6">
-        <v>0.993193119990734</v>
+        <v>1.047590021880058</v>
       </c>
       <c r="N6">
-        <v>1.014556266370124</v>
+        <v>1.038542211291514</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9981264808869085</v>
+        <v>1.01617760723661</v>
       </c>
       <c r="D7">
-        <v>1.014557055732807</v>
+        <v>1.02927486664689</v>
       </c>
       <c r="E7">
-        <v>1.003868297697815</v>
+        <v>1.028021775746318</v>
       </c>
       <c r="F7">
-        <v>0.9797728154885527</v>
+        <v>1.035900050679447</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042219572503519</v>
+        <v>1.046758931009519</v>
       </c>
       <c r="J7">
-        <v>1.017572124907135</v>
+        <v>1.035170406960007</v>
       </c>
       <c r="K7">
-        <v>1.024479964593437</v>
+        <v>1.039029468928577</v>
       </c>
       <c r="L7">
-        <v>1.013917273053184</v>
+        <v>1.03779047657891</v>
       </c>
       <c r="M7">
-        <v>0.990118568973366</v>
+        <v>1.045580809941923</v>
       </c>
       <c r="N7">
-        <v>1.013398010481918</v>
+        <v>1.036640467673595</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9884514493918974</v>
+        <v>1.005514873320632</v>
       </c>
       <c r="D8">
-        <v>1.006582316841885</v>
+        <v>1.02118444276328</v>
       </c>
       <c r="E8">
-        <v>0.9958080479150097</v>
+        <v>1.018776013580895</v>
       </c>
       <c r="F8">
-        <v>0.9650720312319956</v>
+        <v>1.026072449541075</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038567090919071</v>
+        <v>1.043643897393885</v>
       </c>
       <c r="J8">
-        <v>1.01040003797111</v>
+        <v>1.026964301407497</v>
       </c>
       <c r="K8">
-        <v>1.017673858604659</v>
+        <v>1.032084904078792</v>
       </c>
       <c r="L8">
-        <v>1.007045102871321</v>
+        <v>1.029707519078378</v>
       </c>
       <c r="M8">
-        <v>0.976746873719244</v>
+        <v>1.036910464933983</v>
       </c>
       <c r="N8">
-        <v>1.008371106181232</v>
+        <v>1.028422708509948</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9699861828830068</v>
+        <v>0.9852704831438319</v>
       </c>
       <c r="D9">
-        <v>0.9913406016373868</v>
+        <v>1.005846304286983</v>
       </c>
       <c r="E9">
-        <v>0.9804750917659539</v>
+        <v>1.001281896973373</v>
       </c>
       <c r="F9">
-        <v>0.9366435519350096</v>
+        <v>1.007492408858385</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031445277267761</v>
+        <v>1.037625309172524</v>
       </c>
       <c r="J9">
-        <v>0.9966452182773033</v>
+        <v>1.0113543198388</v>
       </c>
       <c r="K9">
-        <v>1.004575751499879</v>
+        <v>1.018845236098004</v>
       </c>
       <c r="L9">
-        <v>0.9938930946928951</v>
+        <v>1.014354210474912</v>
       </c>
       <c r="M9">
-        <v>0.9508555977029427</v>
+        <v>1.020465085394358</v>
       </c>
       <c r="N9">
-        <v>0.9987121885633821</v>
+        <v>1.012790558976933</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9565037322095115</v>
+        <v>0.9705893411877147</v>
       </c>
       <c r="D10">
-        <v>0.9801969017721232</v>
+        <v>0.9947502359582742</v>
       </c>
       <c r="E10">
-        <v>0.9693219124951994</v>
+        <v>0.9886460264411073</v>
       </c>
       <c r="F10">
-        <v>0.915508387700501</v>
+        <v>0.9940823910954564</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026141396613626</v>
+        <v>1.033195398221434</v>
       </c>
       <c r="J10">
-        <v>0.9865560807890017</v>
+        <v>1.000020469285178</v>
       </c>
       <c r="K10">
-        <v>0.994933155637994</v>
+        <v>1.009214927882588</v>
       </c>
       <c r="L10">
-        <v>0.9842680776048338</v>
+        <v>1.00322335169081</v>
       </c>
       <c r="M10">
-        <v>0.9315913542244386</v>
+        <v>1.008559318156212</v>
       </c>
       <c r="N10">
-        <v>0.9916171788025351</v>
+        <v>1.001440613055514</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9503258313139941</v>
+        <v>0.9638954219781284</v>
       </c>
       <c r="D11">
-        <v>0.9750867277354803</v>
+        <v>0.9897004860144686</v>
       </c>
       <c r="E11">
-        <v>0.9642233653107858</v>
+        <v>0.9828993371842147</v>
       </c>
       <c r="F11">
-        <v>0.9056965290856812</v>
+        <v>0.9879860561897763</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023685981193947</v>
+        <v>1.031161631780692</v>
       </c>
       <c r="J11">
-        <v>0.9819217732858736</v>
+        <v>0.9948513408791211</v>
       </c>
       <c r="K11">
-        <v>0.9904942784750808</v>
+        <v>1.004819285475434</v>
       </c>
       <c r="L11">
-        <v>0.9798530570399159</v>
+        <v>0.998151116798326</v>
       </c>
       <c r="M11">
-        <v>0.9226466344365986</v>
+        <v>1.003138150900767</v>
       </c>
       <c r="N11">
-        <v>0.9883563661900902</v>
+        <v>0.9962641438942129</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9479734920300296</v>
+        <v>0.9613527278923925</v>
       </c>
       <c r="D12">
-        <v>0.9731402830561496</v>
+        <v>0.9877840717935397</v>
       </c>
       <c r="E12">
-        <v>0.9622840110282466</v>
+        <v>0.9807189145470609</v>
       </c>
       <c r="F12">
-        <v>0.9019372032944841</v>
+        <v>0.9856733364567016</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022747214676125</v>
+        <v>1.030387164570079</v>
       </c>
       <c r="J12">
-        <v>0.9801554342631088</v>
+        <v>0.9928878068380254</v>
       </c>
       <c r="K12">
-        <v>0.9888008216791703</v>
+        <v>1.003149112572929</v>
       </c>
       <c r="L12">
-        <v>0.9781713077655889</v>
+        <v>0.9962250730361217</v>
       </c>
       <c r="M12">
-        <v>0.9192195798210614</v>
+        <v>1.00108025796884</v>
       </c>
       <c r="N12">
-        <v>0.9871133161611499</v>
+        <v>0.9942978214095587</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9484808019077621</v>
+        <v>0.961900791670115</v>
       </c>
       <c r="D13">
-        <v>0.9735600882813485</v>
+        <v>0.9881970605436373</v>
       </c>
       <c r="E13">
-        <v>0.962702162126057</v>
+        <v>0.9811887769747091</v>
       </c>
       <c r="F13">
-        <v>0.9027490746772617</v>
+        <v>0.9861716912234504</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022949844540342</v>
+        <v>1.030554181467927</v>
       </c>
       <c r="J13">
-        <v>0.9805364462339778</v>
+        <v>0.993311034220234</v>
       </c>
       <c r="K13">
-        <v>0.9891661876167233</v>
+        <v>1.003509127113265</v>
       </c>
       <c r="L13">
-        <v>0.9785340258940683</v>
+        <v>0.9966401881035289</v>
       </c>
       <c r="M13">
-        <v>0.9199596870773483</v>
+        <v>1.001523760538133</v>
       </c>
       <c r="N13">
-        <v>0.9873814593251737</v>
+        <v>0.9947216498231947</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9501326034252886</v>
+        <v>0.9636864260099446</v>
       </c>
       <c r="D14">
-        <v>0.9749268551004419</v>
+        <v>0.9895429297847517</v>
       </c>
       <c r="E14">
-        <v>0.9640640194658762</v>
+        <v>0.9827200664689681</v>
       </c>
       <c r="F14">
-        <v>0.9053882262466445</v>
+        <v>0.9877959007963809</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023608946074452</v>
+        <v>1.031098012981581</v>
       </c>
       <c r="J14">
-        <v>0.9817767169306661</v>
+        <v>0.9946899483600891</v>
       </c>
       <c r="K14">
-        <v>0.9903552408666925</v>
+        <v>1.004682014525641</v>
       </c>
       <c r="L14">
-        <v>0.9797149263822152</v>
+        <v>0.9979927916962642</v>
       </c>
       <c r="M14">
-        <v>0.9223655788671141</v>
+        <v>1.002968974244169</v>
       </c>
       <c r="N14">
-        <v>0.9882542875509623</v>
+        <v>0.9961025221792921</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9511424843271686</v>
+        <v>0.9647789728187659</v>
       </c>
       <c r="D15">
-        <v>0.9757623817402064</v>
+        <v>0.9903666428750821</v>
       </c>
       <c r="E15">
-        <v>0.964896902596304</v>
+        <v>0.98365732327505</v>
       </c>
       <c r="F15">
-        <v>0.9069985600035549</v>
+        <v>0.988790079371976</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024011404786246</v>
+        <v>1.031430508771355</v>
       </c>
       <c r="J15">
-        <v>0.9825347641802941</v>
+        <v>0.995533643253702</v>
       </c>
       <c r="K15">
-        <v>0.9910817688366631</v>
+        <v>1.005399593609287</v>
       </c>
       <c r="L15">
-        <v>0.9804368222838353</v>
+        <v>0.9988204793820616</v>
       </c>
       <c r="M15">
-        <v>0.9238335971497255</v>
+        <v>1.003853417834903</v>
       </c>
       <c r="N15">
-        <v>0.9887877302382678</v>
+        <v>0.996947415216427</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.956906049006892</v>
+        <v>0.9710260333210732</v>
       </c>
       <c r="D16">
-        <v>0.9805296002740213</v>
+        <v>0.995079888765617</v>
       </c>
       <c r="E16">
-        <v>0.9696542032157488</v>
+        <v>0.9890212477396254</v>
       </c>
       <c r="F16">
-        <v>0.9161444078734812</v>
+        <v>0.9944804922354319</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02630077751449</v>
+        <v>1.033327800451214</v>
       </c>
       <c r="J16">
-        <v>0.9868576396716396</v>
+        <v>1.000357673627249</v>
       </c>
       <c r="K16">
-        <v>0.9952217868899349</v>
+        <v>1.009501608391104</v>
       </c>
       <c r="L16">
-        <v>0.9845555000797886</v>
+        <v>1.003554327154823</v>
       </c>
       <c r="M16">
-        <v>0.9321711553242807</v>
+        <v>1.008913150233897</v>
       </c>
       <c r="N16">
-        <v>0.9918293306654088</v>
+        <v>1.001778296266429</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9604261502895624</v>
+        <v>0.9748507257052441</v>
       </c>
       <c r="D17">
-        <v>0.9834401267497787</v>
+        <v>0.9979682003942261</v>
       </c>
       <c r="E17">
-        <v>0.9725629759804537</v>
+        <v>0.9923092353871285</v>
       </c>
       <c r="F17">
-        <v>0.9216946573425142</v>
+        <v>0.9979692447481704</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027692478431631</v>
+        <v>1.034485873358107</v>
       </c>
       <c r="J17">
-        <v>0.9894948841898177</v>
+        <v>1.003310878866288</v>
       </c>
       <c r="K17">
-        <v>0.9977448772229928</v>
+        <v>1.012011948451259</v>
       </c>
       <c r="L17">
-        <v>0.9870698081729132</v>
+        <v>1.006453468842179</v>
       </c>
       <c r="M17">
-        <v>0.9372306721147499</v>
+        <v>1.012012974397125</v>
       </c>
       <c r="N17">
-        <v>0.9936844805956179</v>
+        <v>1.004735695395644</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9624470696068806</v>
+        <v>0.9770495248133778</v>
       </c>
       <c r="D18">
-        <v>0.9851107238181682</v>
+        <v>0.9996295489873032</v>
       </c>
       <c r="E18">
-        <v>0.9742340354600318</v>
+        <v>0.9942008398543987</v>
       </c>
       <c r="F18">
-        <v>0.9248695400681638</v>
+        <v>0.999976578278101</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028489131945825</v>
+        <v>1.035150330590683</v>
       </c>
       <c r="J18">
-        <v>0.9910079007253496</v>
+        <v>1.005008518393048</v>
       </c>
       <c r="K18">
-        <v>0.9991915121529694</v>
+        <v>1.013454679963465</v>
       </c>
       <c r="L18">
-        <v>0.9885128557299538</v>
+        <v>1.008120430845094</v>
       </c>
       <c r="M18">
-        <v>0.9401246934080639</v>
+        <v>1.013795716023706</v>
       </c>
       <c r="N18">
-        <v>0.9947486271668049</v>
+        <v>1.006435745765255</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9631308511609289</v>
+        <v>0.9777939752271073</v>
       </c>
       <c r="D19">
-        <v>0.9856759135661349</v>
+        <v>1.000192173378675</v>
       </c>
       <c r="E19">
-        <v>0.9747996241150076</v>
+        <v>0.9948415056813835</v>
       </c>
       <c r="F19">
-        <v>0.9259419127514988</v>
+        <v>1.000656478846525</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028758286481248</v>
+        <v>1.03537506965915</v>
       </c>
       <c r="J19">
-        <v>0.9915196559920773</v>
+        <v>1.005583260973638</v>
       </c>
       <c r="K19">
-        <v>0.9996806676543217</v>
+        <v>1.013943064860708</v>
       </c>
       <c r="L19">
-        <v>0.9890010377567253</v>
+        <v>1.008684854417131</v>
       </c>
       <c r="M19">
-        <v>0.9411021684084124</v>
+        <v>1.014399407580936</v>
       </c>
       <c r="N19">
-        <v>0.9951085277500303</v>
+        <v>1.007011304546233</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9600518604510344</v>
+        <v>0.9744437286355884</v>
       </c>
       <c r="D20">
-        <v>0.9831306904262177</v>
+        <v>0.9976607538341052</v>
       </c>
       <c r="E20">
-        <v>0.9722535715720919</v>
+        <v>0.9919592080849161</v>
       </c>
       <c r="F20">
-        <v>0.921105732610927</v>
+        <v>0.9975978210810226</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027544743032309</v>
+        <v>1.034362774950022</v>
       </c>
       <c r="J20">
-        <v>0.9892145771688675</v>
+        <v>1.002996633313269</v>
       </c>
       <c r="K20">
-        <v>0.9974767969892775</v>
+        <v>1.011744861158522</v>
       </c>
       <c r="L20">
-        <v>0.9868025088043405</v>
+        <v>1.006144934179961</v>
       </c>
       <c r="M20">
-        <v>0.9366938320183459</v>
+        <v>1.011683041834125</v>
       </c>
       <c r="N20">
-        <v>0.993487318382283</v>
+        <v>1.004421003577896</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9496478377549215</v>
+        <v>0.9631622046174487</v>
       </c>
       <c r="D21">
-        <v>0.9745257594102804</v>
+        <v>0.9891477629679276</v>
       </c>
       <c r="E21">
-        <v>0.9636642891412993</v>
+        <v>0.9822704450165071</v>
       </c>
       <c r="F21">
-        <v>0.9046143732261134</v>
+        <v>0.9873189858253681</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023415620476047</v>
+        <v>1.030938408343345</v>
       </c>
       <c r="J21">
-        <v>0.9814127745865912</v>
+        <v>0.994285130083144</v>
       </c>
       <c r="K21">
-        <v>0.9900063730506976</v>
+        <v>1.004337692949927</v>
       </c>
       <c r="L21">
-        <v>0.9793683769791396</v>
+        <v>0.997595678502892</v>
       </c>
       <c r="M21">
-        <v>0.9216601191390431</v>
+        <v>1.002544653522689</v>
       </c>
       <c r="N21">
-        <v>0.9879981719485623</v>
+        <v>0.9956971290139603</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9427689501403176</v>
+        <v>0.9557399760191554</v>
       </c>
       <c r="D22">
-        <v>0.9688324417837155</v>
+        <v>0.9835573656091099</v>
       </c>
       <c r="E22">
-        <v>0.9579971393112531</v>
+        <v>0.9759107181880332</v>
       </c>
       <c r="F22">
-        <v>0.8935709945308242</v>
+        <v>0.980574081609725</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020663027391704</v>
+        <v>1.028674211031798</v>
       </c>
       <c r="J22">
-        <v>0.9762440938696377</v>
+        <v>0.98855365471735</v>
       </c>
       <c r="K22">
-        <v>0.9850476942679184</v>
+        <v>0.9994617463851823</v>
       </c>
       <c r="L22">
-        <v>0.9744492722990059</v>
+        <v>0.9919749847434391</v>
       </c>
       <c r="M22">
-        <v>0.9115932245544615</v>
+        <v>0.9965404485789755</v>
       </c>
       <c r="N22">
-        <v>0.9843604246228089</v>
+        <v>0.9899575142957375</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9464501049091705</v>
+        <v>0.9597079695486319</v>
       </c>
       <c r="D23">
-        <v>0.9718795566024951</v>
+        <v>0.9865449593272898</v>
       </c>
       <c r="E23">
-        <v>0.9610286663247759</v>
+        <v>0.9793092245793954</v>
       </c>
       <c r="F23">
-        <v>0.8994954591481464</v>
+        <v>0.9841782170876467</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022138175862486</v>
+        <v>1.029885669984074</v>
       </c>
       <c r="J23">
-        <v>0.9790110415262701</v>
+        <v>0.9916176971444408</v>
       </c>
       <c r="K23">
-        <v>0.9877031735075674</v>
+        <v>1.002068644375225</v>
       </c>
       <c r="L23">
-        <v>0.9770820181012837</v>
+        <v>0.9949794119750938</v>
       </c>
       <c r="M23">
-        <v>0.9169936977208574</v>
+        <v>0.9997495095568517</v>
       </c>
       <c r="N23">
-        <v>0.9863079063497759</v>
+        <v>0.9930259080145258</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9602210852425516</v>
+        <v>0.9746277318091946</v>
       </c>
       <c r="D24">
-        <v>0.9832705946121123</v>
+        <v>0.9977997475865958</v>
       </c>
       <c r="E24">
-        <v>0.9723934567766314</v>
+        <v>0.9921174510619842</v>
       </c>
       <c r="F24">
-        <v>0.9213720342991407</v>
+        <v>0.9977657363807371</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027611544759664</v>
+        <v>1.034418431775552</v>
       </c>
       <c r="J24">
-        <v>0.9893413134852271</v>
+        <v>1.003138704037132</v>
       </c>
       <c r="K24">
-        <v>0.9975980079193024</v>
+        <v>1.011865612612841</v>
       </c>
       <c r="L24">
-        <v>0.9869233621805886</v>
+        <v>1.006284421761158</v>
       </c>
       <c r="M24">
-        <v>0.9369365824103492</v>
+        <v>1.011832202129141</v>
       </c>
       <c r="N24">
-        <v>0.9935764626542996</v>
+        <v>1.004563276058482</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9749483315362752</v>
+        <v>0.9906961937206009</v>
       </c>
       <c r="D25">
-        <v>0.9954389503685637</v>
+        <v>1.009953407440334</v>
       </c>
       <c r="E25">
-        <v>0.9845889663118248</v>
+        <v>1.005962667204837</v>
       </c>
       <c r="F25">
-        <v>0.9443367838044444</v>
+        <v>1.012462000770996</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033376552112838</v>
+        <v>1.039249856977926</v>
       </c>
       <c r="J25">
-        <v>1.000349231165121</v>
+        <v>1.015540776718457</v>
       </c>
       <c r="K25">
-        <v>1.00810848581293</v>
+        <v>1.022399149835766</v>
       </c>
       <c r="L25">
-        <v>0.9974313244877061</v>
+        <v>1.018469120284661</v>
       </c>
       <c r="M25">
-        <v>0.9578653770634763</v>
+        <v>1.02486989211467</v>
       </c>
       <c r="N25">
-        <v>1.001315113532846</v>
+        <v>1.016982961105553</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002677777513936</v>
+        <v>0.9814991507392162</v>
       </c>
       <c r="D2">
-        <v>1.019032882224067</v>
+        <v>1.002469044600257</v>
       </c>
       <c r="E2">
-        <v>1.016319573036985</v>
+        <v>0.9903377632401561</v>
       </c>
       <c r="F2">
-        <v>1.023462410887074</v>
+        <v>0.9580192435289132</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042808025007953</v>
+        <v>1.033666001818781</v>
       </c>
       <c r="J2">
-        <v>1.024778690639087</v>
+        <v>1.004247659986788</v>
       </c>
       <c r="K2">
-        <v>1.030233277027412</v>
+        <v>1.013894088551697</v>
       </c>
       <c r="L2">
-        <v>1.02755613743371</v>
+        <v>1.001933370103036</v>
       </c>
       <c r="M2">
-        <v>1.034604274797962</v>
+        <v>0.9700961666065386</v>
       </c>
       <c r="N2">
-        <v>1.02623399392356</v>
+        <v>1.005023138109377</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01096177922064</v>
+        <v>0.9871893572509205</v>
       </c>
       <c r="D3">
-        <v>1.025316601721838</v>
+        <v>1.006741060110491</v>
       </c>
       <c r="E3">
-        <v>1.023496396096531</v>
+        <v>0.9949540370667037</v>
       </c>
       <c r="F3">
-        <v>1.031089128173343</v>
+        <v>0.9699836416501186</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045240641951299</v>
+        <v>1.035466955476162</v>
       </c>
       <c r="J3">
-        <v>1.031158011097109</v>
+        <v>1.00803545188494</v>
       </c>
       <c r="K3">
-        <v>1.035635483718833</v>
+        <v>1.017288408341839</v>
       </c>
       <c r="L3">
-        <v>1.033837210237307</v>
+        <v>1.005651891692289</v>
       </c>
       <c r="M3">
-        <v>1.041339090173046</v>
+        <v>0.981015561565267</v>
       </c>
       <c r="N3">
-        <v>1.032622373748344</v>
+        <v>1.006331261791473</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016148839847899</v>
+        <v>0.9907738300786539</v>
       </c>
       <c r="D4">
-        <v>1.029253032159184</v>
+        <v>1.009431243958006</v>
       </c>
       <c r="E4">
-        <v>1.02799680243275</v>
+        <v>0.9978682917543581</v>
       </c>
       <c r="F4">
-        <v>1.035873497415423</v>
+        <v>0.9773747713232444</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046750587599002</v>
+        <v>1.036580761398185</v>
       </c>
       <c r="J4">
-        <v>1.035148287045339</v>
+        <v>1.010416523361908</v>
       </c>
       <c r="K4">
-        <v>1.039010767125251</v>
+        <v>1.019417159377415</v>
       </c>
       <c r="L4">
-        <v>1.037768676773251</v>
+        <v>1.007992512887885</v>
       </c>
       <c r="M4">
-        <v>1.04555741310655</v>
+        <v>0.9877541571971193</v>
       </c>
       <c r="N4">
-        <v>1.036618316346112</v>
+        <v>1.007152912510622</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018290546609901</v>
+        <v>0.9922586171091486</v>
       </c>
       <c r="D5">
-        <v>1.03087866801803</v>
+        <v>1.010545367328244</v>
       </c>
       <c r="E5">
-        <v>1.02985646770694</v>
+        <v>0.999076907185276</v>
       </c>
       <c r="F5">
-        <v>1.037850946563869</v>
+        <v>0.9804053783392361</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047370780181306</v>
+        <v>1.037037331251004</v>
       </c>
       <c r="J5">
-        <v>1.036794769495917</v>
+        <v>1.011401629404408</v>
       </c>
       <c r="K5">
-        <v>1.040402542077509</v>
+        <v>1.020296712730277</v>
       </c>
       <c r="L5">
-        <v>1.039391513885321</v>
+        <v>1.008961605657279</v>
       </c>
       <c r="M5">
-        <v>1.047299336646424</v>
+        <v>0.9905154890318957</v>
       </c>
       <c r="N5">
-        <v>1.038267136990624</v>
+        <v>1.007492678229035</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018647935026237</v>
+        <v>0.9925066551278143</v>
       </c>
       <c r="D6">
-        <v>1.031149953480857</v>
+        <v>1.010731471415171</v>
       </c>
       <c r="E6">
-        <v>1.030166875241823</v>
+        <v>0.9992788936015545</v>
       </c>
       <c r="F6">
-        <v>1.038181040265708</v>
+        <v>0.9809099310347771</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047474078630146</v>
+        <v>1.037113324558544</v>
       </c>
       <c r="J6">
-        <v>1.037069453713712</v>
+        <v>1.011566123651846</v>
       </c>
       <c r="K6">
-        <v>1.040634676546275</v>
+        <v>1.020443514141989</v>
       </c>
       <c r="L6">
-        <v>1.039662289478662</v>
+        <v>1.009123467908309</v>
       </c>
       <c r="M6">
-        <v>1.047590021880058</v>
+        <v>0.9909751092293945</v>
       </c>
       <c r="N6">
-        <v>1.038542211291514</v>
+        <v>1.007549402332309</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01617760723661</v>
+        <v>0.9907937552924165</v>
       </c>
       <c r="D7">
-        <v>1.02927486664689</v>
+        <v>1.009446195922211</v>
       </c>
       <c r="E7">
-        <v>1.028021775746318</v>
+        <v>0.9978845051981082</v>
       </c>
       <c r="F7">
-        <v>1.035900050679447</v>
+        <v>0.9774155586169732</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046758931009519</v>
+        <v>1.036586907160721</v>
       </c>
       <c r="J7">
-        <v>1.035170406960007</v>
+        <v>1.010429747814372</v>
       </c>
       <c r="K7">
-        <v>1.039029468928577</v>
+        <v>1.019428971408474</v>
       </c>
       <c r="L7">
-        <v>1.03779047657891</v>
+        <v>1.008005519539737</v>
       </c>
       <c r="M7">
-        <v>1.045580809941923</v>
+        <v>0.9877913273218268</v>
       </c>
       <c r="N7">
-        <v>1.036640467673595</v>
+        <v>1.007157474352022</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005514873320632</v>
+        <v>0.9834431284259314</v>
       </c>
       <c r="D8">
-        <v>1.02118444276328</v>
+        <v>1.003928710923388</v>
       </c>
       <c r="E8">
-        <v>1.018776013580895</v>
+        <v>0.991913485477213</v>
       </c>
       <c r="F8">
-        <v>1.026072449541075</v>
+        <v>0.9621400252172146</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043643897393885</v>
+        <v>1.034285738040347</v>
       </c>
       <c r="J8">
-        <v>1.026964301407497</v>
+        <v>1.005542760007184</v>
       </c>
       <c r="K8">
-        <v>1.032084904078792</v>
+        <v>1.015055727014644</v>
       </c>
       <c r="L8">
-        <v>1.029707519078378</v>
+        <v>1.003204119489966</v>
       </c>
       <c r="M8">
-        <v>1.036910464933983</v>
+        <v>0.9738584880609594</v>
       </c>
       <c r="N8">
-        <v>1.028422708509948</v>
+        <v>1.005470535019462</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9852704831438319</v>
+        <v>0.9696829272336289</v>
       </c>
       <c r="D9">
-        <v>1.005846304286983</v>
+        <v>0.9935922915635332</v>
       </c>
       <c r="E9">
-        <v>1.001281896973373</v>
+        <v>0.9807895380526268</v>
       </c>
       <c r="F9">
-        <v>1.007492408858385</v>
+        <v>0.9321387264302802</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037625309172524</v>
+        <v>1.02980115189528</v>
       </c>
       <c r="J9">
-        <v>1.0113543198388</v>
+        <v>0.9963536343064247</v>
       </c>
       <c r="K9">
-        <v>1.018845236098004</v>
+        <v>1.006790191957988</v>
       </c>
       <c r="L9">
-        <v>1.014354210474912</v>
+        <v>0.9942021757126646</v>
       </c>
       <c r="M9">
-        <v>1.020465085394358</v>
+        <v>0.9464379308426248</v>
       </c>
       <c r="N9">
-        <v>1.012790558976933</v>
+        <v>1.002293851595921</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9705893411877147</v>
+        <v>0.9598683864172703</v>
       </c>
       <c r="D10">
-        <v>0.9947502359582742</v>
+        <v>0.9862123610992144</v>
       </c>
       <c r="E10">
-        <v>0.9886460264411073</v>
+        <v>0.9728961579643651</v>
       </c>
       <c r="F10">
-        <v>0.9940823910954564</v>
+        <v>0.9093558679202218</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033195398221434</v>
+        <v>1.026462721407276</v>
       </c>
       <c r="J10">
-        <v>1.000020469285178</v>
+        <v>0.9897699689832649</v>
       </c>
       <c r="K10">
-        <v>1.009214927882588</v>
+        <v>1.000835099247321</v>
       </c>
       <c r="L10">
-        <v>1.00322335169081</v>
+        <v>0.9877726536356026</v>
       </c>
       <c r="M10">
-        <v>1.008559318156212</v>
+        <v>0.9255802781818381</v>
       </c>
       <c r="N10">
-        <v>1.001440613055514</v>
+        <v>1.000015685969731</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9638954219781284</v>
+        <v>0.9554396018036528</v>
       </c>
       <c r="D11">
-        <v>0.9897004860144686</v>
+        <v>0.9828792646628632</v>
       </c>
       <c r="E11">
-        <v>0.9828993371842147</v>
+        <v>0.9693449775696397</v>
       </c>
       <c r="F11">
-        <v>0.9879860561897763</v>
+        <v>0.8986082623649538</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031161631780692</v>
+        <v>1.024916544997878</v>
       </c>
       <c r="J11">
-        <v>0.9948513408791211</v>
+        <v>0.9867912736268537</v>
       </c>
       <c r="K11">
-        <v>1.004819285475434</v>
+        <v>0.9981314403243303</v>
       </c>
       <c r="L11">
-        <v>0.998151116798326</v>
+        <v>0.9848691211615217</v>
       </c>
       <c r="M11">
-        <v>1.003138150900767</v>
+        <v>0.9157340559626702</v>
       </c>
       <c r="N11">
-        <v>0.9962641438942129</v>
+        <v>0.9989847002448314</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9613527278923925</v>
+        <v>0.9537648508739689</v>
       </c>
       <c r="D12">
-        <v>0.9877840717935397</v>
+        <v>0.9816182327415899</v>
       </c>
       <c r="E12">
-        <v>0.9807189145470609</v>
+        <v>0.9680037816596091</v>
       </c>
       <c r="F12">
-        <v>0.9856733364567016</v>
+        <v>0.8944574757646413</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030387164570079</v>
+        <v>1.024325095383183</v>
       </c>
       <c r="J12">
-        <v>0.9928878068380254</v>
+        <v>0.9856635764997685</v>
       </c>
       <c r="K12">
-        <v>1.003149112572929</v>
+        <v>0.997106279957036</v>
       </c>
       <c r="L12">
-        <v>0.9962250730361217</v>
+        <v>0.9837707699682876</v>
       </c>
       <c r="M12">
-        <v>1.00108025796884</v>
+        <v>0.9119305352312878</v>
       </c>
       <c r="N12">
-        <v>0.9942978214095587</v>
+        <v>0.9985943691687046</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.961900791670115</v>
+        <v>0.9541254858364768</v>
       </c>
       <c r="D13">
-        <v>0.9881970605436373</v>
+        <v>0.9818898105901118</v>
       </c>
       <c r="E13">
-        <v>0.9811887769747091</v>
+        <v>0.9682925125986339</v>
       </c>
       <c r="F13">
-        <v>0.9861716912234504</v>
+        <v>0.8953555187019259</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030554181467927</v>
+        <v>1.024452776848554</v>
       </c>
       <c r="J13">
-        <v>0.993311034220234</v>
+        <v>0.9859064720722974</v>
       </c>
       <c r="K13">
-        <v>1.003509127113265</v>
+        <v>0.9973271653847583</v>
       </c>
       <c r="L13">
-        <v>0.9966401881035289</v>
+        <v>0.9840073030874459</v>
       </c>
       <c r="M13">
-        <v>1.001523760538133</v>
+        <v>0.9127534806145402</v>
       </c>
       <c r="N13">
-        <v>0.9947216498231947</v>
+        <v>0.9986784429909001</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9636864260099446</v>
+        <v>0.9553017904860753</v>
       </c>
       <c r="D14">
-        <v>0.9895429297847517</v>
+        <v>0.9827755111659645</v>
       </c>
       <c r="E14">
-        <v>0.9827200664689681</v>
+        <v>0.9692345790164699</v>
       </c>
       <c r="F14">
-        <v>0.9877959007963809</v>
+        <v>0.8982685725869428</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031098012981581</v>
+        <v>1.024868018640409</v>
       </c>
       <c r="J14">
-        <v>0.9946899483600891</v>
+        <v>0.9866985053474595</v>
       </c>
       <c r="K14">
-        <v>1.004682014525641</v>
+        <v>0.9980471405657294</v>
       </c>
       <c r="L14">
-        <v>0.9979927916962642</v>
+        <v>0.9847787484237809</v>
       </c>
       <c r="M14">
-        <v>1.002968974244169</v>
+        <v>0.9154228015693924</v>
       </c>
       <c r="N14">
-        <v>0.9961025221792921</v>
+        <v>0.9989525903465861</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9647789728187659</v>
+        <v>0.956022521478589</v>
       </c>
       <c r="D15">
-        <v>0.9903666428750821</v>
+        <v>0.9833180988753116</v>
       </c>
       <c r="E15">
-        <v>0.98365732327505</v>
+        <v>0.969812014763443</v>
       </c>
       <c r="F15">
-        <v>0.988790079371976</v>
+        <v>0.9000414654076795</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031430508771355</v>
+        <v>1.025121523421206</v>
       </c>
       <c r="J15">
-        <v>0.995533643253702</v>
+        <v>0.9871836148036071</v>
       </c>
       <c r="K15">
-        <v>1.005399593609287</v>
+        <v>0.9984879001190147</v>
       </c>
       <c r="L15">
-        <v>0.9988204793820616</v>
+        <v>0.9852513676441697</v>
       </c>
       <c r="M15">
-        <v>1.003853417834903</v>
+        <v>0.9170472525202323</v>
       </c>
       <c r="N15">
-        <v>0.996947415216427</v>
+        <v>0.9991205010062415</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9710260333210732</v>
+        <v>0.9601583106787169</v>
       </c>
       <c r="D16">
-        <v>0.995079888765617</v>
+        <v>0.9864304840343312</v>
       </c>
       <c r="E16">
-        <v>0.9890212477396254</v>
+        <v>0.9731288594168006</v>
       </c>
       <c r="F16">
-        <v>0.9944804922354319</v>
+        <v>0.9100485032554652</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033327800451214</v>
+        <v>1.026563055854376</v>
       </c>
       <c r="J16">
-        <v>1.000357673627249</v>
+        <v>0.9899647937970059</v>
       </c>
       <c r="K16">
-        <v>1.009501608391104</v>
+        <v>1.001011727409714</v>
       </c>
       <c r="L16">
-        <v>1.003554327154823</v>
+        <v>0.9879626804473075</v>
       </c>
       <c r="M16">
-        <v>1.008913150233897</v>
+        <v>0.9262146979046357</v>
       </c>
       <c r="N16">
-        <v>1.001778296266429</v>
+        <v>1.000083115466722</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9748507257052441</v>
+        <v>0.9627028284647107</v>
       </c>
       <c r="D17">
-        <v>0.9979682003942261</v>
+        <v>0.9883444961528786</v>
       </c>
       <c r="E17">
-        <v>0.9923092353871285</v>
+        <v>0.9751723795084505</v>
       </c>
       <c r="F17">
-        <v>0.9979692447481704</v>
+        <v>0.9160732353895162</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034485873358107</v>
+        <v>1.027439085409616</v>
       </c>
       <c r="J17">
-        <v>1.003310878866288</v>
+        <v>0.9916737784315951</v>
       </c>
       <c r="K17">
-        <v>1.012011948451259</v>
+        <v>1.002560022226226</v>
       </c>
       <c r="L17">
-        <v>1.006453468842179</v>
+        <v>0.9896301961885553</v>
       </c>
       <c r="M17">
-        <v>1.012012974397125</v>
+        <v>0.9317323183171408</v>
       </c>
       <c r="N17">
-        <v>1.004735695395644</v>
+        <v>1.000674574078903</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9770495248133778</v>
+        <v>0.964169943259808</v>
       </c>
       <c r="D18">
-        <v>0.9996295489873032</v>
+        <v>0.9894478148567143</v>
       </c>
       <c r="E18">
-        <v>0.9942008398543987</v>
+        <v>0.9763516300206745</v>
       </c>
       <c r="F18">
-        <v>0.999976578278101</v>
+        <v>0.9195043072641369</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035150330590683</v>
+        <v>1.027940509953768</v>
       </c>
       <c r="J18">
-        <v>1.005008518393048</v>
+        <v>0.9926584155905364</v>
       </c>
       <c r="K18">
-        <v>1.013454679963465</v>
+        <v>1.003451213091577</v>
       </c>
       <c r="L18">
-        <v>1.008120430845094</v>
+        <v>0.9905914446649936</v>
       </c>
       <c r="M18">
-        <v>1.013795716023706</v>
+        <v>0.9348739546748525</v>
       </c>
       <c r="N18">
-        <v>1.006435745765255</v>
+        <v>1.001015318724614</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9777939752271073</v>
+        <v>0.9646673749029534</v>
       </c>
       <c r="D19">
-        <v>1.000192173378675</v>
+        <v>0.9898218597367689</v>
       </c>
       <c r="E19">
-        <v>0.9948415056813835</v>
+        <v>0.9767516272456386</v>
       </c>
       <c r="F19">
-        <v>1.000656478846525</v>
+        <v>0.9206608008311857</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03537506965915</v>
+        <v>1.028109916267945</v>
       </c>
       <c r="J19">
-        <v>1.005583260973638</v>
+        <v>0.9929921405592705</v>
       </c>
       <c r="K19">
-        <v>1.013943064860708</v>
+        <v>1.003753124002498</v>
       </c>
       <c r="L19">
-        <v>1.008684854417131</v>
+        <v>0.9909173259909486</v>
       </c>
       <c r="M19">
-        <v>1.014399407580936</v>
+        <v>0.935932777565505</v>
       </c>
       <c r="N19">
-        <v>1.007011304546233</v>
+        <v>1.001130802810339</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9744437286355884</v>
+        <v>0.9624316089413755</v>
       </c>
       <c r="D20">
-        <v>0.9976607538341052</v>
+        <v>0.9881405100758638</v>
       </c>
       <c r="E20">
-        <v>0.9919592080849161</v>
+        <v>0.9749544566877939</v>
       </c>
       <c r="F20">
-        <v>0.9975978210810226</v>
+        <v>0.9154355936637885</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034362774950022</v>
+        <v>1.027346096322588</v>
       </c>
       <c r="J20">
-        <v>1.002996633313269</v>
+        <v>0.9914916944083175</v>
       </c>
       <c r="K20">
-        <v>1.011744861158522</v>
+        <v>1.002395149854682</v>
       </c>
       <c r="L20">
-        <v>1.006144934179961</v>
+        <v>0.9894524776508242</v>
       </c>
       <c r="M20">
-        <v>1.011683041834125</v>
+        <v>0.9311484133633937</v>
       </c>
       <c r="N20">
-        <v>1.004421003577896</v>
+        <v>1.000611559582553</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9631622046174487</v>
+        <v>0.9549562433177301</v>
       </c>
       <c r="D21">
-        <v>0.9891477629679276</v>
+        <v>0.9825153496597953</v>
       </c>
       <c r="E21">
-        <v>0.9822704450165071</v>
+        <v>0.968957793846271</v>
       </c>
       <c r="F21">
-        <v>0.9873189858253681</v>
+        <v>0.8974153794258323</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030938408343345</v>
+        <v>1.024746232072047</v>
       </c>
       <c r="J21">
-        <v>0.994285130083144</v>
+        <v>0.98646587737113</v>
       </c>
       <c r="K21">
-        <v>1.004337692949927</v>
+        <v>0.9978357221771983</v>
       </c>
       <c r="L21">
-        <v>0.997595678502892</v>
+        <v>0.9845521421717175</v>
       </c>
       <c r="M21">
-        <v>1.002544653522689</v>
+        <v>0.9146410161086119</v>
       </c>
       <c r="N21">
-        <v>0.9956971290139603</v>
+        <v>0.9988720706839568</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9557399760191554</v>
+        <v>0.9500825017250337</v>
       </c>
       <c r="D22">
-        <v>0.9835573656091099</v>
+        <v>0.978844121977697</v>
       </c>
       <c r="E22">
-        <v>0.9759107181880332</v>
+        <v>0.9650580342824798</v>
       </c>
       <c r="F22">
-        <v>0.980574081609725</v>
+        <v>0.8851480155414619</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028674211031798</v>
+        <v>1.023011039173277</v>
       </c>
       <c r="J22">
-        <v>0.98855365471735</v>
+        <v>0.9831814691544427</v>
       </c>
       <c r="K22">
-        <v>0.9994617463851823</v>
+        <v>0.994846662658069</v>
       </c>
       <c r="L22">
-        <v>0.9919749847434391</v>
+        <v>0.9813550008055698</v>
       </c>
       <c r="M22">
-        <v>0.9965404485789755</v>
+        <v>0.9033985799834222</v>
       </c>
       <c r="N22">
-        <v>0.9899575142957375</v>
+        <v>0.9977352443940646</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9597079695486319</v>
+        <v>0.952683718166174</v>
       </c>
       <c r="D23">
-        <v>0.9865449593272898</v>
+        <v>0.9808039710591079</v>
       </c>
       <c r="E23">
-        <v>0.9793092245793954</v>
+        <v>0.9671384605318555</v>
       </c>
       <c r="F23">
-        <v>0.9841782170876467</v>
+        <v>0.8917510013822222</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029885669984074</v>
+        <v>1.023941256087966</v>
       </c>
       <c r="J23">
-        <v>0.9916176971444408</v>
+        <v>0.984935206414006</v>
       </c>
       <c r="K23">
-        <v>1.002068644375225</v>
+        <v>0.9964436607377176</v>
       </c>
       <c r="L23">
-        <v>0.9949794119750938</v>
+        <v>0.9830616165057106</v>
       </c>
       <c r="M23">
-        <v>0.9997495095568517</v>
+        <v>0.9094502769160331</v>
       </c>
       <c r="N23">
-        <v>0.9930259080145258</v>
+        <v>0.9983422577175668</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9746277318091946</v>
+        <v>0.9625542138827681</v>
       </c>
       <c r="D24">
-        <v>0.9977997475865958</v>
+        <v>0.9882327228944079</v>
       </c>
       <c r="E24">
-        <v>0.9921174510619842</v>
+        <v>0.9750529657241005</v>
       </c>
       <c r="F24">
-        <v>0.9977657363807371</v>
+        <v>0.9157239712876164</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034418431775552</v>
+        <v>1.027388143450441</v>
       </c>
       <c r="J24">
-        <v>1.003138704037132</v>
+        <v>0.991574007844928</v>
       </c>
       <c r="K24">
-        <v>1.011865612612841</v>
+        <v>1.002469685213606</v>
       </c>
       <c r="L24">
-        <v>1.006284421761158</v>
+        <v>0.9895328160538263</v>
       </c>
       <c r="M24">
-        <v>1.011832202129141</v>
+        <v>0.9314124901804238</v>
       </c>
       <c r="N24">
-        <v>1.004563276058482</v>
+        <v>1.000640046183519</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9906961937206009</v>
+        <v>0.9733452487407108</v>
       </c>
       <c r="D25">
-        <v>1.009953407440334</v>
+        <v>0.9963443903017843</v>
       </c>
       <c r="E25">
-        <v>1.005962667204837</v>
+        <v>0.9837435587283476</v>
       </c>
       <c r="F25">
-        <v>1.012462000770996</v>
+        <v>0.9403236770268651</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039249856977926</v>
+        <v>1.031016912211324</v>
       </c>
       <c r="J25">
-        <v>1.015540776718457</v>
+        <v>0.998804197461757</v>
       </c>
       <c r="K25">
-        <v>1.022399149835766</v>
+        <v>1.008999721213031</v>
       </c>
       <c r="L25">
-        <v>1.018469120284661</v>
+        <v>0.9965995884127079</v>
       </c>
       <c r="M25">
-        <v>1.02486989211467</v>
+        <v>0.9539248780542959</v>
       </c>
       <c r="N25">
-        <v>1.016982961105553</v>
+        <v>1.00314146155791</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9814991507392162</v>
+        <v>1.020113072211601</v>
       </c>
       <c r="D2">
-        <v>1.002469044600257</v>
+        <v>1.025907549841363</v>
       </c>
       <c r="E2">
-        <v>0.9903377632401561</v>
+        <v>1.021144118774766</v>
       </c>
       <c r="F2">
-        <v>0.9580192435289132</v>
+        <v>1.0329127437976</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033666001818781</v>
+        <v>1.029301764090588</v>
       </c>
       <c r="J2">
-        <v>1.004247659986788</v>
+        <v>1.025312019603458</v>
       </c>
       <c r="K2">
-        <v>1.013894088551697</v>
+        <v>1.028731747364121</v>
       </c>
       <c r="L2">
-        <v>1.001933370103036</v>
+        <v>1.023982317307763</v>
       </c>
       <c r="M2">
-        <v>0.9700961666065386</v>
+        <v>1.035716606163783</v>
       </c>
       <c r="N2">
-        <v>1.005023138109377</v>
+        <v>1.012444161774373</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9871893572509205</v>
+        <v>1.021261962373333</v>
       </c>
       <c r="D3">
-        <v>1.006741060110491</v>
+        <v>1.026774506353881</v>
       </c>
       <c r="E3">
-        <v>0.9949540370667037</v>
+        <v>1.022125041220126</v>
       </c>
       <c r="F3">
-        <v>0.9699836416501186</v>
+        <v>1.035119657753549</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035466955476162</v>
+        <v>1.029569287689169</v>
       </c>
       <c r="J3">
-        <v>1.00803545188494</v>
+        <v>1.026096915882789</v>
       </c>
       <c r="K3">
-        <v>1.017288408341839</v>
+        <v>1.029405944572635</v>
       </c>
       <c r="L3">
-        <v>1.005651891692289</v>
+        <v>1.024769151726096</v>
       </c>
       <c r="M3">
-        <v>0.981015561565267</v>
+        <v>1.03772865977159</v>
       </c>
       <c r="N3">
-        <v>1.006331261791473</v>
+        <v>1.01271042521562</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9907738300786539</v>
+        <v>1.022004970882829</v>
       </c>
       <c r="D4">
-        <v>1.009431243958006</v>
+        <v>1.02733483879364</v>
       </c>
       <c r="E4">
-        <v>0.9978682917543581</v>
+        <v>1.022759758497706</v>
       </c>
       <c r="F4">
-        <v>0.9773747713232444</v>
+        <v>1.036541670074275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036580761398185</v>
+        <v>1.029740427995969</v>
       </c>
       <c r="J4">
-        <v>1.010416523361908</v>
+        <v>1.026603908144716</v>
       </c>
       <c r="K4">
-        <v>1.019417159377415</v>
+        <v>1.029840916129397</v>
       </c>
       <c r="L4">
-        <v>1.007992512887885</v>
+        <v>1.025277674085076</v>
       </c>
       <c r="M4">
-        <v>0.9877541571971193</v>
+        <v>1.039024265715438</v>
       </c>
       <c r="N4">
-        <v>1.007152912510622</v>
+        <v>1.012882245700216</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9922586171091486</v>
+        <v>1.022317238422022</v>
       </c>
       <c r="D5">
-        <v>1.010545367328244</v>
+        <v>1.027570249420303</v>
       </c>
       <c r="E5">
-        <v>0.999076907185276</v>
+        <v>1.023026593870859</v>
       </c>
       <c r="F5">
-        <v>0.9804053783392361</v>
+        <v>1.037138079406133</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037037331251004</v>
+        <v>1.029811906847539</v>
       </c>
       <c r="J5">
-        <v>1.011401629404408</v>
+        <v>1.026816836778333</v>
       </c>
       <c r="K5">
-        <v>1.020296712730277</v>
+        <v>1.030023473656696</v>
       </c>
       <c r="L5">
-        <v>1.008961605657279</v>
+        <v>1.025491311806165</v>
       </c>
       <c r="M5">
-        <v>0.9905154890318957</v>
+        <v>1.039567455199408</v>
       </c>
       <c r="N5">
-        <v>1.007492678229035</v>
+        <v>1.012954367034769</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9925066551278143</v>
+        <v>1.022369664122958</v>
       </c>
       <c r="D6">
-        <v>1.010731471415171</v>
+        <v>1.027609766967123</v>
       </c>
       <c r="E6">
-        <v>0.9992788936015545</v>
+        <v>1.023071396759593</v>
       </c>
       <c r="F6">
-        <v>0.9809099310347771</v>
+        <v>1.037238137761716</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037113324558544</v>
+        <v>1.029823881043001</v>
       </c>
       <c r="J6">
-        <v>1.011566123651846</v>
+        <v>1.026852576113832</v>
       </c>
       <c r="K6">
-        <v>1.020443514141989</v>
+        <v>1.030054108061013</v>
       </c>
       <c r="L6">
-        <v>1.009123467908309</v>
+        <v>1.025527174054265</v>
       </c>
       <c r="M6">
-        <v>0.9909751092293945</v>
+        <v>1.039658573032217</v>
       </c>
       <c r="N6">
-        <v>1.007549402332309</v>
+        <v>1.012966469969992</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9907937552924165</v>
+        <v>1.022009143779442</v>
       </c>
       <c r="D7">
-        <v>1.009446195922211</v>
+        <v>1.027337984961147</v>
       </c>
       <c r="E7">
-        <v>0.9978845051981082</v>
+        <v>1.022763323961796</v>
       </c>
       <c r="F7">
-        <v>0.9774155586169732</v>
+        <v>1.036549644798842</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036586907160721</v>
+        <v>1.029741384938109</v>
       </c>
       <c r="J7">
-        <v>1.010429747814372</v>
+        <v>1.026606754133681</v>
       </c>
       <c r="K7">
-        <v>1.019428971408474</v>
+        <v>1.029843356665969</v>
       </c>
       <c r="L7">
-        <v>1.008005519539737</v>
+        <v>1.025280529290542</v>
       </c>
       <c r="M7">
-        <v>0.9877913273218268</v>
+        <v>1.039031529625752</v>
       </c>
       <c r="N7">
-        <v>1.007157474352022</v>
+        <v>1.012883209828348</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9834431284259314</v>
+        <v>1.020501429456914</v>
       </c>
       <c r="D8">
-        <v>1.003928710923388</v>
+        <v>1.026200676677375</v>
       </c>
       <c r="E8">
-        <v>0.991913485477213</v>
+        <v>1.02147562805722</v>
       </c>
       <c r="F8">
-        <v>0.9621400252172146</v>
+        <v>1.033659845311436</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034285738040347</v>
+        <v>1.029392583080773</v>
       </c>
       <c r="J8">
-        <v>1.005542760007184</v>
+        <v>1.025577463898875</v>
       </c>
       <c r="K8">
-        <v>1.015055727014644</v>
+        <v>1.028959861354714</v>
       </c>
       <c r="L8">
-        <v>1.003204119489966</v>
+        <v>1.024248359316408</v>
       </c>
       <c r="M8">
-        <v>0.9738584880609594</v>
+        <v>1.036397918301791</v>
       </c>
       <c r="N8">
-        <v>1.005470535019462</v>
+        <v>1.012534244302435</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9696829272336289</v>
+        <v>1.017841461747346</v>
       </c>
       <c r="D9">
-        <v>0.9935922915635332</v>
+        <v>1.024191569295324</v>
       </c>
       <c r="E9">
-        <v>0.9807895380526268</v>
+        <v>1.019206437175363</v>
       </c>
       <c r="F9">
-        <v>0.9321387264302802</v>
+        <v>1.028520098064401</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02980115189528</v>
+        <v>1.028762807382238</v>
       </c>
       <c r="J9">
-        <v>0.9963536343064247</v>
+        <v>1.023756843387069</v>
       </c>
       <c r="K9">
-        <v>1.006790191957988</v>
+        <v>1.027393155065546</v>
       </c>
       <c r="L9">
-        <v>0.9942021757126646</v>
+        <v>1.022424788849328</v>
       </c>
       <c r="M9">
-        <v>0.9464379308426248</v>
+        <v>1.031707270879455</v>
       </c>
       <c r="N9">
-        <v>1.002293851595921</v>
+        <v>1.011915703180959</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9598683864172703</v>
+        <v>1.016065843026293</v>
       </c>
       <c r="D10">
-        <v>0.9862123610992144</v>
+        <v>1.022848677895947</v>
       </c>
       <c r="E10">
-        <v>0.9728961579643651</v>
+        <v>1.01769347460794</v>
       </c>
       <c r="F10">
-        <v>0.9093558679202218</v>
+        <v>1.025059466488303</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026462721407276</v>
+        <v>1.028332647600177</v>
       </c>
       <c r="J10">
-        <v>0.9897699689832649</v>
+        <v>1.022538358834727</v>
       </c>
       <c r="K10">
-        <v>1.000835099247321</v>
+        <v>1.026341932183038</v>
       </c>
       <c r="L10">
-        <v>0.9877726536356026</v>
+        <v>1.021205781171598</v>
       </c>
       <c r="M10">
-        <v>0.9255802781818381</v>
+        <v>1.028544615183169</v>
       </c>
       <c r="N10">
-        <v>1.000015685969731</v>
+        <v>1.011500877682333</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9554396018036528</v>
+        <v>1.015296395024898</v>
       </c>
       <c r="D11">
-        <v>0.9828792646628632</v>
+        <v>1.022266338823768</v>
       </c>
       <c r="E11">
-        <v>0.9693449775696397</v>
+        <v>1.017038282302081</v>
       </c>
       <c r="F11">
-        <v>0.8986082623649538</v>
+        <v>1.023552391969258</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024916544997878</v>
+        <v>1.028143909028165</v>
       </c>
       <c r="J11">
-        <v>0.9867912736268537</v>
+        <v>1.022009591893838</v>
       </c>
       <c r="K11">
-        <v>0.9981314403243303</v>
+        <v>1.025885113365466</v>
       </c>
       <c r="L11">
-        <v>0.9848691211615217</v>
+        <v>1.020677133480675</v>
       </c>
       <c r="M11">
-        <v>0.9157340559626702</v>
+        <v>1.027166262695799</v>
       </c>
       <c r="N11">
-        <v>0.9989847002448314</v>
+        <v>1.011320661650387</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9537648508739689</v>
+        <v>1.015010495209666</v>
       </c>
       <c r="D12">
-        <v>0.9816182327415899</v>
+        <v>1.022049900914824</v>
       </c>
       <c r="E12">
-        <v>0.9680037816596091</v>
+        <v>1.016794902181066</v>
       </c>
       <c r="F12">
-        <v>0.8944574757646413</v>
+        <v>1.022991263316605</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024325095383183</v>
+        <v>1.028073428425668</v>
       </c>
       <c r="J12">
-        <v>0.9856635764997685</v>
+        <v>1.021813008418751</v>
       </c>
       <c r="K12">
-        <v>0.997106279957036</v>
+        <v>1.025715182896988</v>
       </c>
       <c r="L12">
-        <v>0.9837707699682876</v>
+        <v>1.020480646544326</v>
       </c>
       <c r="M12">
-        <v>0.9119305352312878</v>
+        <v>1.02665290438406</v>
       </c>
       <c r="N12">
-        <v>0.9985943691687046</v>
+        <v>1.011253631487985</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9541254858364768</v>
+        <v>1.015071825934772</v>
       </c>
       <c r="D13">
-        <v>0.9818898105901118</v>
+        <v>1.02209633355786</v>
       </c>
       <c r="E13">
-        <v>0.9682925125986339</v>
+        <v>1.016847108643818</v>
       </c>
       <c r="F13">
-        <v>0.8953555187019259</v>
+        <v>1.023111688373933</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024452776848554</v>
+        <v>1.028088563752399</v>
       </c>
       <c r="J13">
-        <v>0.9859064720722974</v>
+        <v>1.02185518423901</v>
       </c>
       <c r="K13">
-        <v>0.9973271653847583</v>
+        <v>1.025751644803217</v>
       </c>
       <c r="L13">
-        <v>0.9840073030874459</v>
+        <v>1.020522799287751</v>
       </c>
       <c r="M13">
-        <v>0.9127534806145402</v>
+        <v>1.026763084429602</v>
       </c>
       <c r="N13">
-        <v>0.9986784429909001</v>
+        <v>1.011268013764834</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9553017904860753</v>
+        <v>1.015272764365266</v>
       </c>
       <c r="D14">
-        <v>0.9827755111659645</v>
+        <v>1.022248450689658</v>
       </c>
       <c r="E14">
-        <v>0.9692345790164699</v>
+        <v>1.017018164693048</v>
       </c>
       <c r="F14">
-        <v>0.8982685725869428</v>
+        <v>1.023506036361868</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024868018640409</v>
+        <v>1.028138090738538</v>
       </c>
       <c r="J14">
-        <v>0.9866985053474595</v>
+        <v>1.021993345844298</v>
       </c>
       <c r="K14">
-        <v>0.9980471405657294</v>
+        <v>1.025871071925191</v>
       </c>
       <c r="L14">
-        <v>0.9847787484237809</v>
+        <v>1.020660894343568</v>
       </c>
       <c r="M14">
-        <v>0.9154228015693924</v>
+        <v>1.027123856655217</v>
       </c>
       <c r="N14">
-        <v>0.9989525903465861</v>
+        <v>1.011315122754274</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.956022521478589</v>
+        <v>1.015396556794967</v>
       </c>
       <c r="D15">
-        <v>0.9833180988753116</v>
+        <v>1.022342157613433</v>
       </c>
       <c r="E15">
-        <v>0.969812014763443</v>
+        <v>1.017123556247852</v>
       </c>
       <c r="F15">
-        <v>0.9000414654076795</v>
+        <v>1.02374882911644</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025121523421206</v>
+        <v>1.028168556219573</v>
       </c>
       <c r="J15">
-        <v>0.9871836148036071</v>
+        <v>1.022078448391129</v>
       </c>
       <c r="K15">
-        <v>0.9984879001190147</v>
+        <v>1.02594462203283</v>
       </c>
       <c r="L15">
-        <v>0.9852513676441697</v>
+        <v>1.020745962818837</v>
       </c>
       <c r="M15">
-        <v>0.9170472525202323</v>
+        <v>1.027345956695186</v>
       </c>
       <c r="N15">
-        <v>0.9991205010062415</v>
+        <v>1.011344136223606</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9601583106787169</v>
+        <v>1.016116895963296</v>
       </c>
       <c r="D16">
-        <v>0.9864304840343312</v>
+        <v>1.022887307544253</v>
       </c>
       <c r="E16">
-        <v>0.9731288594168006</v>
+        <v>1.01773695592182</v>
       </c>
       <c r="F16">
-        <v>0.9100485032554652</v>
+        <v>1.025159301313764</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026563055854376</v>
+        <v>1.028345121157085</v>
       </c>
       <c r="J16">
-        <v>0.9899647937970059</v>
+        <v>1.022573426818955</v>
       </c>
       <c r="K16">
-        <v>1.001011727409714</v>
+        <v>1.026372215149591</v>
       </c>
       <c r="L16">
-        <v>0.9879626804473075</v>
+        <v>1.02124084855173</v>
       </c>
       <c r="M16">
-        <v>0.9262146979046357</v>
+        <v>1.028635900998689</v>
       </c>
       <c r="N16">
-        <v>1.000083115466722</v>
+        <v>1.011512825456937</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9627028284647107</v>
+        <v>1.016568584426529</v>
       </c>
       <c r="D17">
-        <v>0.9883444961528786</v>
+        <v>1.02322903430362</v>
       </c>
       <c r="E17">
-        <v>0.9751723795084505</v>
+        <v>1.018121705258734</v>
       </c>
       <c r="F17">
-        <v>0.9160732353895162</v>
+        <v>1.026041721655259</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027439085409616</v>
+        <v>1.028455210801154</v>
       </c>
       <c r="J17">
-        <v>0.9916737784315951</v>
+        <v>1.022883602811344</v>
       </c>
       <c r="K17">
-        <v>1.002560022226226</v>
+        <v>1.026639994319591</v>
       </c>
       <c r="L17">
-        <v>0.9896301961885553</v>
+        <v>1.02155105917879</v>
       </c>
       <c r="M17">
-        <v>0.9317323183171408</v>
+        <v>1.029442638115486</v>
       </c>
       <c r="N17">
-        <v>1.000674574078903</v>
+        <v>1.011618480285836</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.964169943259808</v>
+        <v>1.016831989647009</v>
       </c>
       <c r="D18">
-        <v>0.9894478148567143</v>
+        <v>1.02342827509306</v>
       </c>
       <c r="E18">
-        <v>0.9763516300206745</v>
+        <v>1.018346116472372</v>
       </c>
       <c r="F18">
-        <v>0.9195043072641369</v>
+        <v>1.026555595802164</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027940509953768</v>
+        <v>1.028519185456894</v>
       </c>
       <c r="J18">
-        <v>0.9926584155905364</v>
+        <v>1.02306441193229</v>
       </c>
       <c r="K18">
-        <v>1.003451213091577</v>
+        <v>1.026796028042214</v>
       </c>
       <c r="L18">
-        <v>0.9905914446649936</v>
+        <v>1.021731921842835</v>
       </c>
       <c r="M18">
-        <v>0.9348739546748525</v>
+        <v>1.029912338041099</v>
       </c>
       <c r="N18">
-        <v>1.001015318724614</v>
+        <v>1.011680049709021</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9646673749029534</v>
+        <v>1.016921794451323</v>
       </c>
       <c r="D19">
-        <v>0.9898218597367689</v>
+        <v>1.023496197103672</v>
       </c>
       <c r="E19">
-        <v>0.9767516272456386</v>
+        <v>1.018422633845311</v>
       </c>
       <c r="F19">
-        <v>0.9206608008311857</v>
+        <v>1.026730674651112</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028109916267945</v>
+        <v>1.028540958739923</v>
       </c>
       <c r="J19">
-        <v>0.9929921405592705</v>
+        <v>1.023126044363887</v>
       </c>
       <c r="K19">
-        <v>1.003753124002498</v>
+        <v>1.026849204893157</v>
       </c>
       <c r="L19">
-        <v>0.9909173259909486</v>
+        <v>1.021793578177584</v>
       </c>
       <c r="M19">
-        <v>0.935932777565505</v>
+        <v>1.03007234953702</v>
       </c>
       <c r="N19">
-        <v>1.001130802810339</v>
+        <v>1.01170103360083</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9624316089413755</v>
+        <v>1.016520128451699</v>
       </c>
       <c r="D20">
-        <v>0.9881405100758638</v>
+        <v>1.023192378821826</v>
       </c>
       <c r="E20">
-        <v>0.9749544566877939</v>
+        <v>1.018080425990343</v>
       </c>
       <c r="F20">
-        <v>0.9154355936637885</v>
+        <v>1.025947132118013</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027346096322588</v>
+        <v>1.028443423940326</v>
       </c>
       <c r="J20">
-        <v>0.9914916944083175</v>
+        <v>1.022850335390929</v>
       </c>
       <c r="K20">
-        <v>1.002395149854682</v>
+        <v>1.026611280440189</v>
       </c>
       <c r="L20">
-        <v>0.9894524776508242</v>
+        <v>1.02151778459162</v>
       </c>
       <c r="M20">
-        <v>0.9311484133633937</v>
+        <v>1.029356171700485</v>
       </c>
       <c r="N20">
-        <v>1.000611559582553</v>
+        <v>1.011607150449321</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9549562433177301</v>
+        <v>1.015213595588735</v>
       </c>
       <c r="D21">
-        <v>0.9825153496597953</v>
+        <v>1.022203659627649</v>
       </c>
       <c r="E21">
-        <v>0.968957793846271</v>
+        <v>1.016967793312679</v>
       </c>
       <c r="F21">
-        <v>0.8974153794258323</v>
+        <v>1.023389947878611</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024746232072047</v>
+        <v>1.028123516640202</v>
       </c>
       <c r="J21">
-        <v>0.98646587737113</v>
+        <v>1.021952665569619</v>
       </c>
       <c r="K21">
-        <v>0.9978357221771983</v>
+        <v>1.025835910469215</v>
       </c>
       <c r="L21">
-        <v>0.9845521421717175</v>
+        <v>1.020620232221461</v>
       </c>
       <c r="M21">
-        <v>0.9146410161086119</v>
+        <v>1.027017656554228</v>
       </c>
       <c r="N21">
-        <v>0.9988720706839568</v>
+        <v>1.011301252818398</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9500825017250337</v>
+        <v>1.014391589228909</v>
       </c>
       <c r="D22">
-        <v>0.978844121977697</v>
+        <v>1.021581252084589</v>
       </c>
       <c r="E22">
-        <v>0.9650580342824798</v>
+        <v>1.016268163458277</v>
       </c>
       <c r="F22">
-        <v>0.8851480155414619</v>
+        <v>1.021774404613471</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023011039173277</v>
+        <v>1.027920209029932</v>
       </c>
       <c r="J22">
-        <v>0.9831814691544427</v>
+        <v>1.021387246087505</v>
       </c>
       <c r="K22">
-        <v>0.994846662658069</v>
+        <v>1.025346970734335</v>
       </c>
       <c r="L22">
-        <v>0.9813550008055698</v>
+        <v>1.02005518900257</v>
       </c>
       <c r="M22">
-        <v>0.9033985799834222</v>
+        <v>1.025539353315115</v>
       </c>
       <c r="N22">
-        <v>0.9977352443940646</v>
+        <v>1.011108402331057</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.952683718166174</v>
+        <v>1.01482740243391</v>
       </c>
       <c r="D23">
-        <v>0.9808039710591079</v>
+        <v>1.021911274972762</v>
       </c>
       <c r="E23">
-        <v>0.9671384605318555</v>
+        <v>1.016639058154675</v>
       </c>
       <c r="F23">
-        <v>0.8917510013822222</v>
+        <v>1.022631582648994</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023941256087966</v>
+        <v>1.028028192742783</v>
       </c>
       <c r="J23">
-        <v>0.984935206414006</v>
+        <v>1.021687083021345</v>
       </c>
       <c r="K23">
-        <v>0.9964436607377176</v>
+        <v>1.025606303655856</v>
       </c>
       <c r="L23">
-        <v>0.9830616165057106</v>
+        <v>1.02035479770663</v>
       </c>
       <c r="M23">
-        <v>0.9094502769160331</v>
+        <v>1.026323800163769</v>
       </c>
       <c r="N23">
-        <v>0.9983422577175668</v>
+        <v>1.01121068559295</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9625542138827681</v>
+        <v>1.016542023797562</v>
       </c>
       <c r="D24">
-        <v>0.9882327228944079</v>
+        <v>1.023208942111959</v>
       </c>
       <c r="E24">
-        <v>0.9750529657241005</v>
+        <v>1.018099078335575</v>
       </c>
       <c r="F24">
-        <v>0.9157239712876164</v>
+        <v>1.025989875611128</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027388143450441</v>
+        <v>1.028448750653203</v>
       </c>
       <c r="J24">
-        <v>0.991574007844928</v>
+        <v>1.022865367850418</v>
       </c>
       <c r="K24">
-        <v>1.002469685213606</v>
+        <v>1.02662425549274</v>
       </c>
       <c r="L24">
-        <v>0.9895328160538263</v>
+        <v>1.021532820186447</v>
       </c>
       <c r="M24">
-        <v>0.9314124901804238</v>
+        <v>1.029395244795513</v>
       </c>
       <c r="N24">
-        <v>1.000640046183519</v>
+        <v>1.011612270091779</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9733452487407108</v>
+        <v>1.018529521387344</v>
       </c>
       <c r="D25">
-        <v>0.9963443903017843</v>
+        <v>1.024711578161196</v>
       </c>
       <c r="E25">
-        <v>0.9837435587283476</v>
+        <v>1.019793099892316</v>
       </c>
       <c r="F25">
-        <v>0.9403236770268651</v>
+        <v>1.029854701415376</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031016912211324</v>
+        <v>1.028927427011269</v>
       </c>
       <c r="J25">
-        <v>0.998804197461757</v>
+        <v>1.024228344119562</v>
       </c>
       <c r="K25">
-        <v>1.008999721213031</v>
+        <v>1.027799367876166</v>
       </c>
       <c r="L25">
-        <v>0.9965995884127079</v>
+        <v>1.022896798905173</v>
       </c>
       <c r="M25">
-        <v>0.9539248780542959</v>
+        <v>1.032926033057942</v>
       </c>
       <c r="N25">
-        <v>1.00314146155791</v>
+        <v>1.012076042975463</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020113072211601</v>
+        <v>0.981499150739215</v>
       </c>
       <c r="D2">
-        <v>1.025907549841363</v>
+        <v>1.002469044600255</v>
       </c>
       <c r="E2">
-        <v>1.021144118774766</v>
+        <v>0.990337763240155</v>
       </c>
       <c r="F2">
-        <v>1.0329127437976</v>
+        <v>0.9580192435289121</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029301764090588</v>
+        <v>1.03366600181878</v>
       </c>
       <c r="J2">
-        <v>1.025312019603458</v>
+        <v>1.004247659986787</v>
       </c>
       <c r="K2">
-        <v>1.028731747364121</v>
+        <v>1.013894088551696</v>
       </c>
       <c r="L2">
-        <v>1.023982317307763</v>
+        <v>1.001933370103035</v>
       </c>
       <c r="M2">
-        <v>1.035716606163783</v>
+        <v>0.9700961666065377</v>
       </c>
       <c r="N2">
-        <v>1.012444161774373</v>
+        <v>1.005023138109377</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021261962373333</v>
+        <v>0.9871893572509201</v>
       </c>
       <c r="D3">
-        <v>1.026774506353881</v>
+        <v>1.006741060110491</v>
       </c>
       <c r="E3">
-        <v>1.022125041220126</v>
+        <v>0.9949540370667032</v>
       </c>
       <c r="F3">
-        <v>1.035119657753549</v>
+        <v>0.969983641650119</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029569287689169</v>
+        <v>1.035466955476162</v>
       </c>
       <c r="J3">
-        <v>1.026096915882789</v>
+        <v>1.00803545188494</v>
       </c>
       <c r="K3">
-        <v>1.029405944572635</v>
+        <v>1.017288408341839</v>
       </c>
       <c r="L3">
-        <v>1.024769151726096</v>
+        <v>1.005651891692289</v>
       </c>
       <c r="M3">
-        <v>1.03772865977159</v>
+        <v>0.9810155615652674</v>
       </c>
       <c r="N3">
-        <v>1.01271042521562</v>
+        <v>1.006331261791473</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022004970882829</v>
+        <v>0.9907738300786528</v>
       </c>
       <c r="D4">
-        <v>1.02733483879364</v>
+        <v>1.009431243958006</v>
       </c>
       <c r="E4">
-        <v>1.022759758497706</v>
+        <v>0.9978682917543571</v>
       </c>
       <c r="F4">
-        <v>1.036541670074275</v>
+        <v>0.9773747713232434</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029740427995969</v>
+        <v>1.036580761398184</v>
       </c>
       <c r="J4">
-        <v>1.026603908144716</v>
+        <v>1.010416523361908</v>
       </c>
       <c r="K4">
-        <v>1.029840916129397</v>
+        <v>1.019417159377414</v>
       </c>
       <c r="L4">
-        <v>1.025277674085076</v>
+        <v>1.007992512887883</v>
       </c>
       <c r="M4">
-        <v>1.039024265715438</v>
+        <v>0.9877541571971181</v>
       </c>
       <c r="N4">
-        <v>1.012882245700216</v>
+        <v>1.007152912510622</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022317238422022</v>
+        <v>0.9922586171091481</v>
       </c>
       <c r="D5">
-        <v>1.027570249420303</v>
+        <v>1.010545367328244</v>
       </c>
       <c r="E5">
-        <v>1.023026593870859</v>
+        <v>0.9990769071852754</v>
       </c>
       <c r="F5">
-        <v>1.037138079406133</v>
+        <v>0.9804053783392364</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029811906847539</v>
+        <v>1.037037331251003</v>
       </c>
       <c r="J5">
-        <v>1.026816836778333</v>
+        <v>1.011401629404407</v>
       </c>
       <c r="K5">
-        <v>1.030023473656696</v>
+        <v>1.020296712730276</v>
       </c>
       <c r="L5">
-        <v>1.025491311806165</v>
+        <v>1.008961605657279</v>
       </c>
       <c r="M5">
-        <v>1.039567455199408</v>
+        <v>0.9905154890318959</v>
       </c>
       <c r="N5">
-        <v>1.012954367034769</v>
+        <v>1.007492678229035</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022369664122958</v>
+        <v>0.992506655127814</v>
       </c>
       <c r="D6">
-        <v>1.027609766967123</v>
+        <v>1.010731471415171</v>
       </c>
       <c r="E6">
-        <v>1.023071396759593</v>
+        <v>0.9992788936015541</v>
       </c>
       <c r="F6">
-        <v>1.037238137761716</v>
+        <v>0.9809099310347769</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029823881043001</v>
+        <v>1.037113324558544</v>
       </c>
       <c r="J6">
-        <v>1.026852576113832</v>
+        <v>1.011566123651846</v>
       </c>
       <c r="K6">
-        <v>1.030054108061013</v>
+        <v>1.020443514141989</v>
       </c>
       <c r="L6">
-        <v>1.025527174054265</v>
+        <v>1.009123467908309</v>
       </c>
       <c r="M6">
-        <v>1.039658573032217</v>
+        <v>0.9909751092293944</v>
       </c>
       <c r="N6">
-        <v>1.012966469969992</v>
+        <v>1.007549402332309</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022009143779442</v>
+        <v>0.9907937552924165</v>
       </c>
       <c r="D7">
-        <v>1.027337984961147</v>
+        <v>1.009446195922211</v>
       </c>
       <c r="E7">
-        <v>1.022763323961796</v>
+        <v>0.9978845051981085</v>
       </c>
       <c r="F7">
-        <v>1.036549644798842</v>
+        <v>0.9774155586169727</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029741384938109</v>
+        <v>1.036586907160721</v>
       </c>
       <c r="J7">
-        <v>1.026606754133681</v>
+        <v>1.010429747814372</v>
       </c>
       <c r="K7">
-        <v>1.029843356665969</v>
+        <v>1.019428971408474</v>
       </c>
       <c r="L7">
-        <v>1.025280529290542</v>
+        <v>1.008005519539737</v>
       </c>
       <c r="M7">
-        <v>1.039031529625752</v>
+        <v>0.9877913273218266</v>
       </c>
       <c r="N7">
-        <v>1.012883209828348</v>
+        <v>1.007157474352022</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020501429456914</v>
+        <v>0.9834431284259301</v>
       </c>
       <c r="D8">
-        <v>1.026200676677375</v>
+        <v>1.003928710923387</v>
       </c>
       <c r="E8">
-        <v>1.02147562805722</v>
+        <v>0.9919134854772118</v>
       </c>
       <c r="F8">
-        <v>1.033659845311436</v>
+        <v>0.9621400252172145</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029392583080773</v>
+        <v>1.034285738040346</v>
       </c>
       <c r="J8">
-        <v>1.025577463898875</v>
+        <v>1.005542760007183</v>
       </c>
       <c r="K8">
-        <v>1.028959861354714</v>
+        <v>1.015055727014643</v>
       </c>
       <c r="L8">
-        <v>1.024248359316408</v>
+        <v>1.003204119489965</v>
       </c>
       <c r="M8">
-        <v>1.036397918301791</v>
+        <v>0.9738584880609593</v>
       </c>
       <c r="N8">
-        <v>1.012534244302435</v>
+        <v>1.005470535019462</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017841461747346</v>
+        <v>0.9696829272336271</v>
       </c>
       <c r="D9">
-        <v>1.024191569295324</v>
+        <v>0.9935922915635317</v>
       </c>
       <c r="E9">
-        <v>1.019206437175363</v>
+        <v>0.9807895380526251</v>
       </c>
       <c r="F9">
-        <v>1.028520098064401</v>
+        <v>0.932138726430278</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028762807382238</v>
+        <v>1.029801151895279</v>
       </c>
       <c r="J9">
-        <v>1.023756843387069</v>
+        <v>0.9963536343064231</v>
       </c>
       <c r="K9">
-        <v>1.027393155065546</v>
+        <v>1.006790191957986</v>
       </c>
       <c r="L9">
-        <v>1.022424788849328</v>
+        <v>0.9942021757126631</v>
       </c>
       <c r="M9">
-        <v>1.031707270879455</v>
+        <v>0.9464379308426227</v>
       </c>
       <c r="N9">
-        <v>1.011915703180959</v>
+        <v>1.002293851595921</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016065843026293</v>
+        <v>0.959868386417271</v>
       </c>
       <c r="D10">
-        <v>1.022848677895947</v>
+        <v>0.9862123610992152</v>
       </c>
       <c r="E10">
-        <v>1.01769347460794</v>
+        <v>0.9728961579643655</v>
       </c>
       <c r="F10">
-        <v>1.025059466488303</v>
+        <v>0.9093558679202233</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028332647600177</v>
+        <v>1.026462721407276</v>
       </c>
       <c r="J10">
-        <v>1.022538358834727</v>
+        <v>0.9897699689832655</v>
       </c>
       <c r="K10">
-        <v>1.026341932183038</v>
+        <v>1.000835099247322</v>
       </c>
       <c r="L10">
-        <v>1.021205781171598</v>
+        <v>0.987772653635603</v>
       </c>
       <c r="M10">
-        <v>1.028544615183169</v>
+        <v>0.9255802781818395</v>
       </c>
       <c r="N10">
-        <v>1.011500877682333</v>
+        <v>1.000015685969731</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015296395024898</v>
+        <v>0.9554396018036529</v>
       </c>
       <c r="D11">
-        <v>1.022266338823768</v>
+        <v>0.9828792646628636</v>
       </c>
       <c r="E11">
-        <v>1.017038282302081</v>
+        <v>0.96934497756964</v>
       </c>
       <c r="F11">
-        <v>1.023552391969258</v>
+        <v>0.8986082623649533</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028143909028165</v>
+        <v>1.024916544997878</v>
       </c>
       <c r="J11">
-        <v>1.022009591893838</v>
+        <v>0.9867912736268537</v>
       </c>
       <c r="K11">
-        <v>1.025885113365466</v>
+        <v>0.9981314403243305</v>
       </c>
       <c r="L11">
-        <v>1.020677133480675</v>
+        <v>0.984869121161522</v>
       </c>
       <c r="M11">
-        <v>1.027166262695799</v>
+        <v>0.9157340559626695</v>
       </c>
       <c r="N11">
-        <v>1.011320661650387</v>
+        <v>0.9989847002448315</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015010495209666</v>
+        <v>0.9537648508739698</v>
       </c>
       <c r="D12">
-        <v>1.022049900914824</v>
+        <v>0.9816182327415907</v>
       </c>
       <c r="E12">
-        <v>1.016794902181066</v>
+        <v>0.9680037816596099</v>
       </c>
       <c r="F12">
-        <v>1.022991263316605</v>
+        <v>0.8944574757646425</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028073428425668</v>
+        <v>1.024325095383183</v>
       </c>
       <c r="J12">
-        <v>1.021813008418751</v>
+        <v>0.9856635764997694</v>
       </c>
       <c r="K12">
-        <v>1.025715182896988</v>
+        <v>0.9971062799570369</v>
       </c>
       <c r="L12">
-        <v>1.020480646544326</v>
+        <v>0.9837707699682884</v>
       </c>
       <c r="M12">
-        <v>1.02665290438406</v>
+        <v>0.9119305352312892</v>
       </c>
       <c r="N12">
-        <v>1.011253631487985</v>
+        <v>0.9985943691687049</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015071825934772</v>
+        <v>0.9541254858364759</v>
       </c>
       <c r="D13">
-        <v>1.02209633355786</v>
+        <v>0.9818898105901109</v>
       </c>
       <c r="E13">
-        <v>1.016847108643818</v>
+        <v>0.9682925125986332</v>
       </c>
       <c r="F13">
-        <v>1.023111688373933</v>
+        <v>0.8953555187019253</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028088563752399</v>
+        <v>1.024452776848554</v>
       </c>
       <c r="J13">
-        <v>1.02185518423901</v>
+        <v>0.9859064720722963</v>
       </c>
       <c r="K13">
-        <v>1.025751644803217</v>
+        <v>0.9973271653847574</v>
       </c>
       <c r="L13">
-        <v>1.020522799287751</v>
+        <v>0.9840073030874449</v>
       </c>
       <c r="M13">
-        <v>1.026763084429602</v>
+        <v>0.9127534806145398</v>
       </c>
       <c r="N13">
-        <v>1.011268013764834</v>
+        <v>0.9986784429909</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015272764365266</v>
+        <v>0.9553017904860743</v>
       </c>
       <c r="D14">
-        <v>1.022248450689658</v>
+        <v>0.9827755111659637</v>
       </c>
       <c r="E14">
-        <v>1.017018164693048</v>
+        <v>0.9692345790164689</v>
       </c>
       <c r="F14">
-        <v>1.023506036361868</v>
+        <v>0.8982685725869434</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028138090738538</v>
+        <v>1.024868018640408</v>
       </c>
       <c r="J14">
-        <v>1.021993345844298</v>
+        <v>0.9866985053474588</v>
       </c>
       <c r="K14">
-        <v>1.025871071925191</v>
+        <v>0.9980471405657287</v>
       </c>
       <c r="L14">
-        <v>1.020660894343568</v>
+        <v>0.9847787484237801</v>
       </c>
       <c r="M14">
-        <v>1.027123856655217</v>
+        <v>0.9154228015693927</v>
       </c>
       <c r="N14">
-        <v>1.011315122754274</v>
+        <v>0.9989525903465859</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015396556794967</v>
+        <v>0.9560225214785901</v>
       </c>
       <c r="D15">
-        <v>1.022342157613433</v>
+        <v>0.9833180988753126</v>
       </c>
       <c r="E15">
-        <v>1.017123556247852</v>
+        <v>0.9698120147634438</v>
       </c>
       <c r="F15">
-        <v>1.02374882911644</v>
+        <v>0.9000414654076803</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028168556219573</v>
+        <v>1.025121523421207</v>
       </c>
       <c r="J15">
-        <v>1.022078448391129</v>
+        <v>0.9871836148036081</v>
       </c>
       <c r="K15">
-        <v>1.02594462203283</v>
+        <v>0.9984879001190153</v>
       </c>
       <c r="L15">
-        <v>1.020745962818837</v>
+        <v>0.9852513676441707</v>
       </c>
       <c r="M15">
-        <v>1.027345956695186</v>
+        <v>0.9170472525202332</v>
       </c>
       <c r="N15">
-        <v>1.011344136223606</v>
+        <v>0.9991205010062418</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016116895963296</v>
+        <v>0.9601583106787166</v>
       </c>
       <c r="D16">
-        <v>1.022887307544253</v>
+        <v>0.986430484034331</v>
       </c>
       <c r="E16">
-        <v>1.01773695592182</v>
+        <v>0.9731288594168001</v>
       </c>
       <c r="F16">
-        <v>1.025159301313764</v>
+        <v>0.9100485032554642</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028345121157085</v>
+        <v>1.026563055854376</v>
       </c>
       <c r="J16">
-        <v>1.022573426818955</v>
+        <v>0.9899647937970055</v>
       </c>
       <c r="K16">
-        <v>1.026372215149591</v>
+        <v>1.001011727409713</v>
       </c>
       <c r="L16">
-        <v>1.02124084855173</v>
+        <v>0.9879626804473068</v>
       </c>
       <c r="M16">
-        <v>1.028635900998689</v>
+        <v>0.9262146979046347</v>
       </c>
       <c r="N16">
-        <v>1.011512825456937</v>
+        <v>1.000083115466722</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016568584426529</v>
+        <v>0.9627028284647102</v>
       </c>
       <c r="D17">
-        <v>1.02322903430362</v>
+        <v>0.9883444961528781</v>
       </c>
       <c r="E17">
-        <v>1.018121705258734</v>
+        <v>0.9751723795084498</v>
       </c>
       <c r="F17">
-        <v>1.026041721655259</v>
+        <v>0.916073235389516</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028455210801154</v>
+        <v>1.027439085409615</v>
       </c>
       <c r="J17">
-        <v>1.022883602811344</v>
+        <v>0.9916737784315948</v>
       </c>
       <c r="K17">
-        <v>1.026639994319591</v>
+        <v>1.002560022226226</v>
       </c>
       <c r="L17">
-        <v>1.02155105917879</v>
+        <v>0.9896301961885547</v>
       </c>
       <c r="M17">
-        <v>1.029442638115486</v>
+        <v>0.9317323183171405</v>
       </c>
       <c r="N17">
-        <v>1.011618480285836</v>
+        <v>1.000674574078903</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016831989647009</v>
+        <v>0.9641699432598089</v>
       </c>
       <c r="D18">
-        <v>1.02342827509306</v>
+        <v>0.9894478148567151</v>
       </c>
       <c r="E18">
-        <v>1.018346116472372</v>
+        <v>0.9763516300206753</v>
       </c>
       <c r="F18">
-        <v>1.026555595802164</v>
+        <v>0.9195043072641363</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028519185456894</v>
+        <v>1.027940509953768</v>
       </c>
       <c r="J18">
-        <v>1.02306441193229</v>
+        <v>0.9926584155905374</v>
       </c>
       <c r="K18">
-        <v>1.026796028042214</v>
+        <v>1.003451213091578</v>
       </c>
       <c r="L18">
-        <v>1.021731921842835</v>
+        <v>0.9905914446649945</v>
       </c>
       <c r="M18">
-        <v>1.029912338041099</v>
+        <v>0.9348739546748517</v>
       </c>
       <c r="N18">
-        <v>1.011680049709021</v>
+        <v>1.001015318724615</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016921794451323</v>
+        <v>0.9646673749029536</v>
       </c>
       <c r="D19">
-        <v>1.023496197103672</v>
+        <v>0.9898218597367691</v>
       </c>
       <c r="E19">
-        <v>1.018422633845311</v>
+        <v>0.9767516272456385</v>
       </c>
       <c r="F19">
-        <v>1.026730674651112</v>
+        <v>0.9206608008311854</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028540958739923</v>
+        <v>1.028109916267945</v>
       </c>
       <c r="J19">
-        <v>1.023126044363887</v>
+        <v>0.9929921405592707</v>
       </c>
       <c r="K19">
-        <v>1.026849204893157</v>
+        <v>1.003753124002498</v>
       </c>
       <c r="L19">
-        <v>1.021793578177584</v>
+        <v>0.9909173259909485</v>
       </c>
       <c r="M19">
-        <v>1.03007234953702</v>
+        <v>0.9359327775655045</v>
       </c>
       <c r="N19">
-        <v>1.01170103360083</v>
+        <v>1.001130802810339</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016520128451699</v>
+        <v>0.9624316089413765</v>
       </c>
       <c r="D20">
-        <v>1.023192378821826</v>
+        <v>0.9881405100758646</v>
       </c>
       <c r="E20">
-        <v>1.018080425990343</v>
+        <v>0.9749544566877949</v>
       </c>
       <c r="F20">
-        <v>1.025947132118013</v>
+        <v>0.9154355936637901</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028443423940326</v>
+        <v>1.027346096322589</v>
       </c>
       <c r="J20">
-        <v>1.022850335390929</v>
+        <v>0.9914916944083182</v>
       </c>
       <c r="K20">
-        <v>1.026611280440189</v>
+        <v>1.002395149854683</v>
       </c>
       <c r="L20">
-        <v>1.02151778459162</v>
+        <v>0.989452477650825</v>
       </c>
       <c r="M20">
-        <v>1.029356171700485</v>
+        <v>0.9311484133633956</v>
       </c>
       <c r="N20">
-        <v>1.011607150449321</v>
+        <v>1.000611559582554</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015213595588735</v>
+        <v>0.9549562433177304</v>
       </c>
       <c r="D21">
-        <v>1.022203659627649</v>
+        <v>0.9825153496597954</v>
       </c>
       <c r="E21">
-        <v>1.016967793312679</v>
+        <v>0.9689577938462715</v>
       </c>
       <c r="F21">
-        <v>1.023389947878611</v>
+        <v>0.8974153794258323</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028123516640202</v>
+        <v>1.024746232072047</v>
       </c>
       <c r="J21">
-        <v>1.021952665569619</v>
+        <v>0.9864658773711305</v>
       </c>
       <c r="K21">
-        <v>1.025835910469215</v>
+        <v>0.9978357221771985</v>
       </c>
       <c r="L21">
-        <v>1.020620232221461</v>
+        <v>0.9845521421717178</v>
       </c>
       <c r="M21">
-        <v>1.027017656554228</v>
+        <v>0.9146410161086119</v>
       </c>
       <c r="N21">
-        <v>1.011301252818398</v>
+        <v>0.9988720706839568</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014391589228909</v>
+        <v>0.9500825017250327</v>
       </c>
       <c r="D22">
-        <v>1.021581252084589</v>
+        <v>0.9788441219776958</v>
       </c>
       <c r="E22">
-        <v>1.016268163458277</v>
+        <v>0.9650580342824789</v>
       </c>
       <c r="F22">
-        <v>1.021774404613471</v>
+        <v>0.8851480155414608</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027920209029932</v>
+        <v>1.023011039173276</v>
       </c>
       <c r="J22">
-        <v>1.021387246087505</v>
+        <v>0.9831814691544417</v>
       </c>
       <c r="K22">
-        <v>1.025346970734335</v>
+        <v>0.9948466626580679</v>
       </c>
       <c r="L22">
-        <v>1.02005518900257</v>
+        <v>0.9813550008055689</v>
       </c>
       <c r="M22">
-        <v>1.025539353315115</v>
+        <v>0.9033985799834212</v>
       </c>
       <c r="N22">
-        <v>1.011108402331057</v>
+        <v>0.9977352443940644</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01482740243391</v>
+        <v>0.952683718166175</v>
       </c>
       <c r="D23">
-        <v>1.021911274972762</v>
+        <v>0.980803971059109</v>
       </c>
       <c r="E23">
-        <v>1.016639058154675</v>
+        <v>0.9671384605318563</v>
       </c>
       <c r="F23">
-        <v>1.022631582648994</v>
+        <v>0.8917510013822223</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028028192742783</v>
+        <v>1.023941256087966</v>
       </c>
       <c r="J23">
-        <v>1.021687083021345</v>
+        <v>0.984935206414007</v>
       </c>
       <c r="K23">
-        <v>1.025606303655856</v>
+        <v>0.996443660737719</v>
       </c>
       <c r="L23">
-        <v>1.02035479770663</v>
+        <v>0.9830616165057114</v>
       </c>
       <c r="M23">
-        <v>1.026323800163769</v>
+        <v>0.9094502769160334</v>
       </c>
       <c r="N23">
-        <v>1.01121068559295</v>
+        <v>0.9983422577175672</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.016542023797562</v>
+        <v>0.9625542138827681</v>
       </c>
       <c r="D24">
-        <v>1.023208942111959</v>
+        <v>0.9882327228944077</v>
       </c>
       <c r="E24">
-        <v>1.018099078335575</v>
+        <v>0.9750529657241003</v>
       </c>
       <c r="F24">
-        <v>1.025989875611128</v>
+        <v>0.9157239712876155</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028448750653203</v>
+        <v>1.027388143450441</v>
       </c>
       <c r="J24">
-        <v>1.022865367850418</v>
+        <v>0.991574007844928</v>
       </c>
       <c r="K24">
-        <v>1.02662425549274</v>
+        <v>1.002469685213605</v>
       </c>
       <c r="L24">
-        <v>1.021532820186447</v>
+        <v>0.9895328160538259</v>
       </c>
       <c r="M24">
-        <v>1.029395244795513</v>
+        <v>0.9314124901804229</v>
       </c>
       <c r="N24">
-        <v>1.011612270091779</v>
+        <v>1.000640046183519</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018529521387344</v>
+        <v>0.9733452487407114</v>
       </c>
       <c r="D25">
-        <v>1.024711578161196</v>
+        <v>0.9963443903017845</v>
       </c>
       <c r="E25">
-        <v>1.019793099892316</v>
+        <v>0.9837435587283483</v>
       </c>
       <c r="F25">
-        <v>1.029854701415376</v>
+        <v>0.940323677026864</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028927427011269</v>
+        <v>1.031016912211324</v>
       </c>
       <c r="J25">
-        <v>1.024228344119562</v>
+        <v>0.9988041974617573</v>
       </c>
       <c r="K25">
-        <v>1.027799367876166</v>
+        <v>1.008999721213031</v>
       </c>
       <c r="L25">
-        <v>1.022896798905173</v>
+        <v>0.9965995884127085</v>
       </c>
       <c r="M25">
-        <v>1.032926033057942</v>
+        <v>0.9539248780542948</v>
       </c>
       <c r="N25">
-        <v>1.012076042975463</v>
+        <v>1.00314146155791</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.981499150739215</v>
+        <v>1.004408682026641</v>
       </c>
       <c r="D2">
-        <v>1.002469044600255</v>
+        <v>1.022921906317135</v>
       </c>
       <c r="E2">
-        <v>0.990337763240155</v>
+        <v>1.020397224584104</v>
       </c>
       <c r="F2">
-        <v>0.9580192435289121</v>
+        <v>1.032291784951119</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03366600181878</v>
+        <v>1.045271822799779</v>
       </c>
       <c r="J2">
-        <v>1.004247659986787</v>
+        <v>1.026458325041799</v>
       </c>
       <c r="K2">
-        <v>1.013894088551696</v>
+        <v>1.034070878300866</v>
       </c>
       <c r="L2">
-        <v>1.001933370103035</v>
+        <v>1.031579523300718</v>
       </c>
       <c r="M2">
-        <v>0.9700961666065377</v>
+        <v>1.043318853649162</v>
       </c>
       <c r="N2">
-        <v>1.005023138109377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012314831224607</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042856353700026</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035161296726893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9871893572509201</v>
+        <v>1.008763179269631</v>
       </c>
       <c r="D3">
-        <v>1.006741060110491</v>
+        <v>1.025737408319016</v>
       </c>
       <c r="E3">
-        <v>0.9949540370667032</v>
+        <v>1.023788904583442</v>
       </c>
       <c r="F3">
-        <v>0.969983641650119</v>
+        <v>1.035412937509961</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035466955476162</v>
+        <v>1.04608259046149</v>
       </c>
       <c r="J3">
-        <v>1.00803545188494</v>
+        <v>1.029017768814644</v>
       </c>
       <c r="K3">
-        <v>1.017288408341839</v>
+        <v>1.036051233650858</v>
       </c>
       <c r="L3">
-        <v>1.005651891692289</v>
+        <v>1.03412618768214</v>
       </c>
       <c r="M3">
-        <v>0.9810155615652674</v>
+        <v>1.045611899282788</v>
       </c>
       <c r="N3">
-        <v>1.006331261791473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013214359141418</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044671137407363</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036558917783507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9907738300786528</v>
+        <v>1.011527143506886</v>
       </c>
       <c r="D4">
-        <v>1.009431243958006</v>
+        <v>1.027527771440333</v>
       </c>
       <c r="E4">
-        <v>0.9978682917543571</v>
+        <v>1.025948029359261</v>
       </c>
       <c r="F4">
-        <v>0.9773747713232434</v>
+        <v>1.037402095384275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036580761398184</v>
+        <v>1.046587374411432</v>
       </c>
       <c r="J4">
-        <v>1.010416523361908</v>
+        <v>1.030640510386131</v>
       </c>
       <c r="K4">
-        <v>1.019417159377414</v>
+        <v>1.037304935835905</v>
       </c>
       <c r="L4">
-        <v>1.007992512887883</v>
+        <v>1.035743055032655</v>
       </c>
       <c r="M4">
-        <v>0.9877541571971181</v>
+        <v>1.04706913151351</v>
       </c>
       <c r="N4">
-        <v>1.007152912510622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013784199411973</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045824431482366</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037446299890032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9922586171091481</v>
+        <v>1.012680916065687</v>
       </c>
       <c r="D5">
-        <v>1.010545367328244</v>
+        <v>1.02827815178886</v>
       </c>
       <c r="E5">
-        <v>0.9990769071852754</v>
+        <v>1.02685101777767</v>
       </c>
       <c r="F5">
-        <v>0.9804053783392364</v>
+        <v>1.038233779794669</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037037331251003</v>
+        <v>1.046797328502867</v>
       </c>
       <c r="J5">
-        <v>1.011401629404407</v>
+        <v>1.031319064506315</v>
       </c>
       <c r="K5">
-        <v>1.020296712730276</v>
+        <v>1.037830501728737</v>
       </c>
       <c r="L5">
-        <v>1.008961605657279</v>
+        <v>1.036419070279193</v>
       </c>
       <c r="M5">
-        <v>0.9905154890318959</v>
+        <v>1.047678061188144</v>
       </c>
       <c r="N5">
-        <v>1.007492678229035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01402293143907</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046306354808707</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037825113854185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.992506655127814</v>
+        <v>1.012879064535248</v>
       </c>
       <c r="D6">
-        <v>1.010731471415171</v>
+        <v>1.028409847509354</v>
       </c>
       <c r="E6">
-        <v>0.9992788936015541</v>
+        <v>1.027006460477154</v>
       </c>
       <c r="F6">
-        <v>0.9809099310347769</v>
+        <v>1.038376070868348</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037113324558544</v>
+        <v>1.046835248615432</v>
       </c>
       <c r="J6">
-        <v>1.011566123651846</v>
+        <v>1.031437566365514</v>
       </c>
       <c r="K6">
-        <v>1.020443514141989</v>
+        <v>1.03792443227717</v>
       </c>
       <c r="L6">
-        <v>1.009123467908309</v>
+        <v>1.036536415153721</v>
       </c>
       <c r="M6">
-        <v>0.9909751092293944</v>
+        <v>1.047782969447245</v>
       </c>
       <c r="N6">
-        <v>1.007549402332309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014065314039315</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046389381995398</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037900300650091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9907937552924165</v>
+        <v>1.011556472863928</v>
       </c>
       <c r="D7">
-        <v>1.009446195922211</v>
+        <v>1.027554307513072</v>
       </c>
       <c r="E7">
-        <v>0.9978845051981085</v>
+        <v>1.025971742230852</v>
       </c>
       <c r="F7">
-        <v>0.9774155586169727</v>
+        <v>1.037421486756053</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036586907160721</v>
+        <v>1.046598120386394</v>
       </c>
       <c r="J7">
-        <v>1.010429747814372</v>
+        <v>1.03066312809233</v>
       </c>
       <c r="K7">
-        <v>1.019428971408474</v>
+        <v>1.037328278690367</v>
       </c>
       <c r="L7">
-        <v>1.008005519539737</v>
+        <v>1.035763599556229</v>
       </c>
       <c r="M7">
-        <v>0.9877913273218266</v>
+        <v>1.047085452048859</v>
       </c>
       <c r="N7">
-        <v>1.007157474352022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013794065108765</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045837347997226</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037482979286478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9834431284259301</v>
+        <v>1.005909183771398</v>
       </c>
       <c r="D8">
-        <v>1.003928710923387</v>
+        <v>1.023900673555259</v>
       </c>
       <c r="E8">
-        <v>0.9919134854772118</v>
+        <v>1.021565679678736</v>
       </c>
       <c r="F8">
-        <v>0.9621400252172145</v>
+        <v>1.033363485782184</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034285738040346</v>
+        <v>1.045559952700463</v>
       </c>
       <c r="J8">
-        <v>1.005542760007183</v>
+        <v>1.027347350843114</v>
       </c>
       <c r="K8">
-        <v>1.015055727014643</v>
+        <v>1.034766342150238</v>
       </c>
       <c r="L8">
-        <v>1.003204119489965</v>
+        <v>1.032461243702791</v>
       </c>
       <c r="M8">
-        <v>0.9738584880609593</v>
+        <v>1.044109724110925</v>
       </c>
       <c r="N8">
-        <v>1.005470535019462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012629904771113</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043482272337496</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035676055557817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9696829272336271</v>
+        <v>0.9955037023438724</v>
       </c>
       <c r="D9">
-        <v>0.9935922915635317</v>
+        <v>1.017185177746426</v>
       </c>
       <c r="E9">
-        <v>0.9807895380526251</v>
+        <v>1.013498226603388</v>
       </c>
       <c r="F9">
-        <v>0.932138726430278</v>
+        <v>1.025955806309003</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029801151895279</v>
+        <v>1.043562082407596</v>
       </c>
       <c r="J9">
-        <v>0.9963536343064231</v>
+        <v>1.021216241721828</v>
       </c>
       <c r="K9">
-        <v>1.006790191957986</v>
+        <v>1.03000545747046</v>
       </c>
       <c r="L9">
-        <v>0.9942021757126631</v>
+        <v>1.026376035864816</v>
       </c>
       <c r="M9">
-        <v>0.9464379308426227</v>
+        <v>1.038641351298822</v>
       </c>
       <c r="N9">
-        <v>1.002293851595921</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010470468044999</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039154426789717</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032306562917043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.959868386417271</v>
+        <v>0.9883380536387661</v>
       </c>
       <c r="D10">
-        <v>0.9862123610992152</v>
+        <v>1.012596166080298</v>
       </c>
       <c r="E10">
-        <v>0.9728961579643655</v>
+        <v>1.00802851412543</v>
       </c>
       <c r="F10">
-        <v>0.9093558679202233</v>
+        <v>1.021009649954187</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026462721407276</v>
+        <v>1.042162678561158</v>
       </c>
       <c r="J10">
-        <v>0.9897699689832655</v>
+        <v>1.017022129286068</v>
       </c>
       <c r="K10">
-        <v>1.000835099247322</v>
+        <v>1.026741657212347</v>
       </c>
       <c r="L10">
-        <v>0.987772653635603</v>
+        <v>1.022254308663113</v>
       </c>
       <c r="M10">
-        <v>0.9255802781818395</v>
+        <v>1.035009654438034</v>
       </c>
       <c r="N10">
-        <v>1.000015685969731</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009000699438783</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036331743777587</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.030015740758434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9554396018036529</v>
+        <v>0.9858852130199803</v>
       </c>
       <c r="D11">
-        <v>0.9828792646628636</v>
+        <v>1.01112400428295</v>
       </c>
       <c r="E11">
-        <v>0.96934497756964</v>
+        <v>1.006544824127013</v>
       </c>
       <c r="F11">
-        <v>0.8986082623649533</v>
+        <v>1.020181346954925</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024916544997878</v>
+        <v>1.041867426679721</v>
       </c>
       <c r="J11">
-        <v>0.9867912736268537</v>
+        <v>1.015857205279121</v>
       </c>
       <c r="K11">
-        <v>0.9981314403243305</v>
+        <v>1.025839143618146</v>
       </c>
       <c r="L11">
-        <v>0.984869121161522</v>
+        <v>1.021344361170124</v>
       </c>
       <c r="M11">
-        <v>0.9157340559626695</v>
+        <v>1.034732450758378</v>
       </c>
       <c r="N11">
-        <v>0.9989847002448315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008669546009854</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036549549122663</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.029410702555238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9537648508739698</v>
+        <v>0.9852326985830849</v>
       </c>
       <c r="D12">
-        <v>0.9816182327415907</v>
+        <v>1.010774019722684</v>
       </c>
       <c r="E12">
-        <v>0.9680037816596099</v>
+        <v>1.006328153195057</v>
       </c>
       <c r="F12">
-        <v>0.8944574757646425</v>
+        <v>1.02036299783962</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024325095383183</v>
+        <v>1.041878277611205</v>
       </c>
       <c r="J12">
-        <v>0.9856635764997694</v>
+        <v>1.015675458373041</v>
       </c>
       <c r="K12">
-        <v>0.9971062799570369</v>
+        <v>1.025697677067058</v>
       </c>
       <c r="L12">
-        <v>0.9837707699682884</v>
+        <v>1.021335111773658</v>
       </c>
       <c r="M12">
-        <v>0.9119305352312892</v>
+        <v>1.03511020378369</v>
       </c>
       <c r="N12">
-        <v>0.9985943691687049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008668050678124</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037175280407822</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.029310679713972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9541254858364759</v>
+        <v>0.9859403317159573</v>
       </c>
       <c r="D13">
-        <v>0.9818898105901109</v>
+        <v>1.011283370187266</v>
       </c>
       <c r="E13">
-        <v>0.9682925125986332</v>
+        <v>1.007088593800866</v>
       </c>
       <c r="F13">
-        <v>0.8953555187019253</v>
+        <v>1.021358387846445</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024452776848554</v>
+        <v>1.042139507174755</v>
       </c>
       <c r="J13">
-        <v>0.9859064720722963</v>
+        <v>1.016257029266502</v>
       </c>
       <c r="K13">
-        <v>0.9973271653847574</v>
+        <v>1.026154225863802</v>
       </c>
       <c r="L13">
-        <v>0.9840073030874449</v>
+        <v>1.022037653953348</v>
       </c>
       <c r="M13">
-        <v>0.9127534806145398</v>
+        <v>1.036044823908855</v>
       </c>
       <c r="N13">
-        <v>0.9986784429909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.00892912487582</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038191247042002</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.029630968126421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9553017904860743</v>
+        <v>0.9870498191209691</v>
       </c>
       <c r="D14">
-        <v>0.9827755111659637</v>
+        <v>1.01202925767324</v>
       </c>
       <c r="E14">
-        <v>0.9692345790164689</v>
+        <v>1.008059426662347</v>
       </c>
       <c r="F14">
-        <v>0.8982685725869434</v>
+        <v>1.022418978295133</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024868018640408</v>
+        <v>1.042435051554648</v>
       </c>
       <c r="J14">
-        <v>0.9866985053474588</v>
+        <v>1.017007883896752</v>
       </c>
       <c r="K14">
-        <v>0.9980471405657287</v>
+        <v>1.026744506403329</v>
       </c>
       <c r="L14">
-        <v>0.9847787484237801</v>
+        <v>1.022847709478433</v>
       </c>
       <c r="M14">
-        <v>0.9154228015693927</v>
+        <v>1.03694656932652</v>
       </c>
       <c r="N14">
-        <v>0.9989525903465859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009230309255277</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039077495466186</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.030049756466304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9560225214785901</v>
+        <v>0.9876235071197917</v>
       </c>
       <c r="D15">
-        <v>0.9833180988753126</v>
+        <v>1.012405802212807</v>
       </c>
       <c r="E15">
-        <v>0.9698120147634438</v>
+        <v>1.008521281489253</v>
       </c>
       <c r="F15">
-        <v>0.9000414654076803</v>
+        <v>1.022875167429209</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025121523421207</v>
+        <v>1.042566296263365</v>
       </c>
       <c r="J15">
-        <v>0.9871836148036081</v>
+        <v>1.017366116544267</v>
       </c>
       <c r="K15">
-        <v>0.9984879001190153</v>
+        <v>1.027026845510494</v>
       </c>
       <c r="L15">
-        <v>0.9852513676441707</v>
+        <v>1.023213223579097</v>
       </c>
       <c r="M15">
-        <v>0.9170472525202332</v>
+        <v>1.037308605563045</v>
       </c>
       <c r="N15">
-        <v>0.9991205010062418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009364599697267</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039401201377201</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.030255293682847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9601583106787166</v>
+        <v>0.9905195551607731</v>
       </c>
       <c r="D16">
-        <v>0.986430484034331</v>
+        <v>1.014248863202036</v>
       </c>
       <c r="E16">
-        <v>0.9731288594168001</v>
+        <v>1.010693551638893</v>
       </c>
       <c r="F16">
-        <v>0.9100485032554642</v>
+        <v>1.024813051005725</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026563055854376</v>
+        <v>1.04312261929607</v>
       </c>
       <c r="J16">
-        <v>0.9899647937970055</v>
+        <v>1.019036422443797</v>
       </c>
       <c r="K16">
-        <v>1.001011727409713</v>
+        <v>1.028329592568484</v>
       </c>
       <c r="L16">
-        <v>0.9879626804473068</v>
+        <v>1.024836259447904</v>
       </c>
       <c r="M16">
-        <v>0.9262146979046347</v>
+        <v>1.038712892526513</v>
       </c>
       <c r="N16">
-        <v>1.000083115466722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009938818248561</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040472420435006</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.03117957864606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9627028284647102</v>
+        <v>0.9921629753844902</v>
       </c>
       <c r="D17">
-        <v>0.9883444961528781</v>
+        <v>1.015275159144528</v>
       </c>
       <c r="E17">
-        <v>0.9751723795084498</v>
+        <v>1.011854251512992</v>
       </c>
       <c r="F17">
-        <v>0.916073235389516</v>
+        <v>1.025740161721085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027439085409615</v>
+        <v>1.043392833011719</v>
       </c>
       <c r="J17">
-        <v>0.9916737784315948</v>
+        <v>1.019925686270996</v>
       </c>
       <c r="K17">
-        <v>1.002560022226226</v>
+        <v>1.029020557448456</v>
       </c>
       <c r="L17">
-        <v>0.9896301961885547</v>
+        <v>1.025657576910897</v>
       </c>
       <c r="M17">
-        <v>0.9317323183171405</v>
+        <v>1.039311438661072</v>
       </c>
       <c r="N17">
-        <v>1.000674574078903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010221872210235</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040816472770171</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031670724637164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9641699432598089</v>
+        <v>0.9928632330824354</v>
       </c>
       <c r="D18">
-        <v>0.9894478148567151</v>
+        <v>1.015672752762057</v>
       </c>
       <c r="E18">
-        <v>0.9763516300206753</v>
+        <v>1.012211929448362</v>
       </c>
       <c r="F18">
-        <v>0.9195043072641363</v>
+        <v>1.025816162368055</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027940509953768</v>
+        <v>1.043429537104789</v>
       </c>
       <c r="J18">
-        <v>0.9926584155905374</v>
+        <v>1.020198596843782</v>
       </c>
       <c r="K18">
-        <v>1.003451213091578</v>
+        <v>1.029226328911668</v>
       </c>
       <c r="L18">
-        <v>0.9905914446649945</v>
+        <v>1.025823146678991</v>
       </c>
       <c r="M18">
-        <v>0.9348739546748517</v>
+        <v>1.039203673132543</v>
       </c>
       <c r="N18">
-        <v>1.001015318724615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01026902699613</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040493536341363</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.031804505550469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9646673749029536</v>
+        <v>0.99272988068813</v>
       </c>
       <c r="D19">
-        <v>0.9898218597367691</v>
+        <v>1.015527771889317</v>
       </c>
       <c r="E19">
-        <v>0.9767516272456385</v>
+        <v>1.011850899059611</v>
       </c>
       <c r="F19">
-        <v>0.9206608008311854</v>
+        <v>1.025119824614892</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028109916267945</v>
+        <v>1.043270028150287</v>
       </c>
       <c r="J19">
-        <v>0.9929921405592707</v>
+        <v>1.019934134369092</v>
       </c>
       <c r="K19">
-        <v>1.003753124002498</v>
+        <v>1.029020616785847</v>
       </c>
       <c r="L19">
-        <v>0.9909173259909485</v>
+        <v>1.025404695121337</v>
       </c>
       <c r="M19">
-        <v>0.9359327775655045</v>
+        <v>1.038456304049736</v>
       </c>
       <c r="N19">
-        <v>1.001130802810339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010117870819649</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039576901181893</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.031665493629696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9624316089413765</v>
+        <v>0.990236411147968</v>
       </c>
       <c r="D20">
-        <v>0.9881405100758646</v>
+        <v>1.013829439165588</v>
       </c>
       <c r="E20">
-        <v>0.9749544566877949</v>
+        <v>1.009479783705347</v>
       </c>
       <c r="F20">
-        <v>0.9154355936637901</v>
+        <v>1.022318232837652</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027346096322589</v>
+        <v>1.042551550480481</v>
       </c>
       <c r="J20">
-        <v>0.9914916944083182</v>
+        <v>1.018148961151361</v>
       </c>
       <c r="K20">
-        <v>1.002395149854683</v>
+        <v>1.027633396603218</v>
       </c>
       <c r="L20">
-        <v>0.989452477650825</v>
+        <v>1.023357965811468</v>
       </c>
       <c r="M20">
-        <v>0.9311484133633956</v>
+        <v>1.035979675876434</v>
       </c>
       <c r="N20">
-        <v>1.000611559582554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009401963064587</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.037088839225268</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.030688615428563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9549562433177304</v>
+        <v>0.9847049366176107</v>
       </c>
       <c r="D21">
-        <v>0.9825153496597954</v>
+        <v>1.010275946878177</v>
       </c>
       <c r="E21">
-        <v>0.9689577938462715</v>
+        <v>1.005198294092268</v>
       </c>
       <c r="F21">
-        <v>0.8974153794258323</v>
+        <v>1.018352584182666</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024746232072047</v>
+        <v>1.041416656928657</v>
       </c>
       <c r="J21">
-        <v>0.9864658773711305</v>
+        <v>1.014856355377441</v>
       </c>
       <c r="K21">
-        <v>0.9978357221771985</v>
+        <v>1.025065218911765</v>
       </c>
       <c r="L21">
-        <v>0.9845521421717178</v>
+        <v>1.020081847937165</v>
       </c>
       <c r="M21">
-        <v>0.9146410161086119</v>
+        <v>1.032994407879946</v>
       </c>
       <c r="N21">
-        <v>0.9988720706839568</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00823315409784</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.034685227327238</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028876053885644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9500825017250327</v>
+        <v>0.9811780059799031</v>
       </c>
       <c r="D22">
-        <v>0.9788441219776958</v>
+        <v>1.0080139932715</v>
       </c>
       <c r="E22">
-        <v>0.9650580342824789</v>
+        <v>1.002500130434933</v>
       </c>
       <c r="F22">
-        <v>0.8851480155414608</v>
+        <v>1.015891149328426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023011039173276</v>
+        <v>1.04068961443236</v>
       </c>
       <c r="J22">
-        <v>0.9831814691544417</v>
+        <v>1.012767135484508</v>
       </c>
       <c r="K22">
-        <v>0.9948466626580679</v>
+        <v>1.023428345749624</v>
       </c>
       <c r="L22">
-        <v>0.9813550008055689</v>
+        <v>1.018022221423831</v>
       </c>
       <c r="M22">
-        <v>0.9033985799834212</v>
+        <v>1.031154238619777</v>
       </c>
       <c r="N22">
-        <v>0.9977352443940644</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007492973766485</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03322884335752</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027705084143154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,81 +1546,105 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.952683718166175</v>
+        <v>0.9830416180457915</v>
       </c>
       <c r="D23">
-        <v>0.980803971059109</v>
+        <v>1.009201792890638</v>
       </c>
       <c r="E23">
-        <v>0.9671384605318563</v>
+        <v>1.003923797886794</v>
       </c>
       <c r="F23">
-        <v>0.8917510013822223</v>
+        <v>1.017191894873757</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023941256087966</v>
+        <v>1.04106977593429</v>
       </c>
       <c r="J23">
-        <v>0.984935206414007</v>
+        <v>1.013866134647495</v>
       </c>
       <c r="K23">
-        <v>0.996443660737719</v>
+        <v>1.024284497190833</v>
       </c>
       <c r="L23">
-        <v>0.9830616165057114</v>
+        <v>1.019106902797086</v>
       </c>
       <c r="M23">
-        <v>0.9094502769160334</v>
+        <v>1.032125192207669</v>
       </c>
       <c r="N23">
-        <v>0.9983422577175672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007880160791409</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033997295457266</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028300711874514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9625542138827681</v>
+        <v>0.9902370373972691</v>
       </c>
       <c r="D24">
-        <v>0.9882327228944077</v>
+        <v>1.013811164862493</v>
       </c>
       <c r="E24">
-        <v>0.9750529657241003</v>
+        <v>1.009441629470296</v>
       </c>
       <c r="F24">
-        <v>0.9157239712876155</v>
+        <v>1.022236342765418</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027388143450441</v>
+        <v>1.042526174563851</v>
       </c>
       <c r="J24">
-        <v>0.991574007844928</v>
+        <v>1.018116154148293</v>
       </c>
       <c r="K24">
-        <v>1.002469685213605</v>
+        <v>1.027600005672979</v>
       </c>
       <c r="L24">
-        <v>0.9895328160538259</v>
+        <v>1.02330494374254</v>
       </c>
       <c r="M24">
-        <v>0.9314124901804229</v>
+        <v>1.035883900760237</v>
       </c>
       <c r="N24">
-        <v>1.000640046183519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009380452753393</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036972082157368</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.030637409131735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9733452487407114</v>
+        <v>0.9982706739040927</v>
       </c>
       <c r="D25">
-        <v>0.9963443903017845</v>
+        <v>1.018978922612751</v>
       </c>
       <c r="E25">
-        <v>0.9837435587283483</v>
+        <v>1.015638562802866</v>
       </c>
       <c r="F25">
-        <v>0.940323677026864</v>
+        <v>1.027914895862229</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031016912211324</v>
+        <v>1.044110470439521</v>
       </c>
       <c r="J25">
-        <v>0.9988041974617573</v>
+        <v>1.022856377256937</v>
       </c>
       <c r="K25">
-        <v>1.008999721213031</v>
+        <v>1.031289589852711</v>
       </c>
       <c r="L25">
-        <v>0.9965995884127085</v>
+        <v>1.027998865676604</v>
       </c>
       <c r="M25">
-        <v>0.9539248780542948</v>
+        <v>1.040094790481508</v>
       </c>
       <c r="N25">
-        <v>1.00314146155791</v>
+        <v>1.011051934791606</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.040304727684082</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033243282822606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004408682026641</v>
+        <v>1.00447228459273</v>
       </c>
       <c r="D2">
-        <v>1.022921906317135</v>
+        <v>1.022596113616664</v>
       </c>
       <c r="E2">
-        <v>1.020397224584104</v>
+        <v>1.020464814476225</v>
       </c>
       <c r="F2">
-        <v>1.032291784951119</v>
+        <v>1.032324857526026</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045271822799779</v>
+        <v>1.045173857537692</v>
       </c>
       <c r="J2">
-        <v>1.026458325041799</v>
+        <v>1.02652004829654</v>
       </c>
       <c r="K2">
-        <v>1.034070878300866</v>
+        <v>1.033749374589132</v>
       </c>
       <c r="L2">
-        <v>1.031579523300718</v>
+        <v>1.031646218286062</v>
       </c>
       <c r="M2">
-        <v>1.043318853649162</v>
+        <v>1.043351500847174</v>
       </c>
       <c r="N2">
-        <v>1.012314831224607</v>
+        <v>1.01394415423678</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042856353700026</v>
+        <v>1.042882191683763</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035161296726893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034942777326843</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020988411743482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008763179269631</v>
+        <v>1.008584916292159</v>
       </c>
       <c r="D3">
-        <v>1.025737408319016</v>
+        <v>1.025149602899723</v>
       </c>
       <c r="E3">
-        <v>1.023788904583442</v>
+        <v>1.023665543355394</v>
       </c>
       <c r="F3">
-        <v>1.035412937509961</v>
+        <v>1.035312105962392</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04608259046149</v>
+        <v>1.045870767365186</v>
       </c>
       <c r="J3">
-        <v>1.029017768814644</v>
+        <v>1.028844252636618</v>
       </c>
       <c r="K3">
-        <v>1.036051233650858</v>
+        <v>1.035470493082961</v>
       </c>
       <c r="L3">
-        <v>1.03412618768214</v>
+        <v>1.034004315314575</v>
       </c>
       <c r="M3">
-        <v>1.045611899282788</v>
+        <v>1.045512251060041</v>
       </c>
       <c r="N3">
-        <v>1.013214359141418</v>
+        <v>1.014591459823937</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044671137407363</v>
+        <v>1.044592272968957</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036558917783507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036156813609224</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021354765814501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011527143506886</v>
+        <v>1.011197450534422</v>
       </c>
       <c r="D4">
-        <v>1.027527771440333</v>
+        <v>1.02677500111182</v>
       </c>
       <c r="E4">
-        <v>1.025948029359261</v>
+        <v>1.025705019430591</v>
       </c>
       <c r="F4">
-        <v>1.037402095384275</v>
+        <v>1.037217472723304</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046587374411432</v>
+        <v>1.04630383732236</v>
       </c>
       <c r="J4">
-        <v>1.030640510386131</v>
+        <v>1.030318997614307</v>
       </c>
       <c r="K4">
-        <v>1.037304935835905</v>
+        <v>1.036560668220862</v>
       </c>
       <c r="L4">
-        <v>1.035743055032655</v>
+        <v>1.035502798702967</v>
       </c>
       <c r="M4">
-        <v>1.04706913151351</v>
+        <v>1.046886544304001</v>
       </c>
       <c r="N4">
-        <v>1.013784199411973</v>
+        <v>1.015001958730087</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045824431482366</v>
+        <v>1.045679926991112</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037446299890032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036928647007302</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021584328989396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012680916065687</v>
+        <v>1.012288378819446</v>
       </c>
       <c r="D5">
-        <v>1.02827815178886</v>
+        <v>1.027456792018483</v>
       </c>
       <c r="E5">
-        <v>1.02685101777767</v>
+        <v>1.026558322185649</v>
       </c>
       <c r="F5">
-        <v>1.038233779794669</v>
+        <v>1.038014388050459</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046797328502867</v>
+        <v>1.046483938517591</v>
       </c>
       <c r="J5">
-        <v>1.031319064506315</v>
+        <v>1.030935973424592</v>
       </c>
       <c r="K5">
-        <v>1.037830501728737</v>
+        <v>1.037018172721525</v>
       </c>
       <c r="L5">
-        <v>1.036419070279193</v>
+        <v>1.03612960180771</v>
       </c>
       <c r="M5">
-        <v>1.047678061188144</v>
+        <v>1.047461023572275</v>
       </c>
       <c r="N5">
-        <v>1.01402293143907</v>
+        <v>1.015174069205522</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046306354808707</v>
+        <v>1.046134585436829</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037825113854185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037260045666532</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021680602467846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012879064535248</v>
+        <v>1.012475629015804</v>
       </c>
       <c r="D6">
-        <v>1.028409847509354</v>
+        <v>1.027576677496583</v>
       </c>
       <c r="E6">
-        <v>1.027006460477154</v>
+        <v>1.026705131406135</v>
       </c>
       <c r="F6">
-        <v>1.038376070868348</v>
+        <v>1.038150640142107</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046835248615432</v>
+        <v>1.046516681147627</v>
       </c>
       <c r="J6">
-        <v>1.031437566365514</v>
+        <v>1.031043788919109</v>
       </c>
       <c r="K6">
-        <v>1.03792443227717</v>
+        <v>1.037100380932341</v>
       </c>
       <c r="L6">
-        <v>1.036536415153721</v>
+        <v>1.036238392972257</v>
       </c>
       <c r="M6">
-        <v>1.047782969447245</v>
+        <v>1.04755994653307</v>
       </c>
       <c r="N6">
-        <v>1.014065314039315</v>
+        <v>1.015204667533397</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046389381995398</v>
+        <v>1.046212875717761</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037900300650091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037327812533291</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021698523005178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011556472863928</v>
+        <v>1.01123538393177</v>
       </c>
       <c r="D7">
-        <v>1.027554307513072</v>
+        <v>1.026807275238983</v>
       </c>
       <c r="E7">
-        <v>1.025971742230852</v>
+        <v>1.025735810183783</v>
       </c>
       <c r="F7">
-        <v>1.037421486756053</v>
+        <v>1.0372418471944</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046598120386394</v>
+        <v>1.04631740439305</v>
       </c>
       <c r="J7">
-        <v>1.03066312809233</v>
+        <v>1.030350002259938</v>
       </c>
       <c r="K7">
-        <v>1.037328278690367</v>
+        <v>1.036589680906374</v>
       </c>
       <c r="L7">
-        <v>1.035763599556229</v>
+        <v>1.035530339839683</v>
       </c>
       <c r="M7">
-        <v>1.047085452048859</v>
+        <v>1.046907792238623</v>
       </c>
       <c r="N7">
-        <v>1.013794065108765</v>
+        <v>1.01503842436819</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045837347997226</v>
+        <v>1.045696743186824</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037482979286478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036971334168146</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021593029153712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005909183771398</v>
+        <v>1.005921197974271</v>
       </c>
       <c r="D8">
-        <v>1.023900673555259</v>
+        <v>1.0235078825475</v>
       </c>
       <c r="E8">
-        <v>1.021565679678736</v>
+        <v>1.02159363937622</v>
       </c>
       <c r="F8">
-        <v>1.033363485782184</v>
+        <v>1.033368877750652</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045559952700463</v>
+        <v>1.045434137528151</v>
       </c>
       <c r="J8">
-        <v>1.027347350843114</v>
+        <v>1.027359022124992</v>
       </c>
       <c r="K8">
-        <v>1.034766342150238</v>
+        <v>1.034378568205415</v>
       </c>
       <c r="L8">
-        <v>1.032461243702791</v>
+        <v>1.032488844415581</v>
       </c>
       <c r="M8">
-        <v>1.044109724110925</v>
+        <v>1.044115048804406</v>
       </c>
       <c r="N8">
-        <v>1.012629904771113</v>
+        <v>1.01426015604462</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043482272337496</v>
+        <v>1.043486486458023</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035676055557817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035412940282144</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021127629117038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9955037023438724</v>
+        <v>0.9961126049310971</v>
       </c>
       <c r="D9">
-        <v>1.017185177746426</v>
+        <v>1.017431066627785</v>
       </c>
       <c r="E9">
-        <v>1.013498226603388</v>
+        <v>1.01399700874268</v>
       </c>
       <c r="F9">
-        <v>1.025955806309003</v>
+        <v>1.026292281452857</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043562082407596</v>
+        <v>1.043714025151254</v>
       </c>
       <c r="J9">
-        <v>1.021216241721828</v>
+        <v>1.021803387930578</v>
       </c>
       <c r="K9">
-        <v>1.03000545747046</v>
+        <v>1.030247528561171</v>
       </c>
       <c r="L9">
-        <v>1.026376035864816</v>
+        <v>1.026867003934499</v>
       </c>
       <c r="M9">
-        <v>1.038641351298822</v>
+        <v>1.038972715958177</v>
       </c>
       <c r="N9">
-        <v>1.010470468044999</v>
+        <v>1.012720214921367</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039154426789717</v>
+        <v>1.039416680143083</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032306562917043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032488530486893</v>
+      </c>
+      <c r="S9">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T9">
+        <v>1.020232843902644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9883380536387661</v>
+        <v>0.9894161675993587</v>
       </c>
       <c r="D10">
-        <v>1.012596166080298</v>
+        <v>1.01332239007878</v>
       </c>
       <c r="E10">
-        <v>1.00802851412543</v>
+        <v>1.00889783025773</v>
       </c>
       <c r="F10">
-        <v>1.021009649954187</v>
+        <v>1.021607870920413</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042162678561158</v>
+        <v>1.042524823856776</v>
       </c>
       <c r="J10">
-        <v>1.017022129286068</v>
+        <v>1.018056089800372</v>
       </c>
       <c r="K10">
-        <v>1.026741657212347</v>
+        <v>1.027455199920219</v>
       </c>
       <c r="L10">
-        <v>1.022254308663113</v>
+        <v>1.023108268796495</v>
       </c>
       <c r="M10">
-        <v>1.035009654438034</v>
+        <v>1.035597648799602</v>
       </c>
       <c r="N10">
-        <v>1.009000699438783</v>
+        <v>1.011801280491108</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036331743777587</v>
+        <v>1.036797075304377</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030015740758434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030532758462242</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019625122008191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9858852130199803</v>
+        <v>0.9871711043668109</v>
       </c>
       <c r="D11">
-        <v>1.01112400428295</v>
+        <v>1.012043060560657</v>
       </c>
       <c r="E11">
-        <v>1.006544824127013</v>
+        <v>1.007576467122916</v>
       </c>
       <c r="F11">
-        <v>1.020181346954925</v>
+        <v>1.02089413855344</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041867426679721</v>
+        <v>1.042311495045409</v>
       </c>
       <c r="J11">
-        <v>1.015857205279121</v>
+        <v>1.017087493602291</v>
       </c>
       <c r="K11">
-        <v>1.025839143618146</v>
+        <v>1.026741380810975</v>
       </c>
       <c r="L11">
-        <v>1.021344361170124</v>
+        <v>1.02235690294316</v>
       </c>
       <c r="M11">
-        <v>1.034732450758378</v>
+        <v>1.035432493570253</v>
       </c>
       <c r="N11">
-        <v>1.008669546009854</v>
+        <v>1.011821646161166</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036549549122663</v>
+        <v>1.037103274655336</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029410702555238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030064341484904</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019519015359556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9852326985830849</v>
+        <v>0.986571982311568</v>
       </c>
       <c r="D12">
-        <v>1.010774019722684</v>
+        <v>1.011739228604187</v>
       </c>
       <c r="E12">
-        <v>1.006328153195057</v>
+        <v>1.007399208055309</v>
       </c>
       <c r="F12">
-        <v>1.02036299783962</v>
+        <v>1.021103194061308</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041878277611205</v>
+        <v>1.042339054593162</v>
       </c>
       <c r="J12">
-        <v>1.015675458373041</v>
+        <v>1.016955716422807</v>
       </c>
       <c r="K12">
-        <v>1.025697677067058</v>
+        <v>1.026644927201452</v>
       </c>
       <c r="L12">
-        <v>1.021335111773658</v>
+        <v>1.022386010707398</v>
       </c>
       <c r="M12">
-        <v>1.03511020378369</v>
+        <v>1.035836958523289</v>
       </c>
       <c r="N12">
-        <v>1.008668050678124</v>
+        <v>1.0119323893989</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037175280407822</v>
+        <v>1.037749939616464</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029310679713972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029996146260829</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019533346318635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9859403317159573</v>
+        <v>0.9871995140597721</v>
       </c>
       <c r="D13">
-        <v>1.011283370187266</v>
+        <v>1.012171119868655</v>
       </c>
       <c r="E13">
-        <v>1.007088593800866</v>
+        <v>1.008092347667964</v>
       </c>
       <c r="F13">
-        <v>1.021358387846445</v>
+        <v>1.022050310129321</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042139507174755</v>
+        <v>1.042561464053639</v>
       </c>
       <c r="J13">
-        <v>1.016257029266502</v>
+        <v>1.017461026904231</v>
       </c>
       <c r="K13">
-        <v>1.026154225863802</v>
+        <v>1.027025533307586</v>
       </c>
       <c r="L13">
-        <v>1.022037653953348</v>
+        <v>1.02302261721683</v>
       </c>
       <c r="M13">
-        <v>1.036044823908855</v>
+        <v>1.036724254242894</v>
       </c>
       <c r="N13">
-        <v>1.00892912487582</v>
+        <v>1.012087818826051</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038191247042002</v>
+        <v>1.038728350750604</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029630968126421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030262492550134</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019645236417969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9870498191209691</v>
+        <v>0.9881935442434971</v>
       </c>
       <c r="D14">
-        <v>1.01202925767324</v>
+        <v>1.012807925632408</v>
       </c>
       <c r="E14">
-        <v>1.008059426662347</v>
+        <v>1.00896888282002</v>
       </c>
       <c r="F14">
-        <v>1.022418978295133</v>
+        <v>1.023043823225664</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042435051554648</v>
+        <v>1.04280548670627</v>
       </c>
       <c r="J14">
-        <v>1.017007883896752</v>
+        <v>1.018102238859002</v>
       </c>
       <c r="K14">
-        <v>1.026744506403329</v>
+        <v>1.027508936425302</v>
       </c>
       <c r="L14">
-        <v>1.022847709478433</v>
+        <v>1.023740367976564</v>
       </c>
       <c r="M14">
-        <v>1.03694656932652</v>
+        <v>1.037560286101731</v>
       </c>
       <c r="N14">
-        <v>1.009230309255277</v>
+        <v>1.012218138148693</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039077495466186</v>
+        <v>1.039562585807424</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030049756466304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030605844216564</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019768258283538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9876235071197917</v>
+        <v>0.9887107502764391</v>
       </c>
       <c r="D15">
-        <v>1.012405802212807</v>
+        <v>1.013131502030917</v>
       </c>
       <c r="E15">
-        <v>1.008521281489253</v>
+        <v>1.009385247235204</v>
       </c>
       <c r="F15">
-        <v>1.022875167429209</v>
+        <v>1.023467784080182</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042566296263365</v>
+        <v>1.042912471256844</v>
       </c>
       <c r="J15">
-        <v>1.017366116544267</v>
+        <v>1.018406852798959</v>
       </c>
       <c r="K15">
-        <v>1.027026845510494</v>
+        <v>1.027739378524805</v>
       </c>
       <c r="L15">
-        <v>1.023213223579097</v>
+        <v>1.024061359107815</v>
       </c>
       <c r="M15">
-        <v>1.037308605563045</v>
+        <v>1.037890751691058</v>
       </c>
       <c r="N15">
-        <v>1.009364599697267</v>
+        <v>1.012265720129414</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039401201377201</v>
+        <v>1.039861325762109</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030255293682847</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030775253125595</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019822337717835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9905195551607731</v>
+        <v>0.9913496787134541</v>
       </c>
       <c r="D16">
-        <v>1.014248863202036</v>
+        <v>1.014732212899324</v>
       </c>
       <c r="E16">
-        <v>1.010693551638893</v>
+        <v>1.011353660589582</v>
       </c>
       <c r="F16">
-        <v>1.024813051005725</v>
+        <v>1.025261816394084</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04312261929607</v>
+        <v>1.043361819537523</v>
       </c>
       <c r="J16">
-        <v>1.019036422443797</v>
+        <v>1.019832857400633</v>
       </c>
       <c r="K16">
-        <v>1.028329592568484</v>
+        <v>1.028804559603153</v>
       </c>
       <c r="L16">
-        <v>1.024836259447904</v>
+        <v>1.025484818292041</v>
       </c>
       <c r="M16">
-        <v>1.038712892526513</v>
+        <v>1.039154080302386</v>
       </c>
       <c r="N16">
-        <v>1.009938818248561</v>
+        <v>1.012441691300006</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040472420435006</v>
+        <v>1.040821142326917</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03117957864606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031531861388789</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020047179792428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9921629753844902</v>
+        <v>0.9928689905973443</v>
       </c>
       <c r="D17">
-        <v>1.015275159144528</v>
+        <v>1.015638766550643</v>
       </c>
       <c r="E17">
-        <v>1.011854251512992</v>
+        <v>1.012417457779059</v>
       </c>
       <c r="F17">
-        <v>1.025740161721085</v>
+        <v>1.02612078839127</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043392833011719</v>
+        <v>1.043580998617025</v>
       </c>
       <c r="J17">
-        <v>1.019925686270996</v>
+        <v>1.020603988257727</v>
       </c>
       <c r="K17">
-        <v>1.029020557448456</v>
+        <v>1.029378037389039</v>
       </c>
       <c r="L17">
-        <v>1.025657576910897</v>
+        <v>1.026211211510947</v>
       </c>
       <c r="M17">
-        <v>1.039311438661072</v>
+        <v>1.039685818368926</v>
       </c>
       <c r="N17">
-        <v>1.010221872210235</v>
+        <v>1.012539502332764</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040816472770171</v>
+        <v>1.041112417994509</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031670724637164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031940182964736</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020157383438232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9928632330824354</v>
+        <v>0.9935331999753892</v>
       </c>
       <c r="D18">
-        <v>1.015672752762057</v>
+        <v>1.016000424946189</v>
       </c>
       <c r="E18">
-        <v>1.012211929448362</v>
+        <v>1.012749022899528</v>
       </c>
       <c r="F18">
-        <v>1.025816162368055</v>
+        <v>1.026178600070992</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043429537104789</v>
+        <v>1.043604966334893</v>
       </c>
       <c r="J18">
-        <v>1.020198596843782</v>
+        <v>1.020842761192812</v>
       </c>
       <c r="K18">
-        <v>1.029226328911668</v>
+        <v>1.029548569811468</v>
       </c>
       <c r="L18">
-        <v>1.025823146678991</v>
+        <v>1.026351261396934</v>
       </c>
       <c r="M18">
-        <v>1.039203673132543</v>
+        <v>1.039560255070638</v>
       </c>
       <c r="N18">
-        <v>1.01026902699613</v>
+        <v>1.012530039868949</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040493536341363</v>
+        <v>1.040775471270099</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031804505550469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032047915959105</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020168863379723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.99272988068813</v>
+        <v>0.9934314897744833</v>
       </c>
       <c r="D19">
-        <v>1.015527771889317</v>
+        <v>1.015886235219496</v>
       </c>
       <c r="E19">
-        <v>1.011850899059611</v>
+        <v>1.01241601060541</v>
       </c>
       <c r="F19">
-        <v>1.025119824614892</v>
+        <v>1.025502289682451</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043270028150287</v>
+        <v>1.043462725792369</v>
       </c>
       <c r="J19">
-        <v>1.019934134369092</v>
+        <v>1.020608871625605</v>
       </c>
       <c r="K19">
-        <v>1.029020616785847</v>
+        <v>1.029373168272221</v>
       </c>
       <c r="L19">
-        <v>1.025404695121337</v>
+        <v>1.025960401786719</v>
       </c>
       <c r="M19">
-        <v>1.038456304049736</v>
+        <v>1.038832612144729</v>
       </c>
       <c r="N19">
-        <v>1.010117870819649</v>
+        <v>1.01241258213597</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039576901181893</v>
+        <v>1.039874530068694</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.031665493629696</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031930958908571</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020098583908791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.990236411147968</v>
+        <v>0.9911575730580466</v>
       </c>
       <c r="D20">
-        <v>1.013829439165588</v>
+        <v>1.01440453348473</v>
       </c>
       <c r="E20">
-        <v>1.009479783705347</v>
+        <v>1.010223758124326</v>
       </c>
       <c r="F20">
-        <v>1.022318232837652</v>
+        <v>1.022827642496178</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042551550480481</v>
+        <v>1.042845784126156</v>
       </c>
       <c r="J20">
-        <v>1.018148961151361</v>
+        <v>1.019033662905388</v>
       </c>
       <c r="K20">
-        <v>1.027633396603218</v>
+        <v>1.028198738720368</v>
       </c>
       <c r="L20">
-        <v>1.023357965811468</v>
+        <v>1.024089186129675</v>
       </c>
       <c r="M20">
-        <v>1.035979675876434</v>
+        <v>1.036480630162691</v>
       </c>
       <c r="N20">
-        <v>1.009401963064587</v>
+        <v>1.011975723181186</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037088839225268</v>
+        <v>1.037485293010072</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030688615428563</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031104928262845</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019790276027988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9847049366176107</v>
+        <v>0.9861478822130608</v>
       </c>
       <c r="D21">
-        <v>1.010275946878177</v>
+        <v>1.011341957490785</v>
       </c>
       <c r="E21">
-        <v>1.005198294092268</v>
+        <v>1.006361649557553</v>
       </c>
       <c r="F21">
-        <v>1.018352584182666</v>
+        <v>1.019160283985846</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041416656928657</v>
+        <v>1.041933846799324</v>
       </c>
       <c r="J21">
-        <v>1.014856355377441</v>
+        <v>1.016236392513193</v>
       </c>
       <c r="K21">
-        <v>1.025065218911765</v>
+        <v>1.0261115925057</v>
       </c>
       <c r="L21">
-        <v>1.020081847937165</v>
+        <v>1.021223492601483</v>
       </c>
       <c r="M21">
-        <v>1.032994407879946</v>
+        <v>1.033787529276534</v>
       </c>
       <c r="N21">
-        <v>1.00823315409784</v>
+        <v>1.011620937108016</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034685227327238</v>
+        <v>1.035312934574345</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028876053885644</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029632815250267</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019334923418509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9811780059799031</v>
+        <v>0.9829554815966463</v>
       </c>
       <c r="D22">
-        <v>1.0080139932715</v>
+        <v>1.009395241532936</v>
       </c>
       <c r="E22">
-        <v>1.002500130434933</v>
+        <v>1.003932832878263</v>
       </c>
       <c r="F22">
-        <v>1.015891149328426</v>
+        <v>1.0168913323306</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04068961443236</v>
+        <v>1.041350465883802</v>
       </c>
       <c r="J22">
-        <v>1.012767135484508</v>
+        <v>1.01446244255267</v>
       </c>
       <c r="K22">
-        <v>1.023428345749624</v>
+        <v>1.024782846566901</v>
       </c>
       <c r="L22">
-        <v>1.018022221423831</v>
+        <v>1.019426780121701</v>
       </c>
       <c r="M22">
-        <v>1.031154238619777</v>
+        <v>1.03213543453987</v>
       </c>
       <c r="N22">
-        <v>1.007492973766485</v>
+        <v>1.011391682749396</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03322884335752</v>
+        <v>1.034005401650433</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027705084143154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028678422458171</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019043970164172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9830416180457915</v>
+        <v>0.9846243214343049</v>
       </c>
       <c r="D23">
-        <v>1.009201792890638</v>
+        <v>1.010402550480387</v>
       </c>
       <c r="E23">
-        <v>1.003923797886794</v>
+        <v>1.005199020230849</v>
       </c>
       <c r="F23">
-        <v>1.017191894873757</v>
+        <v>1.018079318710818</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04106977593429</v>
+        <v>1.041647779826491</v>
       </c>
       <c r="J23">
-        <v>1.013866134647495</v>
+        <v>1.01537789261151</v>
       </c>
       <c r="K23">
-        <v>1.024284497190833</v>
+        <v>1.025462604709263</v>
       </c>
       <c r="L23">
-        <v>1.019106902797086</v>
+        <v>1.020357740848317</v>
       </c>
       <c r="M23">
-        <v>1.032125192207669</v>
+        <v>1.032996210699722</v>
       </c>
       <c r="N23">
-        <v>1.007880160791409</v>
+        <v>1.011463495167699</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033997295457266</v>
+        <v>1.034686654149847</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028300711874514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.02914838979494</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019189765267006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9902370373972691</v>
+        <v>0.9911608990373396</v>
       </c>
       <c r="D24">
-        <v>1.013811164862493</v>
+        <v>1.014388710347314</v>
       </c>
       <c r="E24">
-        <v>1.009441629470296</v>
+        <v>1.010188193571647</v>
       </c>
       <c r="F24">
-        <v>1.022236342765418</v>
+        <v>1.022747629175645</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042526174563851</v>
+        <v>1.042822137362985</v>
       </c>
       <c r="J24">
-        <v>1.018116154148293</v>
+        <v>1.019003500474566</v>
       </c>
       <c r="K24">
-        <v>1.027600005672979</v>
+        <v>1.028167769541863</v>
       </c>
       <c r="L24">
-        <v>1.02330494374254</v>
+        <v>1.02403872459716</v>
       </c>
       <c r="M24">
-        <v>1.035883900760237</v>
+        <v>1.036386709790204</v>
       </c>
       <c r="N24">
-        <v>1.009380452753393</v>
+        <v>1.011956166148929</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036972082157368</v>
+        <v>1.037370023641295</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030637409131735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031052771819575</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019776765753135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9982706739040927</v>
+        <v>0.9987046910976131</v>
       </c>
       <c r="D25">
-        <v>1.018978922612751</v>
+        <v>1.019043559223024</v>
       </c>
       <c r="E25">
-        <v>1.015638562802866</v>
+        <v>1.015998939377437</v>
       </c>
       <c r="F25">
-        <v>1.027914895862229</v>
+        <v>1.028153843009432</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044110470439521</v>
+        <v>1.044182819631545</v>
       </c>
       <c r="J25">
-        <v>1.022856377256937</v>
+        <v>1.023275726325957</v>
       </c>
       <c r="K25">
-        <v>1.031289589852711</v>
+        <v>1.031353270081844</v>
       </c>
       <c r="L25">
-        <v>1.027998865676604</v>
+        <v>1.028353867308391</v>
       </c>
       <c r="M25">
-        <v>1.040094790481508</v>
+        <v>1.04033028033147</v>
       </c>
       <c r="N25">
-        <v>1.011051934791606</v>
+        <v>1.013099835643829</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040304727684082</v>
+        <v>1.040491102137592</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033243282822606</v>
+        <v>1.033301908097968</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020476392729565</v>
       </c>
     </row>
   </sheetData>
